--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE7C7B-5E17-4B45-94EF-AA9C4CB41695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D234B-1CF3-4AC5-A6A5-B7BF07325620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7690" yWindow="140" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8700" yWindow="120" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第３３回世界コンピュータ将棋選手権 きふわらべアピール文書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -169,200 +169,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 ディープ・ラーニングと　評価関数と　探索が合わなくて、</t>
-    <rPh sb="23" eb="25">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タンサク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 指し手生成部を　cshogi　がやってくれるんだったら、</t>
-    <rPh sb="11" eb="12">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>セイセイブ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 お父んは　何をやるんだぜ？」</t>
-    <rPh sb="12" eb="13">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 デターミニスティックな　ルール・ベース　の思考部の作成だろ」</t>
-    <rPh sb="32" eb="35">
-      <t>シコウブ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 その詳細をこのＰＲ文書に書きなさいよ」</t>
-    <rPh sb="13" eb="15">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 目の前の局面で、次の１手は　０～５９３個　しか無いのだから、</t>
-    <rPh sb="11" eb="12">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョクメン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 およそ　６００本のくじがある　くじ引きで</t>
-    <rPh sb="18" eb="19">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 常に１番良いくじを引けるような　運の良さ　を上げたら</t>
-    <rPh sb="11" eb="12">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 いいんじゃないか？」</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 目の前を見ろだぜ」</t>
-    <rPh sb="11" eb="12">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 でも　あんたのお父んは　将棋を見る目が無いのだから、</t>
-    <rPh sb="19" eb="20">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウギ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 盤を見て　考えても意味ないのよ。</t>
-    <rPh sb="11" eb="12">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 くじ運　を上げるしかないのよ」</t>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 ランダム・ムーブより　くじ運がいいことを　示せだぜ」</t>
-    <rPh sb="24" eb="25">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1666,6 +1472,395 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　関係は　無し（０）　と　有り（１）　の２値</t>
+    <rPh sb="1" eb="3">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　ＮＩＴＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　お互い角道を開けるのは　有るだろうから　１　が入っていてほしいぜ」</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクミチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　２ｃ２ｄ　とか</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 　　良い手じゃないか？」</t>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 最初、将棋盤を１～５筋まで</t>
+    <rPh sb="9" eb="11">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ショウギバン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 半分だけ使って</t>
+    <rPh sb="9" eb="11">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 左右対称という扱いにすれば</t>
+    <rPh sb="9" eb="13">
+      <t>サユウタイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 メモリ容量が半分で済むと</t>
+    <rPh sb="12" eb="14">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 思ったけど、</t>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 飛車先の歩を突くのを覚えたら</t>
+    <rPh sb="9" eb="11">
+      <t>ヒシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 角先の歩も突くのよ」</t>
+    <rPh sb="9" eb="10">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　角頭歩戦法とか分からんから　無しで　０　が入っていてほしいぜ」</t>
+    </r>
+    <rPh sb="12" eb="15">
+      <t>カクトウフ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センポウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 じゃあ　着手と応手の　有りそうなペアに　印を付けようとしたんだ」</t>
+    <rPh sb="13" eb="15">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウシュ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シルシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 しかし　そんなん……」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　２ｂに玉がいるとき</t>
+    </r>
+    <rPh sb="37" eb="38">
+      <t>ギョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 ３ｃのコビンは</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 開けないないだろ？</t>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 7g7f_3c3d_ 関係は 0 では？」</t>
+    <rPh sb="42" eb="44">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 盤をあんまり見ず、</t>
+    <rPh sb="31" eb="32">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 手拍子でポンポン指してると</t>
+    <rPh sb="31" eb="34">
+      <t>テビョウシ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 思ってくれだぜ」</t>
+    <rPh sb="31" eb="32">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 作ろうとする人いないから</t>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 そんな欠陥のある予測モデル</t>
+    <rPh sb="34" eb="36">
+      <t>ケッカン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 ちゃんと実装すれば</t>
+    <rPh sb="35" eb="37">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 利きを見て反射神経的に</t>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シンケイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 発表できるのに……」</t>
+    <rPh sb="31" eb="33">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 どうダメだったかという知見を</t>
+    <rPh sb="42" eb="44">
+      <t>チケン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 ダメだったという結果を得て</t>
+    <rPh sb="39" eb="41">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>エ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2325,15 +2520,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1250999</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>50858</xdr:rowOff>
+      <xdr:colOff>1041449</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2362,7 +2557,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="298450" y="17862550"/>
+          <a:off x="88900" y="21951950"/>
           <a:ext cx="952549" cy="1124008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2425,22 +2620,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>3352800</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1276399</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>19098</xdr:rowOff>
+      <xdr:colOff>4305349</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAA43CE-AC45-4F9E-9522-07E9E86B1053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E47EAA9-4CA8-411A-8427-0F39F3246096}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2462,57 +2657,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="14306550"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1250999</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>158808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D72CCB-7AF6-4F31-BB69-AB7D8274F8F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="298450" y="15316200"/>
+          <a:off x="3352800" y="29089350"/>
           <a:ext cx="952549" cy="1124008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2525,114 +2670,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1187493</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>120699</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010893F7-A417-4F9B-880C-C969F2EA76F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="349250" y="16516350"/>
-          <a:ext cx="838243" cy="952549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1263699</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>152458</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E47EAA9-4CA8-411A-8427-0F39F3246096}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="311150" y="17621250"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1250999</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>114348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2676,13 +2721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1289099</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>57208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2726,13 +2771,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1282749</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>48</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2776,13 +2821,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1212893</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>146099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2826,13 +2871,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1270049</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>230</xdr:row>
       <xdr:rowOff>95308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2876,13 +2921,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1289099</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>82598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2926,13 +2971,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1174793</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>152449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2976,13 +3021,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1257349</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3026,13 +3071,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1212899</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>38158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3076,13 +3121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1162093</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>12749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3126,13 +3171,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1231949</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>6408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3176,13 +3221,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1225599</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>127048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3226,13 +3271,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1130343</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>171499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3276,13 +3321,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1187499</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>133408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3326,13 +3371,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1212899</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>146098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3376,13 +3421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092243</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>158799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3426,13 +3471,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1168449</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>120708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3476,13 +3521,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1174799</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3526,13 +3571,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1136699</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>63558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3576,13 +3621,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>25448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3626,13 +3671,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1073193</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>44499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3676,13 +3721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3726,13 +3771,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3776,13 +3821,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3826,13 +3871,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1117649</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>133408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3876,13 +3921,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3926,13 +3971,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4252,14 +4297,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3219609</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>19207</xdr:rowOff>
+      <xdr:rowOff>120807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4288,7 +4333,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="14395450"/>
+          <a:off x="133350" y="14497050"/>
           <a:ext cx="3086259" cy="3048157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4919,6 +4964,1296 @@
         <a:xfrm>
           <a:off x="127000" y="17881600"/>
           <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1016049</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>88948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B184BF1-08A5-4CAD-A4FC-33E14AFF76D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="20707350"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5168900</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D63DF3-D3DB-4709-A788-F651F7DC5AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="20351750"/>
+          <a:ext cx="3187700" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”７ｇ７ｆ＿３ｃ３ｄ＿”　＝　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3670300</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6756559</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>44607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A446451-08FB-642E-0CBB-BB02E4A1F8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3670300" y="22053550"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4546600</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5372100</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36597DCB-4F79-493A-B7B6-5F49C161F28C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="23285450"/>
+          <a:ext cx="825500" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>２ｃ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>２ｄ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5372100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5848350</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383CA887-8E4C-47AA-8452-61C96ED4214A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="91" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5372100" y="23355300"/>
+          <a:ext cx="476250" cy="149225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5848350</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6210300</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="楕円 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6995455E-89BF-498E-B83A-66AE60DF0011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="23177500"/>
+          <a:ext cx="361950" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5854700</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6178550</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="楕円 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C2D015-1D5A-467E-8CA8-D649C25A8D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5854700" y="22840950"/>
+          <a:ext cx="323850" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5372100</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5854700</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55B2DEB-9EDB-4E5C-8041-86A7777B9641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="3"/>
+          <a:endCxn id="92" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5372100" y="23021925"/>
+          <a:ext cx="482600" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1003343</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>19099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="図 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB305A6-9117-424A-9A05-8575A2479CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="23234650"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5118100</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2557ACC4-39DB-4C85-A9AF-5F2546DF170F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930400" y="25488900"/>
+          <a:ext cx="3187700" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”７ｇ７ｆ＿２ｃ２ｄ＿”　＝　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990649</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>171498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="図 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE3E4690-A8D1-41D4-B592-3A075F3CE8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="25412700"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>901743</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>82599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="図 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04A46DA-B05A-4FE8-B1C6-CFD90C173AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="26409650"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971599</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>58</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="図 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E81F2C-47CE-4389-A7CC-C8EB0898D49F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="27400250"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3156109</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>114457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="図 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE6FAB1-2AF7-8217-5926-A26BD59FA914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69850" y="29102050"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62AFFEE-A893-463B-B111-F6CE67DD3226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="30397450"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>３ｃ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>３ｄ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1949450</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2273300</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="楕円 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F64A8B1-AF48-48DD-9DEE-6C66116F36A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1949450" y="29921200"/>
+          <a:ext cx="323850" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2292350</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="楕円 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AB9029-DD56-4859-90C8-6CC1B4C2255A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930400" y="30226000"/>
+          <a:ext cx="361950" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1930400</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A212B422-2236-471F-99AC-32B91ED723E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="118" idx="3"/>
+          <a:endCxn id="120" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1612900" y="30403800"/>
+          <a:ext cx="317500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1949450</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410ABCF6-B660-4A7F-BCF2-688F7CAC68E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="118" idx="3"/>
+          <a:endCxn id="119" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1612900" y="30079950"/>
+          <a:ext cx="336550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3365500</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4318049</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>44498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="図 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AB4F82-616B-4CE4-964F-7DFCAB52D12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3365500" y="30619700"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3460750</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4298993</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>158799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="図 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030A8A69-8A09-4F0A-B3E0-9355BA19448A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460750" y="31953200"/>
+          <a:ext cx="838243" cy="952549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5227,10 +6562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A350"/>
+  <dimension ref="A1:A392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5255,7 +6590,7 @@
     </row>
     <row r="4" spans="1:1" ht="23.5">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -5263,7 +6598,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5271,12 +6606,12 @@
     </row>
     <row r="8" spans="1:1" s="5" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A9" s="13" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -5284,12 +6619,12 @@
     </row>
     <row r="11" spans="1:1" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="15" customFormat="1" ht="23.5">
       <c r="A12" s="16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -5305,12 +6640,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -5328,12 +6663,12 @@
     </row>
     <row r="24" spans="1:1" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="14" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -5354,12 +6689,12 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -5372,22 +6707,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="14" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="14" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5425,12 +6760,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -5438,12 +6773,12 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="23" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A54" s="16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -5463,27 +6798,27 @@
     </row>
     <row r="60" spans="1:1" ht="17.5">
       <c r="A60" s="14" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -5497,7 +6832,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -5529,17 +6864,17 @@
     </row>
     <row r="78" spans="1:1" ht="17.5">
       <c r="A78" s="14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.5">
       <c r="A79" s="14" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -5547,12 +6882,12 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -5560,27 +6895,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -5588,29 +6923,33 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="14" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17.5">
       <c r="A98" s="14" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1"/>
+      <c r="A102" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="23.5">
+      <c r="A103" s="16" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1"/>
@@ -5625,408 +6964,569 @@
       <c r="A107" s="1"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="8"/>
+      <c r="A108" s="1"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="8"/>
+      <c r="A109" s="1"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" ht="17.5">
       <c r="A111" s="14" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="A112" s="1"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="8"/>
+      <c r="A113" s="1"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="8"/>
+      <c r="A114" s="1"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="8"/>
+      <c r="A115" s="1"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="8"/>
+      <c r="A116" s="1"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="A117" s="1"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="8"/>
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" ht="17.5">
+      <c r="A119" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="17.5">
+      <c r="A120" s="14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="8"/>
+      <c r="A121" s="1"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="14" t="s">
-        <v>18</v>
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" ht="17.5">
+      <c r="A124" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="14" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="A129" s="1"/>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
-        <v>22</v>
-      </c>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" ht="17.5">
+      <c r="A138" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="14" t="s">
-        <v>24</v>
-      </c>
+      <c r="A140" s="1"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" ht="17.5">
+      <c r="A143" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="23.5">
-      <c r="A154" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="8"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="8"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="23.5">
-      <c r="A157" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="A156" s="8"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="8"/>
+    </row>
+    <row r="158" spans="1:1" ht="17.5">
+      <c r="A158" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="17.5">
+      <c r="A159" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="8"/>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="14" t="s">
-        <v>32</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="8"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="8"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="8"/>
+    </row>
+    <row r="166" spans="1:1" ht="17.5">
+      <c r="A166" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="14" t="s">
-        <v>34</v>
-      </c>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="8"/>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="14" t="s">
-        <v>35</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="14" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="14" t="s">
-        <v>42</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="23.5">
+      <c r="A196" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="14" t="s">
-        <v>46</v>
+      <c r="A198" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="23.5">
+      <c r="A199" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="14" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="14" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="14" t="s">
-        <v>59</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="14" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="14" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="14" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="14" t="s">
-        <v>68</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="14" t="s">
+    <row r="355" spans="1:1">
+      <c r="A355" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="23.5">
+      <c r="A356" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="23.5">
+      <c r="A359" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="14" t="s">
+    <row r="377" spans="1:1">
+      <c r="A377" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="14" t="s">
+    <row r="391" spans="1:1" ht="23.5">
+      <c r="A391" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="23.5">
+      <c r="A392" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" ht="23.5">
-      <c r="A314" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" ht="23.5">
-      <c r="A317" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" ht="23.5">
-      <c r="A349" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" ht="23.5">
-      <c r="A350" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D234B-1CF3-4AC5-A6A5-B7BF07325620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1251B1-C867-43C1-8D80-846D0F63AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="120" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第３３回世界コンピュータ将棋選手権 きふわらべアピール文書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -173,450 +173,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　盤を見ない～</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　ＭＩＮＡＩ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　　　　　　ＭＩＴＥＫＵＲＥＲＵ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　盤は cshogi が 見てくれる のだから</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 多分、 cshogi が合法手の一覧を返してくれるだろ」</t>
-    <rPh sb="11" eb="13">
-      <t>タブン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ゴウホウシュ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 `board.legal_moves` 配列に入ってんじゃないかな」</t>
-    <rPh sb="31" eb="33">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 じゃあ　もう　将棋盤を見るとか、　相手が何を考えてるか察するとか、</t>
-    <rPh sb="18" eb="21">
-      <t>ショウギバン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>サッ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 そういうこと　全部止めようぜ？</t>
-    <rPh sb="18" eb="20">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヤ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 `board.legal_moves` 配列が　全てで、</t>
-    <rPh sb="31" eb="33">
-      <t>ハイレツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 その中から　１本のくじ　を引くことに集中しようぜ？」</t>
-    <rPh sb="13" eb="14">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シュウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 貧すれば鈍ずるの　わらう」</t>
-    <rPh sb="11" eb="12">
-      <t>ヒン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ドン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 利きとか　駒割りとかも　見ないのかだぜ？」</t>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 将棋を指さない。　くじを引く」</t>
-    <rPh sb="11" eb="13">
-      <t>ショウギ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 １局面の平均合法手数を　８０手　と仮定すれば、</t>
-    <rPh sb="12" eb="14">
-      <t>キョクメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ゴウホウシュ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カテイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 １１５手ぐらいで　対局が終了すると仮定したら、</t>
-    <rPh sb="14" eb="15">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイキョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カテイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 くじを　５７～５８本　引くだけでいいのだから、</t>
-    <rPh sb="20" eb="21">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 ８０の５８乗は　１０の１１０乗よ」</t>
-    <rPh sb="16" eb="17">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 いや、考えなければならないのは</t>
-    <rPh sb="14" eb="15">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 サブセットを考え出したら　べき集合　にならないかだぜ？」</t>
-    <rPh sb="17" eb="18">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シュウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 合法手の　セットの数だぜ。</t>
-    <rPh sb="11" eb="14">
-      <t>ゴウホウシュ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 マルコフ過程だぜ」</t>
-    <rPh sb="15" eb="17">
-      <t>カテイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 平手初期局面の合法手は３０手と言われているけど、</t>
-    <rPh sb="11" eb="13">
-      <t>ヒラテ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ショキキョクメン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ゴウホウシュ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 駒落ちの初期局面は　例えば左香落ちなら２９手ですしね」</t>
-    <rPh sb="11" eb="13">
-      <t>コマオ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ショキキョクメン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒダリキョウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 自分のくじ引きと　相手のくじ引きは　深く考えるのを放棄して　独立。</t>
-    <rPh sb="11" eb="13">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホウキ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ドクリツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 あっ、お父ん　待てだぜ。</t>
-    <rPh sb="15" eb="16">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 コンピューター将棋の指し手は　移動元、移動先、成り、打　だぜ。</t>
-    <rPh sb="18" eb="20">
-      <t>ショウギ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>イドウモト</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>イドウサキ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 自分がどの駒を動かしているかという情報は持っていないぜ？」</t>
-    <rPh sb="11" eb="13">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 むしろ　計算しやすくなったぜ。</t>
-    <rPh sb="15" eb="17">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 将棋盤は８１マス、持ち駒は７種類、成りは難しいが</t>
-    <rPh sb="11" eb="14">
-      <t>ショウギバン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ゴマ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ムズカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 どこでも成れると仮定して</t>
-    <rPh sb="15" eb="16">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カテイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 （８１＋７）×８１×２　＝　１４２５６</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 もしかすると　指し手の符号は　１４２５６　個も無いんじゃないか？」</t>
-    <rPh sb="18" eb="19">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 そのべき集合の要素数は　２の１４２５６乗　ぐらいあるんじゃないの？」</t>
-    <rPh sb="15" eb="17">
-      <t>シュウゴウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ヨウソスウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　　「 １０の４２９２乗ぐらいか。</t>
     <rPh sb="18" eb="19">
       <t>ジョウ</t>
@@ -1036,22 +592,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>ジュヨウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 予測モデルは　２指し手関係のＫＫ、ＫＰ、ＰＫ、ＰＰだぜ。</t>
-    <rPh sb="11" eb="13">
-      <t>ヨソク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カンケイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1861,6 +1401,519 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　ＭＩＮＡＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ＵＳＩの規格では</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 指し手に駒は書いてないから</t>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 右図の局面も</t>
+    <rPh sb="9" eb="11">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョクメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 7g7f_3c3d_ 関係だぜ」</t>
+    <rPh sb="20" eb="22">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 こんな筋の通っていない</t>
+    <rPh sb="12" eb="13">
+      <t>スジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 予測モデルを作ろうとする</t>
+    <rPh sb="9" eb="11">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 お父んのモチベーションは</t>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 どこからくるのか？」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 浅いアイデアの水平線効果なんじゃない？」</t>
+    <rPh sb="9" eb="10">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>スイヘイセン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 予測モデルは　２利き関係のＫＫ、ＫＰ、ＰＫ、ＰＰだぜ。</t>
+    <rPh sb="11" eb="13">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＫＥ＾ＫＥ＾　ＫＥ＾ＰＩ＾　ＰＩ＾ＫＥ＾　ＰＩ＾ＰＩ＾</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　ＫＫ、　ＫＰ、　 ＰＫ、　 ＰＰ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　ＲＩＫＡＩ　ＳＩＴＥＩＮＡＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　作っている本人が 理解していない 仕様</t>
+    <rPh sb="1" eb="2">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　Ｋ（ケー）ってのは</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 玉のことだぜ。</t>
+    <rPh sb="9" eb="10">
+      <t>ギョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 Ｋｉｎｇ（キング）のケー」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　Ｐ（ピー）ってのは</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 玉以外の駒のことだぜ。</t>
+    <rPh sb="9" eb="10">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 Ｐｉｅｃｅ（ピース）のピー。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 右図の他に、金駒もあるな」</t>
+    <rPh sb="9" eb="11">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　左図の 5i6h_5a4b_ は</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>サズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 自玉と敵玉の関係だから</t>
+    <rPh sb="31" eb="33">
+      <t>ジギョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テキギョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 ＫＫと呼ぶぜ」</t>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　右図の 5i6h_5a4b_ は</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>ウズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 自玉と敵金の関係だから</t>
+    <rPh sb="9" eb="11">
+      <t>ジギョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ＫＰと呼ぶぜ」</t>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 自金と敵玉の関係だから</t>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テキギョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 ＰＫと呼ぶぜ」</t>
+    <rPh sb="34" eb="35">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 自金と敵金の関係だから</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ＰＰと呼ぶぜ」</t>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 駒は見ないと言っても</t>
+    <rPh sb="9" eb="10">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　駒を見ない　（例外は後述）</t>
+    <rPh sb="1" eb="2">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウジュツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 玉とそれ以外は区別するのね～」</t>
+    <rPh sb="9" eb="10">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 玉は　金にも銀にも利きが似てるからな、銀のふりして上へ突っ込んでいくぜ。</t>
+    <rPh sb="9" eb="10">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 将棋で　玉は特別扱いだぜ、捨て駒に使ってはいけないという点で」</t>
+    <rPh sb="9" eb="11">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゴマ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 ＫＫ、ＫＰ、ＰＫ、ＰＰ　なんて　実装できてないと思う」</t>
+    <rPh sb="25" eb="27">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 わたしは何を実装したんだろな……？」</t>
+    <rPh sb="13" eb="14">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2670,22 +2723,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1250999</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>114348</xdr:rowOff>
+      <xdr:colOff>1009699</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>12748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
+        <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABF4C28-0763-4E74-A158-D99795C305DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD8659D-255C-4436-84A7-EDDEA39BB35C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2760,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="298450" y="20510500"/>
+          <a:off x="57150" y="39884350"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2720,22 +2773,72 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1289099</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>57208</xdr:rowOff>
+      <xdr:colOff>914443</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539EDAC7-EEF2-455E-9E29-C9B9E61ADD36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F910529F-78D1-4A2A-9274-C641DEA0F185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="52781200"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1035099</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>114358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA7DE03-70A3-4487-A17F-6177001FDA9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2860,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="336550" y="21501100"/>
+          <a:off x="82550" y="54902100"/>
           <a:ext cx="952549" cy="1124008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2770,22 +2873,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1282749</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>48</xdr:rowOff>
+      <xdr:colOff>1035099</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA88B8B9-6DB6-4E5A-8834-4C5F79F5CD8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B028E094-14D1-41DA-9DB8-80CC1318148D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2910,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330200" y="22707600"/>
+          <a:off x="82550" y="56184800"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2820,614 +2923,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1212893</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>146099</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C057506-BC7C-4633-B1F3-A2B5B74F1841}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="374650" y="23717250"/>
-          <a:ext cx="838243" cy="952549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1270049</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>95308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B260816F-4ACC-4C98-91A1-825748FFC7B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="317500" y="24739600"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1289099</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>82598</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD8659D-255C-4436-84A7-EDDEA39BB35C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="336550" y="25990550"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1174793</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>152449</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549995B-F610-4EEF-9541-A899A9A54932}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="336550" y="27101800"/>
-          <a:ext cx="838243" cy="952549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1257349</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>38148</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFC576B-6186-4008-8001-78A2563EDCA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="28968700"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1212899</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>38158</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F804AA-1B87-42D2-9ACD-80EB1E3C2049}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="260350" y="30016450"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>260</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1162093</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>12749</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7604B5BA-6E02-4726-B947-5C1B0F397CC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="323850" y="31229300"/>
-          <a:ext cx="838243" cy="952549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1231949</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>6408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B900E814-0098-4426-B205-8FB44CC85F0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="279400" y="32296100"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1225599</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>127048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CD4596-6CAE-425E-830C-EE7A23A13D06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="273050" y="33502600"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1130343</xdr:colOff>
-      <xdr:row>284</xdr:row>
-      <xdr:rowOff>171499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F910529F-78D1-4A2A-9274-C641DEA0F185}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="34588450"/>
-          <a:ext cx="838243" cy="952549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1187499</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>133408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA7DE03-70A3-4487-A17F-6177001FDA9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="234950" y="35623500"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1212899</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>146098</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B028E094-14D1-41DA-9DB8-80CC1318148D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="260350" y="36899850"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092243</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>158799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3471,13 +2974,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1168449</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>120708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3521,13 +3024,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1174799</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3571,13 +3074,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1136699</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>63558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3621,13 +3124,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>25448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3671,13 +3174,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1073193</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>44499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3721,13 +3224,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3771,13 +3274,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3821,13 +3324,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3871,13 +3374,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1117649</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>133408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3921,13 +3424,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3971,13 +3474,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>409</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6254,6 +5757,806 @@
         <a:xfrm>
           <a:off x="3460750" y="31953200"/>
           <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3663950</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6750209</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>63657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="図 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47FDDAD-B14B-9752-2850-FBB84002FA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3663950" y="34461450"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>996999</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="図 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB44134-6377-4F61-9DA8-405B9D0E97FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44450" y="34550350"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1035099</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>44508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="図 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACF1EB1-D9CE-4DA3-9908-76698DF78EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="35833050"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971593</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>88949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="図 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC66329-699F-4B6B-8FC6-F0757AD80A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="37115750"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3721100</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4025916</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>184166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="図 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93BEEE76-23BD-717D-3980-D4104743ECF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3721100" y="40043100"/>
+          <a:ext cx="304816" cy="317516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3740150</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5931013</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>69866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="137" name="図 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341FEB93-1388-832B-0AD0-62388A0F8A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3740150" y="41097200"/>
+          <a:ext cx="2190863" cy="304816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047799</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>69898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="139" name="図 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE46DF6E-6951-46E2-8660-23E28232603E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="40874950"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3225959</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>82707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="図 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CCB666-B108-35ED-B3A3-954AB8151910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="42411650"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3422650</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4375199</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>171498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="142" name="図 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40B33CC-ED7C-4F9A-B1E6-BC111489D650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3422650" y="42487850"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3644900</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6731159</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>44607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="図 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A96CF11-6A88-3582-1B76-F6FB5A0E3E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3644900" y="44596050"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971599</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>57198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="図 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A0AD79-7467-4FAC-9151-021ED31646F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="45662850"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3245009</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>95407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="図 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E17751-E8E9-5ABF-A6CD-249BEC44DD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158750" y="48247300"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4267249</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>63548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="図 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AD4EA1-42CE-4931-A528-FC6D59113E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="48202850"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3619500</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6705759</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>133507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="150" name="図 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9914756-2DA0-8076-B588-BBFC2E7CD6B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="50285650"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952549</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>101648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="151" name="図 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C59B7D3-71FB-4650-BDB0-553B905CC93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="51663600"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1009699</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>107998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="152" name="図 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6676E73-DA45-4371-9181-930039953091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="53848000"/>
+          <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6562,10 +6865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A392"/>
+  <dimension ref="A1:A416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -6590,7 +6893,7 @@
     </row>
     <row r="4" spans="1:1" ht="23.5">
       <c r="A4" s="10" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6598,7 +6901,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -6606,12 +6909,12 @@
     </row>
     <row r="8" spans="1:1" s="5" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -6619,12 +6922,12 @@
     </row>
     <row r="11" spans="1:1" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="15" customFormat="1" ht="23.5">
       <c r="A12" s="16" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -6640,12 +6943,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6663,12 +6966,12 @@
     </row>
     <row r="24" spans="1:1" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="14" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -6689,12 +6992,12 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -6707,22 +7010,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="14" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="14" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="14" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -6760,12 +7063,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -6773,12 +7076,12 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="23" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A54" s="16" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -6798,27 +7101,27 @@
     </row>
     <row r="60" spans="1:1" ht="17.5">
       <c r="A60" s="14" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="14" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -6832,7 +7135,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -6864,17 +7167,17 @@
     </row>
     <row r="78" spans="1:1" ht="17.5">
       <c r="A78" s="14" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.5">
       <c r="A79" s="14" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -6882,12 +7185,12 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -6895,27 +7198,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -6923,32 +7226,32 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="14" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17.5">
       <c r="A98" s="14" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="23" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="23.5">
       <c r="A103" s="16" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -6974,7 +7277,7 @@
     </row>
     <row r="111" spans="1:1" ht="17.5">
       <c r="A111" s="14" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -7000,12 +7303,12 @@
     </row>
     <row r="119" spans="1:1" ht="17.5">
       <c r="A119" s="14" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17.5">
       <c r="A120" s="14" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -7019,27 +7322,27 @@
     </row>
     <row r="124" spans="1:1" ht="17.5">
       <c r="A124" s="14" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="14" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -7047,12 +7350,12 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -7075,7 +7378,7 @@
     </row>
     <row r="138" spans="1:1" ht="17.5">
       <c r="A138" s="14" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -7092,7 +7395,7 @@
     </row>
     <row r="143" spans="1:1" ht="17.5">
       <c r="A143" s="14" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -7112,7 +7415,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="14" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -7141,17 +7444,17 @@
     </row>
     <row r="158" spans="1:1" ht="17.5">
       <c r="A158" s="14" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.5">
       <c r="A159" s="14" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="14" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -7159,7 +7462,7 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="14" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -7173,22 +7476,22 @@
     </row>
     <row r="166" spans="1:1" ht="17.5">
       <c r="A166" s="14" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="14" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="14" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="14" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -7196,337 +7499,405 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="14" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="14" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="14" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="14" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="14" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="23.5">
+      <c r="A182" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="17.5">
+      <c r="A187" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="17.5">
+      <c r="A188" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="17.5">
       <c r="A195" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="23.5">
-      <c r="A196" s="13" t="s">
-        <v>14</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="23.5">
-      <c r="A199" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="A198" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="23.5">
+      <c r="A206" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="23.5">
+      <c r="A209" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="17.5">
       <c r="A214" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="17.5">
       <c r="A215" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="14" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="17.5">
+      <c r="A220" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="14"/>
+    </row>
+    <row r="228" spans="1:1" ht="17.5">
+      <c r="A228" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="17.5">
       <c r="A229" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="14" t="s">
-        <v>40</v>
-      </c>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="14"/>
+    </row>
+    <row r="246" spans="1:1" ht="17.5">
+      <c r="A246" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="17.5">
+      <c r="A247" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="17.5">
+      <c r="A260" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="14"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="A275" s="14"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="A277" s="14"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="14" t="s">
-        <v>44</v>
+      <c r="A278" s="14"/>
+    </row>
+    <row r="279" spans="1:1" ht="17.5">
+      <c r="A279" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="14" t="s">
-        <v>47</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="14"/>
+    </row>
+    <row r="285" spans="1:1" ht="17.5">
+      <c r="A285" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="14" t="s">
-        <v>56</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="14"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="14"/>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="14"/>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="14"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="14" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" ht="23.5">
-      <c r="A356" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" ht="23.5">
-      <c r="A359" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" ht="23.5">
-      <c r="A391" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" ht="23.5">
-      <c r="A392" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="23.5">
+      <c r="A380" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="23.5">
+      <c r="A383" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="23.5">
+      <c r="A415" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="23.5">
+      <c r="A416" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1251B1-C867-43C1-8D80-846D0F63AFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598CCF9-66C1-4DAB-9352-9274B71691BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="148">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -173,194 +173,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　　「 １０の４２９２乗ぐらいか。</t>
-    <rPh sb="18" eb="19">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 あれっ？　１０の１１０乗より多いぜ？」</t>
-    <rPh sb="22" eb="23">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 その、べき集合　とか言うの　止めようぜ？</t>
-    <rPh sb="16" eb="18">
-      <t>シュウゴウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヤ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 深く考えるの、禁止！」</t>
-    <rPh sb="11" eb="12">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 じゃあ　１４２５６個の要素を　全順序に並べなさいよ」</t>
-    <rPh sb="20" eb="21">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ゼンジュンジョ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 将棋の指し手が　全順序に並んでいるとは　思えない……」</t>
-    <rPh sb="11" eb="13">
-      <t>ショウギ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ゼンジュンジョ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 全順序だが、その全順序を決めるシード値が</t>
-    <rPh sb="11" eb="14">
-      <t>ゼンジュンジョ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ゼンジュンジョ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 それが　べき集合　になると言ってる。</t>
-    <rPh sb="17" eb="19">
-      <t>シュウゴウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 全数調査は無理だろ。標本抽出にしろだぜ」</t>
-    <rPh sb="11" eb="12">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョウサ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ムリ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウホン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チュウシュツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 標本かあ。いいなあ」</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウホン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 セットの組み合わせによって決まればいいんじゃないか？」</t>
-    <rPh sb="15" eb="16">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 全射であり、単射ではないわねえ」</t>
-    <rPh sb="11" eb="13">
-      <t>ゼンシャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タンシャ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 おみくじって　そんなもんだろ。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 引きにくる客の数より　おみくじの番号の数の方が少ない」</t>
-    <rPh sb="11" eb="12">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>スク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　盤の表示は要らない～</t>
     <rPh sb="1" eb="2">
       <t>バン</t>
@@ -424,29 +236,6 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 じゃあ　お父んが　やるのは　シャッフルだけだぜ。</t>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 くじを　かき混ぜて　一番手前の　くじ　を引くだけ……」</t>
-    <rPh sb="17" eb="18">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テマエ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1501,19 +1290,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　「 浅いアイデアの水平線効果なんじゃない？」</t>
-    <rPh sb="9" eb="10">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>スイヘイセン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　　「 予測モデルは　２利き関係のＫＫ、ＫＰ、ＰＫ、ＰＰだぜ。</t>
     <rPh sb="11" eb="13">
       <t>ヨソク</t>
@@ -1915,6 +1691,193 @@
     <rPh sb="15" eb="17">
       <t>ジッソウ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　ＹＯＮ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　１つの関係は ４ 種類ある</t>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＫＫ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＫＰ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＰＫ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＰＰ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　じゃあ　１つの関係は　４種類あるんだ」</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 玉と　それ以外の駒を分けたら　それだけ必要だぜ」</t>
+    <rPh sb="9" eb="10">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ＫＰがあれば　前後反転・正負反転で　ＰＫを兼ねるんじゃない？」</t>
+    </r>
+    <rPh sb="19" eb="23">
+      <t>ゼンゴハンテン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイフ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 そういう工夫をしようとして　プロジェクトが崩壊したんで</t>
+    <rPh sb="13" eb="15">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホウカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 次期版を作るなら　そういう工夫はしないようにするぜ」</t>
+    <rPh sb="9" eb="12">
+      <t>ジキバン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クフウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 浅いアイデアから遠ざけられる挫折の水平線効果なんじゃない？」</t>
+    <rPh sb="9" eb="10">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ザセツ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>スイヘイセン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＨＩＲＡＴＥ　ＳＹＯＫＩＫＹＯＫＵＭＥＮ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　平手　　　 初期局面　　での例</t>
+    <rPh sb="2" eb="4">
+      <t>ヒラテ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ショキキョクメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　総和するだけ</t>
+    <rPh sb="1" eb="3">
+      <t>ソウワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＳＯＷＡ</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2923,364 +2886,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>325</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1092243</xdr:colOff>
-      <xdr:row>330</xdr:row>
-      <xdr:rowOff>158799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0F3EA2-BC57-4873-8EAF-9DB73C152111}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="254000" y="38487350"/>
-          <a:ext cx="838243" cy="952549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>331</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1168449</xdr:colOff>
-      <xdr:row>337</xdr:row>
-      <xdr:rowOff>120708</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979D8B56-34B0-4970-8423-3A29818861A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="215900" y="39522400"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>338</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1174799</xdr:colOff>
-      <xdr:row>343</xdr:row>
-      <xdr:rowOff>69898</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA7FB42-E9FB-4703-AEFD-57261BD9B923}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="222250" y="40735250"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>344</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1136699</xdr:colOff>
-      <xdr:row>350</xdr:row>
-      <xdr:rowOff>63558</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64594944-D8C7-428D-98D7-4790C718437F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="184150" y="41776650"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>350</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>356</xdr:row>
-      <xdr:rowOff>25448</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C6246E-B500-4194-A362-889B857DD3E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171450" y="43002200"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>356</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1073193</xdr:colOff>
-      <xdr:row>362</xdr:row>
-      <xdr:rowOff>44499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565ECC9E-E8CC-4C18-B0CF-09621A27E8AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="234950" y="44062650"/>
-          <a:ext cx="838243" cy="952549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>363</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>368</xdr:row>
-      <xdr:rowOff>133398</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC71280-0357-40A9-B3BE-696BBECE33E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171450" y="45243750"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3324,13 +2937,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3373,64 +2986,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>369</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1117649</xdr:colOff>
-      <xdr:row>375</xdr:row>
-      <xdr:rowOff>133408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD4F1CB-E4EF-470B-90AB-3051DE8634C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="165100" y="46291500"/>
-          <a:ext cx="952549" cy="1124008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3474,13 +3037,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6556,6 +6119,720 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57150" y="53848000"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="テキスト ボックス 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC55CE7-E5F8-411B-AF48-FE5B7A02ADF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="58775600"/>
+          <a:ext cx="2940050" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”５ｉ６ｈ＿５ａ４ｂ＿”　＝　？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="テキスト ボックス 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D0F3D7-F57E-4AE0-BA68-A31BABC8C84D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="59493150"/>
+          <a:ext cx="2940050" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”５ｉ６ｈ＿５ａ４ｂ＿”　＝　？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="テキスト ボックス 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D7179E-B958-4852-8ADF-86C278D72381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="60185300"/>
+          <a:ext cx="2940050" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”５ｉ６ｈ＿５ａ４ｂ＿”　＝　？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4756150</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="テキスト ボックス 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFACFD0F-AC4F-4373-A8A8-3366BC9FA10C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="60883800"/>
+          <a:ext cx="2940050" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”５ｉ６ｈ＿５ａ４ｂ＿”　＝　？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>958899</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>139758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="図 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E25036-A9B5-4141-B115-13F4296570A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="60960000"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971599</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>82598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="図 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A61365-ACE4-41F4-AFEE-A0A548675B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="62744350"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1860550</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4908550</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="テキスト ボックス 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A14070-7EFD-41FA-9826-A2CC7CFE98F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860550" y="64020700"/>
+          <a:ext cx="3048000" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”５ｉ６ｈ＿５ａ４ｂ＿”　＝　？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1854200</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4908550</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="テキスト ボックス 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A456D67E-0E34-4E3A-B92E-98DD2FC13876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854200" y="64725550"/>
+          <a:ext cx="3054350" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>５ａ４ｂ＿</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>５ｉ６ｈ＿”　＝　－？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>914443</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>139749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="図 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CDDA55-8B1C-481A-AE5B-15D54C28DBEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="64954150"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028749</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>114348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="図 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CEB869-4217-4355-9163-203A7762BC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="65665350"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6865,10 +7142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A416"/>
+  <dimension ref="A1:A415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -6893,7 +7170,7 @@
     </row>
     <row r="4" spans="1:1" ht="23.5">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -6901,7 +7178,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -6909,12 +7186,12 @@
     </row>
     <row r="8" spans="1:1" s="5" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A9" s="13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -6922,12 +7199,12 @@
     </row>
     <row r="11" spans="1:1" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="15" customFormat="1" ht="23.5">
       <c r="A12" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -6943,12 +7220,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6966,12 +7243,12 @@
     </row>
     <row r="24" spans="1:1" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="14" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -6992,12 +7269,12 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -7010,22 +7287,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -7063,12 +7340,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -7076,12 +7353,12 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="23" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A54" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -7101,27 +7378,27 @@
     </row>
     <row r="60" spans="1:1" ht="17.5">
       <c r="A60" s="14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -7135,7 +7412,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -7167,17 +7444,17 @@
     </row>
     <row r="78" spans="1:1" ht="17.5">
       <c r="A78" s="14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.5">
       <c r="A79" s="14" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -7185,12 +7462,12 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -7198,27 +7475,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -7226,32 +7503,32 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="14" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17.5">
       <c r="A98" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="23" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="23.5">
       <c r="A103" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -7277,7 +7554,7 @@
     </row>
     <row r="111" spans="1:1" ht="17.5">
       <c r="A111" s="14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -7303,12 +7580,12 @@
     </row>
     <row r="119" spans="1:1" ht="17.5">
       <c r="A119" s="14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17.5">
       <c r="A120" s="14" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -7322,27 +7599,27 @@
     </row>
     <row r="124" spans="1:1" ht="17.5">
       <c r="A124" s="14" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="14" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -7350,12 +7627,12 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -7378,7 +7655,7 @@
     </row>
     <row r="138" spans="1:1" ht="17.5">
       <c r="A138" s="14" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -7395,7 +7672,7 @@
     </row>
     <row r="143" spans="1:1" ht="17.5">
       <c r="A143" s="14" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -7415,7 +7692,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -7444,17 +7721,17 @@
     </row>
     <row r="158" spans="1:1" ht="17.5">
       <c r="A158" s="14" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.5">
       <c r="A159" s="14" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="14" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -7462,7 +7739,7 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="14" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -7476,22 +7753,22 @@
     </row>
     <row r="166" spans="1:1" ht="17.5">
       <c r="A166" s="14" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="14" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -7499,142 +7776,142 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="14" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="14" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="14" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="14" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="23" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="23.5">
       <c r="A182" s="16" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17.5">
       <c r="A187" s="14" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="17.5">
       <c r="A188" s="14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="14" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17.5">
       <c r="A195" s="14" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="14" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="14" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="14" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="14" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="14" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="23.5">
       <c r="A206" s="13" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="23" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="23.5">
       <c r="A209" s="16" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="17.5">
       <c r="A214" s="14" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="17.5">
       <c r="A215" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="14" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="17.5">
       <c r="A220" s="14" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="14" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="14" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="14" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:1">
@@ -7642,17 +7919,17 @@
     </row>
     <row r="228" spans="1:1" ht="17.5">
       <c r="A228" s="14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="17.5">
       <c r="A229" s="14" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="14" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="244" spans="1:1">
@@ -7660,32 +7937,32 @@
     </row>
     <row r="246" spans="1:1" ht="17.5">
       <c r="A246" s="14" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="17.5">
       <c r="A247" s="14" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="14" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="17.5">
       <c r="A260" s="14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="14" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="14" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="274" spans="1:1">
@@ -7702,17 +7979,17 @@
     </row>
     <row r="279" spans="1:1" ht="17.5">
       <c r="A279" s="14" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="14" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="282" spans="1:1">
@@ -7720,27 +7997,27 @@
     </row>
     <row r="285" spans="1:1" ht="17.5">
       <c r="A285" s="14" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="14" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="14" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="14" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="300" spans="1:1">
@@ -7754,150 +8031,179 @@
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="14" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="14"/>
     </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" s="14" t="s">
-        <v>15</v>
+    <row r="310" spans="1:1">
+      <c r="A310" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="23.5">
+      <c r="A311" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="14"/>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="14"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="14"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="14"/>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="14"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="14"/>
+    </row>
+    <row r="332" spans="1:1" ht="17.5">
+      <c r="A332" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="17.5">
+      <c r="A338" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="17.5">
+      <c r="A351" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="14"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="14"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="23.5">
+      <c r="A362" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="23.5">
+      <c r="A365" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="23.5">
+      <c r="A379" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="14" t="s">
+    <row r="382" spans="1:1" ht="23.5">
+      <c r="A382" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="14" t="s">
+    <row r="387" spans="1:1">
+      <c r="A387" s="14" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" ht="23.5">
-      <c r="A380" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" ht="23.5">
-      <c r="A383" s="16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" s="14" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="14" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="23.5">
+      <c r="A414" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="23.5">
       <c r="A415" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" ht="23.5">
-      <c r="A416" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598CCF9-66C1-4DAB-9352-9274B71691BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AADD60-3C21-485E-B067-99DD7AAB48B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -1878,6 +1878,445 @@
   </si>
   <si>
     <t>　　ＳＯＷＡ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　じゃあ　７ｇ７ｆ　という</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 着手は　どういう風に</t>
+    <rPh sb="31" eb="33">
+      <t>チャクシュ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 評価されるのか、</t>
+    <rPh sb="31" eb="33">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 解説していこう」</t>
+    <rPh sb="31" eb="33">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　相手の合法手が</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ゴウホウシュ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 １票を持ってる選挙だと</t>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センキョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 思ってくれだぜ。</t>
+    <rPh sb="9" eb="10">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ポリシー値と呼んでるぜ」</t>
+    <rPh sb="13" eb="14">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 わたしはそれを</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 　　ＫとＰしか無いのだから</t>
+    <rPh sb="38" eb="39">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 　　左図が正しい」</t>
+    <rPh sb="33" eb="35">
+      <t>サズ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　お父んの予測モデルは</t>
+    </r>
+    <rPh sb="35" eb="36">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨソク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　上図は正しくないな。</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>ジョウズ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 まったくだぜ」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 目を瞑るぜ」</t>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツブ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 右図でその得票数　６　が</t>
+    <rPh sb="9" eb="11">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トクヒョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ７ｇ７ｆの評価値だぜ。</t>
+    <rPh sb="14" eb="17">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 評価値が入らなくない？」</t>
+    <rPh sb="11" eb="14">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 相手をステールメートする手には　選挙権者がいないから、</t>
+    <rPh sb="11" eb="13">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センキョ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 将棋とは　相手の応手の数が多くなることを目指すゲームか？」</t>
+    <rPh sb="11" eb="13">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>オウシュ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 ただ１つの受け手しかない場面が連続するような、</t>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 直線的な場面とか　山ほどあるんじゃないの？」</t>
+    <rPh sb="11" eb="14">
+      <t>チョクセンテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 べつに、相手の応手は　選挙権を持ってるだけで</t>
+    <rPh sb="15" eb="17">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウシュ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>センキョケン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 応手をするかどうかとは　関係ないぜ」</t>
+    <rPh sb="11" eb="13">
+      <t>オウシュ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　ＳＡＩＤＡＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　合法手の中で 最大 のポリシー値のある手の中から選ぶ</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 全ての指し手に　ポリシー値が付く仕組みは説明したから、</t>
+    <rPh sb="11" eb="12">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 合法手の中で　最大のポリシー値を持つ手を選んで、</t>
+    <rPh sb="11" eb="14">
+      <t>ゴウホウシュ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 その中から　ランダムに１手　選べばいいわけだな。</t>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 わたしはこれを　I'm feeling luckey と呼んでるぜ」</t>
+    <rPh sb="39" eb="40">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 グーグルのボタンの名前じゃない」</t>
+    <rPh sb="20" eb="22">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2887,13 +3326,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>384</xdr:row>
+      <xdr:row>478</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>483</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2937,13 +3376,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>483</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>489</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2987,13 +3426,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>489</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3037,13 +3476,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>495</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>408</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6834,6 +7273,1238 @@
         <a:xfrm>
           <a:off x="76200" y="65665350"/>
           <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3206909</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>70007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D3ACBF-4468-ACDF-74E8-4ED62A064298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120650" y="67875150"/>
+          <a:ext cx="3086259" cy="3048157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3340100</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4292649</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>38148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5AD272E-87A7-4682-8D9F-5E02013664C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3340100" y="67830700"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3663950</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6750209</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>120807</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DD2062-8B86-E7BC-BBC1-B6388EBC8F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3663950" y="70104000"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="3702050" y="70504050"/>
+          <a:chExt cx="3086259" cy="3048157"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3797865-29B1-42B1-8F67-4393A85F9368}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3702050" y="70504050"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8FD76B-88F8-9A1D-13BF-DF5B50B9DE06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5746750" y="71583550"/>
+            <a:ext cx="6350" cy="260350"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCAD9BE-2AD3-4938-829C-292FE9F75419}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6369050" y="71570850"/>
+            <a:ext cx="6350" cy="260350"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29402F8-1A92-480F-AE55-0781C3822B37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5194300" y="70916800"/>
+            <a:ext cx="285750" cy="298450"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6367E921-8EDD-4FDD-B18D-63529D1334D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4184650" y="71577200"/>
+            <a:ext cx="6350" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F74919-A54C-4D61-BFFE-B8886C369626}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4305300" y="71189850"/>
+            <a:ext cx="1092200" cy="6350"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C4759F-F624-4D4E-A65F-9D8ED9E05B70}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4254500" y="71266050"/>
+            <a:ext cx="1492250" cy="6350"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028749</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>139748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC732C78-6A6E-4FBD-A8BB-9CC1BC13F164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="71177150"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3327400</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4279949</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>69908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835A19F0-29A9-4592-8421-531C5D681A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="72955150"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3200559</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>82707</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="グループ化 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24276A0-0996-8D0E-EC9C-C9148CFED207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="114300" y="73044050"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="114300" y="72688450"/>
+          <a:chExt cx="3086259" cy="3137057"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="45" name="図 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B55996-A112-EA4B-F78C-91A9E6FB8880}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="114300" y="72688450"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AA570B-F907-DA34-8932-011E6787DF73}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2209800" y="73838082"/>
+            <a:ext cx="6350" cy="267943"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA94EB6-41FF-6F64-1589-DB8F96C3B56B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2832100" y="73825012"/>
+            <a:ext cx="6350" cy="267943"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EE54A9-99C0-1387-E996-48E0DEB6090B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="73151886"/>
+            <a:ext cx="285750" cy="307154"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0960A8B-530D-6C16-E715-79B66F0C291F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="647700" y="73831547"/>
+            <a:ext cx="6350" cy="254873"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D7A160-096F-E77E-E345-348F109B105C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="768350" y="73432900"/>
+            <a:ext cx="1092200" cy="6535"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DBBE58-6A65-7934-DFC9-8BFD8739151E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="717550" y="73511322"/>
+            <a:ext cx="1492250" cy="6535"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3327400</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4279949</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>38148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BBCE37-1E41-4A2B-A8F8-8845353DE754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="74409300"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990643</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>133399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED27C76-9973-4391-B574-831042452D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="76434950"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1060499</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>44498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D08B8A53-8855-4EAA-90AE-56F30EB5BB86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107950" y="77438250"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1079549</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>58</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B67243-570E-4C18-BDEE-2EE52E401A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="78441550"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990643</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>107999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CD3CE4-3229-4E19-941B-764C0E076DDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="79609950"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1060499</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>76248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA98915-8920-4B52-93C4-EE7CD386BD22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107950" y="80670400"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1079549</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>171498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="図 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DE4838-8F77-446C-803A-4A46BD7A5B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="83197700"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1022393</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>25449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5631AACC-B23A-4D7E-8448-3BB64A44966B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="184150" y="84448650"/>
+          <a:ext cx="838243" cy="952549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7142,10 +8813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A415"/>
+  <dimension ref="A1:A509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A367" sqref="A367"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A463" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7447,7 +9118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="17.5">
+    <row r="79" spans="1:1">
       <c r="A79" s="14" t="s">
         <v>52</v>
       </c>
@@ -7583,7 +9254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="17.5">
+    <row r="120" spans="1:1">
       <c r="A120" s="14" t="s">
         <v>69</v>
       </c>
@@ -7597,7 +9268,7 @@
     <row r="123" spans="1:1">
       <c r="A123" s="1"/>
     </row>
-    <row r="124" spans="1:1" ht="17.5">
+    <row r="124" spans="1:1">
       <c r="A124" s="14" t="s">
         <v>70</v>
       </c>
@@ -7670,7 +9341,7 @@
     <row r="142" spans="1:1">
       <c r="A142" s="1"/>
     </row>
-    <row r="143" spans="1:1" ht="17.5">
+    <row r="143" spans="1:1">
       <c r="A143" s="14" t="s">
         <v>78</v>
       </c>
@@ -7724,7 +9395,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="17.5">
+    <row r="159" spans="1:1">
       <c r="A159" s="14" t="s">
         <v>81</v>
       </c>
@@ -7751,7 +9422,7 @@
     <row r="165" spans="1:1">
       <c r="A165" s="8"/>
     </row>
-    <row r="166" spans="1:1" ht="17.5">
+    <row r="166" spans="1:1">
       <c r="A166" s="14" t="s">
         <v>84</v>
       </c>
@@ -7819,7 +9490,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="17.5">
+    <row r="188" spans="1:1">
       <c r="A188" s="14" t="s">
         <v>96</v>
       </c>
@@ -7834,7 +9505,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="17.5">
+    <row r="195" spans="1:1">
       <c r="A195" s="14" t="s">
         <v>99</v>
       </c>
@@ -7884,7 +9555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="17.5">
+    <row r="215" spans="1:1">
       <c r="A215" s="14" t="s">
         <v>109</v>
       </c>
@@ -7922,7 +9593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="17.5">
+    <row r="229" spans="1:1">
       <c r="A229" s="14" t="s">
         <v>116</v>
       </c>
@@ -7940,7 +9611,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="17.5">
+    <row r="247" spans="1:1">
       <c r="A247" s="14" t="s">
         <v>119</v>
       </c>
@@ -7995,7 +9666,7 @@
     <row r="282" spans="1:1">
       <c r="A282" s="14"/>
     </row>
-    <row r="285" spans="1:1" ht="17.5">
+    <row r="285" spans="1:1">
       <c r="A285" s="14" t="s">
         <v>125</v>
       </c>
@@ -8090,7 +9761,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="17.5">
+    <row r="338" spans="1:1">
       <c r="A338" s="14" t="s">
         <v>139</v>
       </c>
@@ -8126,83 +9797,244 @@
     <row r="359" spans="1:1">
       <c r="A359" s="14"/>
     </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="14"/>
+    </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="14" t="s">
+      <c r="A361" s="14"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="23.5">
-      <c r="A362" s="13" t="s">
+    <row r="364" spans="1:1" ht="23.5">
+      <c r="A364" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="23" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="23.5">
-      <c r="A365" s="16" t="s">
+    <row r="367" spans="1:1" ht="23.5">
+      <c r="A367" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
-      <c r="A378" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" ht="23.5">
-      <c r="A379" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" ht="23.5">
-      <c r="A382" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
+    <row r="372" spans="1:1" ht="17.5">
+      <c r="A372" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="17.5">
+      <c r="A373" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="17.5">
       <c r="A388" s="14" t="s">
-        <v>19</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="17.5">
+      <c r="A400" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="17.5">
+      <c r="A402" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="17.5">
+      <c r="A408" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" ht="23.5">
+      <c r="A449" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="23.5">
+      <c r="A473" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="23.5">
+      <c r="A476" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
-      <c r="A399" s="14" t="s">
+    <row r="493" spans="1:1">
+      <c r="A493" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
-      <c r="A400" s="14" t="s">
+    <row r="494" spans="1:1">
+      <c r="A494" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="14" t="s">
+    <row r="500" spans="1:1">
+      <c r="A500" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="23.5">
-      <c r="A414" s="2" t="s">
+    <row r="508" spans="1:1" ht="23.5">
+      <c r="A508" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="23.5">
-      <c r="A415" s="2" t="s">
+    <row r="509" spans="1:1" ht="23.5">
+      <c r="A509" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AADD60-3C21-485E-B067-99DD7AAB48B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572C03E-7344-4EF4-83B0-7BEB11D3634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="207">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -2319,6 +2319,437 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>　ＫＫ、ＫＰ、ＰＰ評価値ファイルを 保存 しようぜ？</t>
+    <rPh sb="9" eb="12">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　ＨＯＺＯＮ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　ＹＯＭＩＫＯＭＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　ファイルサイズがでかいと　読込　に時間かかるしな</t>
+    <rPh sb="14" eb="16">
+      <t>ヨミコミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 止めとこ」</t>
+    <rPh sb="11" eb="12">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 今度　実装するときは　Python　なんかで評価値ファイル読込すんの</t>
+    <rPh sb="11" eb="13">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヨミコミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 Rust を本体にして、合法手生成だけ　Python　にすればいいんじゃない？」</t>
+    <rPh sb="17" eb="19">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="23" eb="28">
+      <t>ゴウホウシュセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ＵＳＩの指し手の符号って、</t>
+    </r>
+    <rPh sb="18" eb="19">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フゴウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　　　　　　 　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ＦＲＯＭ　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には８１マスと７種類の持ち駒、</t>
+    </r>
+    <rPh sb="26" eb="28">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　　　　　　 　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ＴＯ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には８１マス、</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　　　　　　 　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ＰＲＯＭＯＴＩＯＮ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には有無の二値の、</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　　少ない数しかないのな」</t>
+    <rPh sb="13" eb="14">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 玉に　打と成りは無いから　さらに少なく</t>
+    <rPh sb="11" eb="12">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 ＰとＫの話しだな」</t>
+    <rPh sb="15" eb="16">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 ＫＫテーブルのサイズは</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　　　　　　 　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>８８</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>８１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>２</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>＝１４，２５６　パターンより</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　　　　 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>８１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>８１</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>＝６，５６１　パターンより少ない」</t>
+    </r>
+    <rPh sb="29" eb="30">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 ＫＰテーブルのサイズは</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 ＰＰテーブルのサイズは</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 １４，２５６×１４，２５６＝２０３，２３３，５３６</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　６，５６１×　６，５６１＝　４３，０４６，７２１</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　６，５６１×１４，２５６＝　９３，５３３，６１６</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 だぜ」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　指し手Ｐのサイズ</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＰＩ＾</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 １ａから３ｂへワープする駒は無いし、無駄が多そうねえ」</t>
+    <rPh sb="23" eb="24">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　指し手Ｋのサイズ</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＫＥ＾</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -2327,7 +2758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$￥-411]#,##0;[Red]&quot;-&quot;[$￥-411]#,##0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2515,6 +2946,13 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="たぬき油性マジック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3126,13 +3564,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009699</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>12748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3176,13 +3614,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3226,13 +3664,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>114358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3276,13 +3714,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3326,13 +3764,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>478</xdr:row>
+      <xdr:row>578</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>583</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3376,13 +3814,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>483</xdr:row>
+      <xdr:row>583</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>589</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3426,13 +3864,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>589</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>595</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3476,13 +3914,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>595</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>602</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5971,13 +6409,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3721100</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4025916</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>215</xdr:row>
       <xdr:rowOff>184166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6021,13 +6459,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3740150</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5931013</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>69866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6071,13 +6509,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6121,13 +6559,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3225959</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>82707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6171,13 +6609,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3422650</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4375199</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>171498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6221,13 +6659,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3644900</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6731159</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>44607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6271,13 +6709,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>57198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6321,13 +6759,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3245009</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>95407</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6371,13 +6809,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3314700</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4267249</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>63548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6421,13 +6859,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3619500</xdr:colOff>
-      <xdr:row>267</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6705759</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>133507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6471,13 +6909,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952549</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>101648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6521,13 +6959,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009699</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>107998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6571,13 +7009,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6653,13 +7091,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6735,13 +7173,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6817,13 +7255,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4756150</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6899,13 +7337,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>958899</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>139758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6949,13 +7387,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>82598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6999,13 +7437,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1860550</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7081,13 +7519,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1854200</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7185,13 +7623,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>139749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7235,13 +7673,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>352</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>114348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7285,13 +7723,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3206909</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>70007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7335,13 +7773,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3340100</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4292649</xdr:colOff>
-      <xdr:row>373</xdr:row>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7385,13 +7823,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3663950</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6750209</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>120807</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7407,7 +7845,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3663950" y="70104000"/>
+          <a:off x="3663950" y="70281800"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3702050" y="70504050"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -7701,13 +8139,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>387</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>139748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7751,13 +8189,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4279949</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7801,13 +8239,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3200559</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>82707</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -7823,7 +8261,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="114300" y="73044050"/>
+          <a:off x="114300" y="73221850"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="114300" y="72688450"/>
           <a:chExt cx="3086259" cy="3137057"/>
@@ -8117,13 +8555,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4279949</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8167,13 +8605,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990643</xdr:colOff>
-      <xdr:row>420</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8217,13 +8655,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>421</xdr:row>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>426</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8267,13 +8705,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>426</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079549</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8317,13 +8755,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990643</xdr:colOff>
-      <xdr:row>438</xdr:row>
+      <xdr:row>439</xdr:row>
       <xdr:rowOff>107999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8367,13 +8805,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>444</xdr:row>
+      <xdr:row>445</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8417,13 +8855,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>450</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079549</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>171498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8467,13 +8905,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>457</xdr:row>
+      <xdr:row>458</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022393</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>464</xdr:row>
       <xdr:rowOff>25449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8504,6 +8942,1316 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="184150" y="84448650"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1022399</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>82598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0684BC6F-1FF1-4A72-AC06-A282531D6B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69850" y="87439500"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952543</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>69899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D0E973-488F-4EF6-8FCC-70631722BE06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="88468200"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2127250</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0987AF-09F1-42FC-A24F-0E2D5D9E0E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2127250" y="89604850"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3416300</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4241800</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D302EF32-B884-43F5-B122-BCBC0AA932FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3416300" y="89592150"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5575300</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053BD2BE-BF11-446C-831F-4F7C9DBAA6A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="89598500"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5575300</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE936F49-A0C3-4E9F-85FB-6E6734D3529C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="90360500"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>＋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3435350</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4260850</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1082EB-48C6-4872-9514-3EBA3FC5E914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3435350" y="90341450"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>９ｉ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F4AC65-C475-4D73-8EC7-1B8DDE8AF4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2108200" y="90347800"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>９ｉ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2959100</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FEF66B-9EC3-49EF-9B2E-783DDA39650E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="91173300"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>Ｒ＊</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2127250</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E404DFA2-B655-40B3-B472-76D53F997439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2127250" y="91922600"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>Ｐ＊</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2755900</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44310AAD-50A2-9753-7D5F-223BC8DFDDE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="89992200"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76681ABF-BB15-43B9-93F5-C68A29CB2B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2311400" y="91579700"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3594100</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4083050</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CC42B6-A508-4587-84C5-B622B5233BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594100" y="89992200"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5022850</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5511800</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="テキスト ボックス 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C213E66-8AD6-434E-9FD4-C2C3EBDC57E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5022850" y="89954100"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2863850</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100D0709-3F15-4CAE-B28B-3DD277829A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2374900" y="90709750"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066849</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="図 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2290AFF-3320-45FF-A87F-CCCB7B3EE8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="92233750"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1123999</xdr:colOff>
+      <xdr:row>540</xdr:row>
+      <xdr:rowOff>6398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="図 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79EC16E-CFF8-43B4-B886-376254055B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="95097600"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>540</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1060499</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>158808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="図 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC025860-5504-40E8-8C8F-32EB647F9257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107950" y="94341950"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>549</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1035099</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>165148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="図 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5EAF06A-5E0E-4F30-A19C-DE96D0EC4F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="95967550"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977943</xdr:colOff>
+      <xdr:row>516</xdr:row>
+      <xdr:rowOff>69899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="図 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0637C407-554A-4928-93C3-974366214CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="94322900"/>
           <a:ext cx="838243" cy="952549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8813,10 +10561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A509"/>
+  <dimension ref="A1:A609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A463" sqref="A463"/>
+    <sheetView tabSelected="1" topLeftCell="A481" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9530,272 +11278,266 @@
         <v>143</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="14" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="23.5">
-      <c r="A206" s="13" t="s">
+    <row r="208" spans="1:1" ht="23.5">
+      <c r="A208" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="23" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="23.5">
-      <c r="A209" s="16" t="s">
+    <row r="211" spans="1:1" ht="23.5">
+      <c r="A211" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="17.5">
-      <c r="A214" s="14" t="s">
+    <row r="216" spans="1:1" ht="17.5">
+      <c r="A216" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="14" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="14" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="17.5">
-      <c r="A220" s="14" t="s">
+    <row r="222" spans="1:1" ht="17.5">
+      <c r="A222" s="14" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="14"/>
-    </row>
-    <row r="228" spans="1:1" ht="17.5">
-      <c r="A228" s="14" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" s="14"/>
+    </row>
+    <row r="230" spans="1:1" ht="17.5">
+      <c r="A230" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="14" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="14" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="14"/>
-    </row>
-    <row r="246" spans="1:1" ht="17.5">
-      <c r="A246" s="14" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" s="14"/>
+    </row>
+    <row r="248" spans="1:1" ht="17.5">
+      <c r="A248" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="14" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="14" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="17.5">
-      <c r="A260" s="14" t="s">
+    <row r="262" spans="1:1" ht="17.5">
+      <c r="A262" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="14" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="14" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="14"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="14"/>
+    <row r="276" spans="1:1">
+      <c r="A276" s="14"/>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="14"/>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="14"/>
-    </row>
-    <row r="279" spans="1:1" ht="17.5">
-      <c r="A279" s="14" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" s="14"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="14"/>
+    </row>
+    <row r="281" spans="1:1" ht="17.5">
+      <c r="A281" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="14" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="14" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="14"/>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="14" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" s="14"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="14" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="14" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="14" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="14" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="14" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="14"/>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="14"/>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="14"/>
     </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="14"/>
+    </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="14" t="s">
+      <c r="A304" s="14"/>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="14"/>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="23" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="14"/>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="23.5">
-      <c r="A311" s="16" t="s">
+    <row r="313" spans="1:1" ht="23.5">
+      <c r="A313" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
-      <c r="A316" s="14" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="14" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="14" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="14"/>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="14"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="14"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="14" t="s">
-        <v>137</v>
-      </c>
+      <c r="A328" s="14"/>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="14"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="14"/>
-    </row>
-    <row r="332" spans="1:1" ht="17.5">
-      <c r="A332" s="14" t="s">
+      <c r="A330" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="14"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="14"/>
+    </row>
+    <row r="334" spans="1:1" ht="17.5">
+      <c r="A334" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="14" t="s">
+    <row r="340" spans="1:1">
+      <c r="A340" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="14" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="14" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="17.5">
-      <c r="A351" s="14" t="s">
+    <row r="353" spans="1:1" ht="17.5">
+      <c r="A353" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="14" t="s">
+    <row r="358" spans="1:1">
+      <c r="A358" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="14" t="s">
+    <row r="359" spans="1:1">
+      <c r="A359" s="14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="14"/>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="14"/>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="14"/>
@@ -9803,238 +11545,381 @@
     <row r="361" spans="1:1">
       <c r="A361" s="14"/>
     </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="14" t="s">
+    <row r="362" spans="1:1">
+      <c r="A362" s="14"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="23.5">
-      <c r="A364" s="13" t="s">
+    <row r="365" spans="1:1" ht="23.5">
+      <c r="A365" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="23" t="s">
+    <row r="367" spans="1:1">
+      <c r="A367" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="23.5">
-      <c r="A367" s="16" t="s">
+    <row r="368" spans="1:1" ht="23.5">
+      <c r="A368" s="16" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" ht="17.5">
-      <c r="A372" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17.5">
       <c r="A373" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="17.5">
+      <c r="A374" s="14" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="17.5">
-      <c r="A388" s="14" t="s">
+    <row r="389" spans="1:1" ht="17.5">
+      <c r="A389" s="14" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="14" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="17.5">
-      <c r="A400" s="14" t="s">
+    <row r="401" spans="1:1" ht="17.5">
+      <c r="A401" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="17.5">
-      <c r="A402" s="14" t="s">
+    <row r="403" spans="1:1" ht="17.5">
+      <c r="A403" s="14" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="17.5">
-      <c r="A408" s="14" t="s">
+    <row r="409" spans="1:1" ht="17.5">
+      <c r="A409" s="14" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425" s="14" t="s">
+    <row r="426" spans="1:1">
+      <c r="A426" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="14" t="s">
+    <row r="433" spans="1:1">
+      <c r="A433" s="14" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" s="14" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="14" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
-      <c r="A448" s="23" t="s">
+    <row r="449" spans="1:1">
+      <c r="A449" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="23.5">
-      <c r="A449" s="16" t="s">
+    <row r="450" spans="1:1" ht="23.5">
+      <c r="A450" s="16" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" s="14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
-      <c r="A457" s="14" t="s">
+    <row r="458" spans="1:1">
+      <c r="A458" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="14" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
-      <c r="A472" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" ht="23.5">
-      <c r="A473" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" ht="23.5">
-      <c r="A476" s="16" t="s">
-        <v>17</v>
+    <row r="468" spans="1:1">
+      <c r="A468" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="23.5">
+      <c r="A469" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="23.5">
+      <c r="A472" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" ht="23.5">
+      <c r="A487" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="17.5">
+      <c r="A508" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" ht="23.5">
+      <c r="A521" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="17.5">
+      <c r="A540" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" ht="23.5">
+      <c r="A573" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" ht="23.5">
+      <c r="A576" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="14" t="s">
+    <row r="582" spans="1:1">
+      <c r="A582" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
-      <c r="A487" s="14" t="s">
+    <row r="587" spans="1:1">
+      <c r="A587" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="14" t="s">
+    <row r="593" spans="1:1">
+      <c r="A593" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
-      <c r="A494" s="14" t="s">
+    <row r="594" spans="1:1">
+      <c r="A594" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
-      <c r="A500" s="14" t="s">
+    <row r="600" spans="1:1">
+      <c r="A600" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:1" ht="23.5">
-      <c r="A508" s="2" t="s">
+    <row r="608" spans="1:1" ht="23.5">
+      <c r="A608" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:1" ht="23.5">
-      <c r="A509" s="2" t="s">
+    <row r="609" spans="1:1" ht="23.5">
+      <c r="A609" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572C03E-7344-4EF4-83B0-7BEB11D3634A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9834FA22-F052-4B4C-BF1A-7478EE05186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="220">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -463,20 +463,6 @@
     <rPh sb="41" eb="43">
       <t>ハイイン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　２利き関係</t>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　ＫＩＫＩ</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -1290,19 +1276,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　　「 予測モデルは　２利き関係のＫＫ、ＫＰ、ＰＫ、ＰＰだぜ。</t>
-    <rPh sb="11" eb="13">
-      <t>ヨソク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　ＫＥ＾ＫＥ＾　ＫＥ＾ＰＩ＾　ＰＩ＾ＫＥ＾　ＰＩ＾ＰＩ＾</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -2534,32 +2507,6 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 玉に　打と成りは無いから　さらに少なく</t>
-    <rPh sb="11" eb="12">
-      <t>ギョク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 ＰとＫの話しだな」</t>
-    <rPh sb="15" eb="16">
-      <t>ハナ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2634,6 +2581,62 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>　　　　　　　　　　 ＫＰテーブルのサイズは</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 ＰＰテーブルのサイズは</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 だぜ」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　指し手Ｐのサイズ</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＰＩ＾</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 １ａから３ｂへワープする駒は無いし、無駄が多そうねえ」</t>
+    <rPh sb="23" eb="24">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　指し手Ｋのサイズ</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＫＥ＾</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">　　　　　　　　　　 </t>
     </r>
@@ -2665,7 +2668,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>８１</t>
+      <t>８</t>
     </r>
     <r>
       <rPr>
@@ -2675,79 +2678,275 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>＝６，５６１　パターンより少ない」</t>
+      <t>＝６４８　パターンより少ない」</t>
     </r>
-    <rPh sb="29" eb="30">
+    <rPh sb="26" eb="27">
       <t>スク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　　　 ＫＰテーブルのサイズは</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 ＰＰテーブルのサイズは</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 １４，２５６×１４，２５６＝２０３，２３３，５３６</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 　６，５６１×　６，５６１＝　４３，０４６，７２１</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 　６，５６１×１４，２５６＝　９３，５３３，６１６</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 だぜ」</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　指し手Ｐのサイズ</t>
-    <rPh sb="1" eb="2">
+    <t>　　　　　　　　　「 玉は　打と成りは無く、　移動先は８方向しかないから　さらに少なく</t>
+    <rPh sb="11" eb="12">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>イドウサキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 盤の隅なら　移動先はもっと少なくなるな」</t>
+    <rPh sb="11" eb="12">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>イドウサキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＳＡＳＩＴＥ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 予測モデルは　２指し手関係のＫＫ、ＫＰ、ＰＫ、ＰＰだぜ。</t>
+    <rPh sb="11" eb="13">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>サ</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="21" eb="22">
       <t>テ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　ＰＩ＾</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 １ａから３ｂへワープする駒は無いし、無駄が多そうねえ」</t>
+    <rPh sb="22" eb="24">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　２指し手関係</t>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　ＳＡＳＩＴＥ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　　　６４８×　　　６４８＝　　　　４１９，９０４ ｂｉｔ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　　　６４８×１４，２５６＝　　９，２３７，８８８　ｂｉｔ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 １４，２５６×１４，２５６＝２０３，２３３，５３６　ｂｉｔ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　２つの指し手のテーブルのサイズ</t>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 だいたい　２５．３メガバイトか」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 家のＰＣで読み込むのに５０秒ぐらいかかっちゃって</t>
+    <rPh sb="11" eb="12">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 将棋所での自動の連続対局が　時間かかっちゃうのよね～」</t>
+    <rPh sb="11" eb="13">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイキョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　ビッグ　エンディアン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＢＩＧＧＵ　　　　ＥＮＤＨＩＡＮ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　例えばＰＰテーブルの最初の１バイトは</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　　左から　上記のようにビットが入っていると思うぜ」</t>
+    <rPh sb="13" eb="14">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 お父ん　実装を　ペッと書いたら　データの中身　確認してないもんな、</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 そんな風に入ってないかも知れないぜ？」</t>
+    <rPh sb="14" eb="15">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
     <rPh sb="23" eb="24">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ムダ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　指し手Ｋのサイズ</t>
-    <rPh sb="1" eb="2">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　ＫＥ＾</t>
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 まあ　これで、次の一手を選ぶ仕組みの</t>
+    <rPh sb="18" eb="19">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッテ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 小細工を除く　主要な部分は　説明したぜ」</t>
+    <rPh sb="11" eb="14">
+      <t>コザイク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3764,13 +3963,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>630</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>583</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3814,13 +4013,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>583</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>589</xdr:row>
+      <xdr:row>641</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3864,13 +4063,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>589</xdr:row>
+      <xdr:row>641</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>647</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3914,13 +4113,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>647</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>602</xdr:row>
+      <xdr:row>654</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6208,56 +6407,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3663950</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6750209</xdr:colOff>
-      <xdr:row>199</xdr:row>
-      <xdr:rowOff>63657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="図 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47FDDAD-B14B-9752-2850-FBB84002FA5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3663950" y="34461450"/>
-          <a:ext cx="3086259" cy="3048157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>183</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -6432,7 +6581,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6482,7 +6631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6582,7 +6731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6682,7 +6831,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6782,7 +6931,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6882,7 +7031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7746,7 +7895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7865,7 +8014,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8281,7 +8430,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9054,15 +9203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2127250</xdr:colOff>
+      <xdr:colOff>1555750</xdr:colOff>
       <xdr:row>489</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>491</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9077,7 +9226,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2127250" y="89604850"/>
+          <a:off x="1555750" y="90398600"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9136,15 +9285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3416300</xdr:colOff>
+      <xdr:colOff>3600450</xdr:colOff>
       <xdr:row>489</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4241800</xdr:colOff>
+      <xdr:colOff>4425950</xdr:colOff>
       <xdr:row>491</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9159,7 +9308,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3416300" y="89592150"/>
+          <a:off x="3600450" y="90404950"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9211,15 +9360,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:colOff>5765800</xdr:colOff>
       <xdr:row>489</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5575300</xdr:colOff>
+      <xdr:colOff>6591300</xdr:colOff>
       <xdr:row>491</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9234,7 +9383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4749800" y="89598500"/>
+          <a:off x="5765800" y="90417650"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9283,15 +9432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:colOff>5778500</xdr:colOff>
       <xdr:row>493</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5575300</xdr:colOff>
+      <xdr:colOff>6604000</xdr:colOff>
       <xdr:row>495</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9306,7 +9455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4749800" y="90360500"/>
+          <a:off x="5778500" y="91166950"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9358,15 +9507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3435350</xdr:colOff>
+      <xdr:colOff>3594100</xdr:colOff>
       <xdr:row>493</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4260850</xdr:colOff>
+      <xdr:colOff>4419600</xdr:colOff>
       <xdr:row>495</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9381,7 +9530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3435350" y="90341450"/>
+          <a:off x="3594100" y="91160600"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9433,13 +9582,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2108200</xdr:colOff>
+      <xdr:colOff>1568450</xdr:colOff>
       <xdr:row>493</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:colOff>2393950</xdr:colOff>
       <xdr:row>495</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
@@ -9456,7 +9605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2108200" y="90347800"/>
+          <a:off x="1568450" y="91179650"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9515,13 +9664,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:colOff>1562100</xdr:colOff>
       <xdr:row>498</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2959100</xdr:colOff>
+      <xdr:colOff>2387600</xdr:colOff>
       <xdr:row>500</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
@@ -9538,7 +9687,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="91173300"/>
+          <a:off x="1562100" y="92005150"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9597,15 +9746,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2127250</xdr:colOff>
+      <xdr:colOff>1555750</xdr:colOff>
       <xdr:row>502</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2952750</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>504</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9620,7 +9769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2127250" y="91922600"/>
+          <a:off x="1555750" y="92748100"/>
           <a:ext cx="825500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9679,15 +9828,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:colOff>1739900</xdr:colOff>
       <xdr:row>491</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2755900</xdr:colOff>
+      <xdr:colOff>2228850</xdr:colOff>
       <xdr:row>494</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9702,7 +9851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2266950" y="89992200"/>
+          <a:off x="1739900" y="90836750"/>
           <a:ext cx="488950" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9746,15 +9895,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:colOff>1746250</xdr:colOff>
       <xdr:row>500</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2800350</xdr:colOff>
+      <xdr:colOff>2235200</xdr:colOff>
       <xdr:row>503</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9769,7 +9918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2311400" y="91579700"/>
+          <a:off x="1746250" y="92392500"/>
           <a:ext cx="488950" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9813,15 +9962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3594100</xdr:colOff>
+      <xdr:colOff>3771900</xdr:colOff>
       <xdr:row>491</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4083050</xdr:colOff>
+      <xdr:colOff>4260850</xdr:colOff>
       <xdr:row>494</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9836,7 +9985,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3594100" y="89992200"/>
+          <a:off x="3771900" y="90805000"/>
           <a:ext cx="488950" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9880,15 +10029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5022850</xdr:colOff>
+      <xdr:colOff>6032500</xdr:colOff>
       <xdr:row>491</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5511800</xdr:colOff>
-      <xdr:row>494</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>6521450</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9903,7 +10052,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5022850" y="89954100"/>
+          <a:off x="6032500" y="90760550"/>
           <a:ext cx="488950" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9947,15 +10096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:colOff>1822450</xdr:colOff>
       <xdr:row>495</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2863850</xdr:colOff>
+      <xdr:colOff>2311400</xdr:colOff>
       <xdr:row>498</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9970,7 +10119,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374900" y="90709750"/>
+          <a:off x="1822450" y="91535250"/>
           <a:ext cx="488950" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10064,15 +10213,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>535</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>540</xdr:row>
-      <xdr:rowOff>6398</xdr:rowOff>
+      <xdr:colOff>1149399</xdr:colOff>
+      <xdr:row>536</xdr:row>
+      <xdr:rowOff>127048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10101,7 +10250,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="95097600"/>
+          <a:off x="196850" y="98082100"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10114,15 +10263,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>540</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>546</xdr:row>
-      <xdr:rowOff>158808</xdr:rowOff>
+      <xdr:colOff>1181149</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10151,7 +10300,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="107950" y="94341950"/>
+          <a:off x="228600" y="99072700"/>
           <a:ext cx="952549" cy="1124008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10164,15 +10313,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>549</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>554</xdr:row>
-      <xdr:rowOff>165148</xdr:rowOff>
+      <xdr:colOff>1098599</xdr:colOff>
+      <xdr:row>553</xdr:row>
+      <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10201,7 +10350,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="82550" y="95967550"/>
+          <a:off x="146050" y="101326950"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10259,6 +10408,2301 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1631950</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F28883-021D-4569-B6DC-E3C690FE27C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1631950" y="96545400"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1606550</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2432050</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E03BCE6-D86E-4DCD-8CA0-7EDA47DC9E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1606550" y="97320100"/>
+          <a:ext cx="825500" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>９ｉ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2317750</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="テキスト ボックス 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D04C3AA-8E56-4C97-A923-5018885B391A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="96970850"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>～</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3486150</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="テキスト ボックス 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4E4050-42F7-4D95-8E27-9CCED6027F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="96558100"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>左上</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3479800</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4108450</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="テキスト ボックス 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF42914-9BA6-4F5C-86EB-86B7227EC3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479800" y="97116900"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>左</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3479800</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4108450</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="テキスト ボックス 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBA8749-A72B-449A-83C0-2540F3F9356C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3479800" y="97707450"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>左下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4292600</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4921250</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9ED1FDA-F4EB-42AF-B116-4DCF05FB3E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4292600" y="96558100"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>上</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4311650</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4940300</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="テキスト ボックス 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933BD668-F7B5-400A-81FE-BFFE5EE1D8CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4311650" y="97701100"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5111750</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5740400</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="テキスト ボックス 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E87347-B4A6-4400-A37B-A4972B5342C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5111750" y="96551750"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>右上</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5124450</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5753100</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="テキスト ボックス 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C34791-63C6-4FC5-8795-CB5767E42894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="97116900"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>右</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5137150</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5765800</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="テキスト ボックス 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED340235-192B-4AFA-8EB7-F07E2045ED82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5137150" y="97688400"/>
+          <a:ext cx="628650" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>右下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>556</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1130349</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>57208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="図 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A1E01D-378E-4069-B869-C66CB250D4E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="102558850"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1073193</xdr:colOff>
+      <xdr:row>567</xdr:row>
+      <xdr:rowOff>152449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="161" name="図 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5464C5DA-AFB1-443C-95C6-B8360F458D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="234950" y="103714550"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3251200</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="テキスト ボックス 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4F79CD-1966-42E4-90D4-D923484B7329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="90773250"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4832350</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5321300</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="テキスト ボックス 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3FE879-FDBC-4BFF-8FA9-92CFF843457D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4832350" y="90773250"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2717800</xdr:colOff>
+      <xdr:row>524</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3206750</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE9D5E0-FEF3-4D62-BC3E-D76802B428C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="96920050"/>
+          <a:ext cx="488950" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>×</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>574</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1752600" cy="2451100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="テキスト ボックス 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863A86D8-711B-57C1-827F-9FD6B33111D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="105898950"/>
+          <a:ext cx="1752600" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>０＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ｄ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>０＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ｄ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ｃ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>０＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ｃ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ｂ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ｂ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>０＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>＋</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>１ａ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1936750</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4057650</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="楕円 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7C1C3B-0567-6519-FAFF-26C3ECE39120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1936750" y="105848150"/>
+          <a:ext cx="2120900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1130349</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>6398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="図 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9EC22C-5FE2-4FD6-918E-8CEDD402BD80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="107670600"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4152900</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="テキスト ボックス 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BCDBFC-D729-D508-9B5F-76D54C3F1CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="106406950"/>
+          <a:ext cx="800219" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>←着手</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4165600</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="テキスト ボックス 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2AA0ED-675D-4F9E-8A70-8220F529ADAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165600" y="107334050"/>
+          <a:ext cx="800219" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>←応手</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4146550</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1383327" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="テキスト ボックス 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A63869D5-D400-4E17-B5BF-E6459F971056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4146550" y="105873550"/>
+          <a:ext cx="1383327" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:rPr>
+            <a:t>←ポリシー値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1092249</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>139758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="178" name="図 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9BBD48-CADE-442C-BE4E-25ECDD68DD27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="108673900"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>596</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104949</xdr:colOff>
+      <xdr:row>601</xdr:row>
+      <xdr:rowOff>76248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="179" name="図 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BFF862-D0FE-4A10-A09D-FD19CDACFCC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="109874050"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3663950</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6750209</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>63657</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="185" name="グループ化 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4805BF-1901-0504-64B2-0508E58D6AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3663950" y="34194750"/>
+          <a:ext cx="3086259" cy="2959257"/>
+          <a:chOff x="3663950" y="34194750"/>
+          <a:chExt cx="3086259" cy="2959257"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="129" name="図 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47FDDAD-B14B-9752-2850-FBB84002FA5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3663950" y="34194750"/>
+            <a:ext cx="3086259" cy="2959257"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="181" name="直線矢印コネクタ 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81608B4F-C999-9524-026D-39059AE679AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5715000" y="35128200"/>
+            <a:ext cx="0" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="182" name="直線矢印コネクタ 181">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF6C6B8-B0E5-4BB9-BC1F-23EE28DF2F54}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="4470400" y="36163250"/>
+            <a:ext cx="6350" cy="222250"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10561,10 +13005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A609"/>
+  <dimension ref="A1:A661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -10706,7 +13150,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -10759,12 +13203,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -10797,27 +13241,27 @@
     </row>
     <row r="60" spans="1:1" ht="17.5">
       <c r="A60" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -10831,7 +13275,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -10863,17 +13307,17 @@
     </row>
     <row r="78" spans="1:1" ht="17.5">
       <c r="A78" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -10881,12 +13325,12 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -10894,27 +13338,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -10922,32 +13366,32 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17.5">
       <c r="A98" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="23.5">
       <c r="A103" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -10973,7 +13417,7 @@
     </row>
     <row r="111" spans="1:1" ht="17.5">
       <c r="A111" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -10999,12 +13443,12 @@
     </row>
     <row r="119" spans="1:1" ht="17.5">
       <c r="A119" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -11018,27 +13462,27 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -11046,12 +13490,12 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -11074,7 +13518,7 @@
     </row>
     <row r="138" spans="1:1" ht="17.5">
       <c r="A138" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -11091,7 +13535,7 @@
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -11111,7 +13555,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -11140,17 +13584,17 @@
     </row>
     <row r="158" spans="1:1" ht="17.5">
       <c r="A158" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -11158,7 +13602,7 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -11172,22 +13616,22 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -11195,142 +13639,142 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="23.5">
       <c r="A182" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17.5">
       <c r="A187" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="23.5">
       <c r="A208" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="23.5">
       <c r="A211" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="17.5">
       <c r="A216" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17.5">
       <c r="A222" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="226" spans="1:1">
@@ -11338,17 +13782,17 @@
     </row>
     <row r="230" spans="1:1" ht="17.5">
       <c r="A230" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="246" spans="1:1">
@@ -11356,32 +13800,32 @@
     </row>
     <row r="248" spans="1:1" ht="17.5">
       <c r="A248" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="17.5">
       <c r="A262" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:1">
@@ -11398,17 +13842,17 @@
     </row>
     <row r="281" spans="1:1" ht="17.5">
       <c r="A281" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="284" spans="1:1">
@@ -11416,27 +13860,27 @@
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="302" spans="1:1">
@@ -11450,7 +13894,7 @@
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="309" spans="1:1">
@@ -11458,22 +13902,22 @@
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="23.5">
       <c r="A313" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="325" spans="1:1">
@@ -11481,7 +13925,7 @@
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="327" spans="1:1">
@@ -11495,7 +13939,7 @@
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="331" spans="1:1">
@@ -11506,37 +13950,37 @@
     </row>
     <row r="334" spans="1:1" ht="17.5">
       <c r="A334" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="17.5">
       <c r="A353" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="360" spans="1:1">
@@ -11550,376 +13994,441 @@
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="23.5">
       <c r="A365" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="23.5">
       <c r="A368" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17.5">
       <c r="A373" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17.5">
       <c r="A374" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="17.5">
       <c r="A389" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="17.5">
       <c r="A401" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="17.5">
       <c r="A403" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="17.5">
       <c r="A409" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="23.5">
       <c r="A450" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="23.5">
       <c r="A469" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="23.5">
       <c r="A472" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="23.5">
       <c r="A487" s="16" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17.5">
       <c r="A508" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="23.5">
       <c r="A521" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" ht="23.5">
+      <c r="A547" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="14" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" ht="17.5">
-      <c r="A540" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1">
-      <c r="A545" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1">
-      <c r="A552" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1">
-      <c r="A558" s="14" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1">
-      <c r="A561" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1">
-      <c r="A572" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" ht="23.5">
-      <c r="A573" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1">
-      <c r="A575" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" ht="23.5">
-      <c r="A576" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1">
-      <c r="A582" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1">
-      <c r="A587" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1">
-      <c r="A593" s="14" t="s">
-        <v>21</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" ht="23.5">
+      <c r="A572" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="17.5">
+      <c r="A588" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="14" t="s">
-        <v>22</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" ht="23.5">
+      <c r="A625" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" ht="23.5">
+      <c r="A628" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:1" ht="23.5">
-      <c r="A608" s="2" t="s">
+    <row r="660" spans="1:1" ht="23.5">
+      <c r="A660" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="609" spans="1:1" ht="23.5">
-      <c r="A609" s="2" t="s">
+    <row r="661" spans="1:1" ht="23.5">
+      <c r="A661" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9834FA22-F052-4B4C-BF1A-7478EE05186F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7C4E5-45B5-49F1-A71E-397CF1938D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,10 +276,6 @@
     <rPh sb="4" eb="6">
       <t>サシカ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>２０２４年０５月０６日　高橋智史</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2607,22 +2603,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　　「 １ａから３ｂへワープする駒は無いし、無駄が多そうねえ」</t>
-    <rPh sb="23" eb="24">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ムダ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　指し手Ｋのサイズ</t>
     <rPh sb="1" eb="2">
       <t>サ</t>
@@ -2947,6 +2927,29 @@
     <rPh sb="25" eb="27">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 １ａから３ｂへワープする駒は無いし、全結合は無駄が多そうねえ」</t>
+    <rPh sb="23" eb="24">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ゼンケツゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>２０２４年０５月０８日　高橋智史</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -13007,8 +13010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B193" sqref="B193"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13041,7 +13044,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -13049,12 +13052,12 @@
     </row>
     <row r="8" spans="1:1" s="5" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -13062,12 +13065,12 @@
     </row>
     <row r="11" spans="1:1" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="15" customFormat="1" ht="23.5">
       <c r="A12" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -13083,12 +13086,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -13106,12 +13109,12 @@
     </row>
     <row r="24" spans="1:1" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -13132,12 +13135,12 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -13150,22 +13153,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -13203,12 +13206,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -13216,12 +13219,12 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A54" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -13241,27 +13244,27 @@
     </row>
     <row r="60" spans="1:1" ht="17.5">
       <c r="A60" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -13275,7 +13278,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -13307,17 +13310,17 @@
     </row>
     <row r="78" spans="1:1" ht="17.5">
       <c r="A78" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -13325,12 +13328,12 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -13338,27 +13341,27 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -13366,32 +13369,32 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17.5">
       <c r="A98" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="23.5">
       <c r="A103" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:1">
@@ -13417,7 +13420,7 @@
     </row>
     <row r="111" spans="1:1" ht="17.5">
       <c r="A111" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:1">
@@ -13443,12 +13446,12 @@
     </row>
     <row r="119" spans="1:1" ht="17.5">
       <c r="A119" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -13462,27 +13465,27 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -13490,12 +13493,12 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" spans="1:1">
@@ -13518,7 +13521,7 @@
     </row>
     <row r="138" spans="1:1" ht="17.5">
       <c r="A138" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -13535,7 +13538,7 @@
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -13555,7 +13558,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -13584,17 +13587,17 @@
     </row>
     <row r="158" spans="1:1" ht="17.5">
       <c r="A158" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -13602,7 +13605,7 @@
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163" spans="1:1">
@@ -13616,22 +13619,22 @@
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -13639,142 +13642,142 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="23.5">
       <c r="A182" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17.5">
       <c r="A187" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="23.5">
       <c r="A208" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="23.5">
       <c r="A211" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="17.5">
       <c r="A216" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17.5">
       <c r="A222" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="226" spans="1:1">
@@ -13782,17 +13785,17 @@
     </row>
     <row r="230" spans="1:1" ht="17.5">
       <c r="A230" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="246" spans="1:1">
@@ -13800,32 +13803,32 @@
     </row>
     <row r="248" spans="1:1" ht="17.5">
       <c r="A248" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="17.5">
       <c r="A262" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="276" spans="1:1">
@@ -13842,17 +13845,17 @@
     </row>
     <row r="281" spans="1:1" ht="17.5">
       <c r="A281" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="284" spans="1:1">
@@ -13860,27 +13863,27 @@
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="302" spans="1:1">
@@ -13894,7 +13897,7 @@
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="309" spans="1:1">
@@ -13902,22 +13905,22 @@
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="23.5">
       <c r="A313" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="325" spans="1:1">
@@ -13925,7 +13928,7 @@
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="327" spans="1:1">
@@ -13939,7 +13942,7 @@
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="331" spans="1:1">
@@ -13950,37 +13953,37 @@
     </row>
     <row r="334" spans="1:1" ht="17.5">
       <c r="A334" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="17.5">
       <c r="A353" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="360" spans="1:1">
@@ -13994,382 +13997,382 @@
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="23.5">
       <c r="A365" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="23.5">
       <c r="A368" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17.5">
       <c r="A373" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17.5">
       <c r="A374" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="17.5">
       <c r="A389" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="17.5">
       <c r="A401" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="17.5">
       <c r="A403" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="17.5">
       <c r="A409" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="23.5">
       <c r="A450" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="23.5">
       <c r="A469" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="23.5">
       <c r="A472" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="23.5">
       <c r="A487" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17.5">
       <c r="A508" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="14" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="23.5">
       <c r="A521" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="23.5">
       <c r="A547" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="23.5">
       <c r="A572" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="17.5">
       <c r="A588" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="624" spans="1:1">

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7C4E5-45B5-49F1-A71E-397CF1938D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BA865-F817-4BB3-BC93-4E96BC6286DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2766,10 +2766,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　　「 だいたい　２５．３メガバイトか」</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　　「 家のＰＣで読み込むのに５０秒ぐらいかかっちゃって</t>
     <rPh sb="11" eb="12">
       <t>イエ</t>
@@ -2950,6 +2946,13 @@
   </si>
   <si>
     <t>２０２４年０５月０８日　高橋智史</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 だいたい合計　２５．３メガバイトか」</t>
+    <rPh sb="15" eb="17">
+      <t>ゴウケイ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -7997,7 +8000,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3663950" y="70281800"/>
+          <a:off x="3663950" y="70237350"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3702050" y="70504050"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -8413,8 +8416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="114300" y="73221850"/>
-          <a:ext cx="3086259" cy="3048157"/>
+          <a:off x="114300" y="73177400"/>
+          <a:ext cx="3086259" cy="3003707"/>
           <a:chOff x="114300" y="72688450"/>
           <a:chExt cx="3086259" cy="3137057"/>
         </a:xfrm>
@@ -13010,8 +13013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A661"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A538" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A563" sqref="A563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -13044,7 +13047,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -14020,7 +14023,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="17.5">
+    <row r="374" spans="1:1">
       <c r="A374" s="14" t="s">
         <v>145</v>
       </c>
@@ -14090,7 +14093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="17.5">
+    <row r="409" spans="1:1">
       <c r="A409" s="14" t="s">
         <v>157</v>
       </c>
@@ -14247,7 +14250,7 @@
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="520" spans="1:1">
@@ -14322,57 +14325,57 @@
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="14" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="23.5">
       <c r="A572" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="17.5">
       <c r="A588" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="624" spans="1:1">

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BA865-F817-4BB3-BC93-4E96BC6286DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0BC84-83A7-440A-8C64-DAA20C547A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="243">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -2952,6 +2952,260 @@
     <t>　　　　　　　　　「 だいたい合計　２５．３メガバイトか」</t>
     <rPh sb="15" eb="17">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　学習</t>
+    <rPh sb="1" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＧＡＫＵＳＹＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　　ＫＯＳＨＩＮ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　評価値ファイルが良い感じに 更新 されるのが学習</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 学習（ラーニング）が何かというと」</t>
+    <rPh sb="11" eb="13">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　なんか知らんけど　評価値ファイルの内容が</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　　いい感じに更新されることだぜ」</t>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 良くならないんだったら　荒らしてるのとおんなじだからな」</t>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　将棋所の連続対局で学習</t>
+    <rPh sb="1" eb="3">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイキョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 じゃあ　きふわらべちゃんの評価値は　ぜんぜん良くなってないから</t>
+    <rPh sb="24" eb="27">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 学習　って呼んだらダメなんじゃないの？」</t>
+    <rPh sb="11" eb="13">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 学習ではないが　学習のふりをしている行為って　日本語で</t>
+    <rPh sb="11" eb="13">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウイ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 なんて名前で呼べばいいんだぜ？」</t>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 お父んが学生時代に何と呼ばれていたか　思い出せだぜ」</t>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ガクセイジダイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 落書き……？」</t>
+    <rPh sb="11" eb="13">
+      <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　落書き</t>
+    <rPh sb="1" eb="3">
+      <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＲＡＫＵＧＡＫＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　ＡＲＡＳＡＲＥＲＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　評価値ファイルが 荒らされる のが落書き</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 落書き（グラフィティ）が何かというと」</t>
+    <rPh sb="11" eb="13">
+      <t>ラクガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 　　変わってることだぜ」</t>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 それなら実装されてるぜ」</t>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 正しい説明ね」</t>
+    <rPh sb="11" eb="12">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -3969,13 +4223,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>630</xdr:row>
+      <xdr:row>746</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>635</xdr:row>
+      <xdr:row>751</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4019,13 +4273,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>635</xdr:row>
+      <xdr:row>751</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>641</xdr:row>
+      <xdr:row>757</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4069,13 +4323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>641</xdr:row>
+      <xdr:row>757</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>647</xdr:row>
+      <xdr:row>763</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4119,13 +4373,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>647</xdr:row>
+      <xdr:row>763</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>654</xdr:row>
+      <xdr:row>770</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12711,6 +12965,1082 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>630</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1111299</xdr:colOff>
+      <xdr:row>635</xdr:row>
+      <xdr:rowOff>69898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C82AF43-2C04-4A27-99F3-12ABCCE0D442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158750" y="116065300"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2136774</xdr:colOff>
+      <xdr:row>634</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3965575</xdr:colOff>
+      <xdr:row>640</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B3D4F4-BD87-7B63-30D6-C6C14373386D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2136774" y="116865400"/>
+          <a:ext cx="1828801" cy="996950"/>
+          <a:chOff x="2136774" y="117030500"/>
+          <a:chExt cx="1828801" cy="996950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F1EC39-F780-C4A7-F293-24334B410F79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2136774" y="117030500"/>
+            <a:ext cx="1825625" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>１０１１０１００　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>…</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDC7720-8D5F-4595-9DB7-E1B25C62809F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2139950" y="117709950"/>
+            <a:ext cx="1825625" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>０</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>０１</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>０１</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>１０</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>１</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>…</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE852DD-2C83-7B17-CFE0-D9E9A631D05C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="13" idx="2"/>
+            <a:endCxn id="16" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3049587" y="117348000"/>
+            <a:ext cx="3176" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1098599</xdr:colOff>
+      <xdr:row>644</xdr:row>
+      <xdr:rowOff>25448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA513D8D-5C05-42CD-AC79-C18B83ABBC9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="146050" y="117665500"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>644</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1092249</xdr:colOff>
+      <xdr:row>650</xdr:row>
+      <xdr:rowOff>95308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86086798-6C2D-47F0-BC4A-754423901219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="118605300"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>650</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1041443</xdr:colOff>
+      <xdr:row>656</xdr:row>
+      <xdr:rowOff>25449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03220F6-8D9C-40A6-BBF7-39C0B3B1F1F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="119773700"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>656</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162099</xdr:colOff>
+      <xdr:row>661</xdr:row>
+      <xdr:rowOff>95298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560BDFC2-5C01-44F2-A6C3-00D8ACF6C83E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="120757950"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>661</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1136699</xdr:colOff>
+      <xdr:row>668</xdr:row>
+      <xdr:rowOff>31808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D07386-5289-49BC-BA22-441F016A7D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="184150" y="121742200"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>668</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1143049</xdr:colOff>
+      <xdr:row>673</xdr:row>
+      <xdr:rowOff>101648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE4DA28-9597-4AB2-970F-D2B742DB4568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="122897900"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>681</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1085899</xdr:colOff>
+      <xdr:row>686</xdr:row>
+      <xdr:rowOff>133398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1552186D-5521-4488-AC70-AEA6FCBF36EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="125482350"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:row>685</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4108451</xdr:colOff>
+      <xdr:row>691</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067939DF-0017-433D-AD11-AE3B40745A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2279650" y="126187200"/>
+          <a:ext cx="1828801" cy="996950"/>
+          <a:chOff x="2136774" y="117030500"/>
+          <a:chExt cx="1828801" cy="996950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="テキスト ボックス 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B69A329-1759-1E07-8477-C6FEEF628626}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2136774" y="117030500"/>
+            <a:ext cx="1825625" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>１０１１０１００　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>…</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="テキスト ボックス 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AD904B-1770-47B6-4E2C-1BD6B2B94D3C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2139950" y="117709950"/>
+            <a:ext cx="1825625" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>０</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>０１</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>０１</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>１０</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>１</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>…</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B57135-9193-7C0D-991C-03AE44A5129E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="50" idx="2"/>
+            <a:endCxn id="51" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3049587" y="117348000"/>
+            <a:ext cx="3176" cy="361950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1117649</xdr:colOff>
+      <xdr:row>694</xdr:row>
+      <xdr:rowOff>165148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C26063-8303-40B7-A183-C2CC8B2EBCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="165100" y="126980950"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>695</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1098599</xdr:colOff>
+      <xdr:row>701</xdr:row>
+      <xdr:rowOff>101658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="図 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6891A025-A6F8-4A57-925A-80DDCB282EAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="146050" y="127965200"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>701</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066843</xdr:colOff>
+      <xdr:row>707</xdr:row>
+      <xdr:rowOff>57199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C65CF3-C678-475B-AFBA-0A4B58694B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="129159000"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13011,10 +14341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A661"/>
+  <dimension ref="A1:A777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A563" sqref="A563"/>
+    <sheetView tabSelected="1" topLeftCell="A684" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A709" sqref="A709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -14380,61 +15710,186 @@
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="14" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="23.5">
       <c r="A625" s="13" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="23" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="23.5">
       <c r="A628" s="16" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" ht="17.5">
+      <c r="A643" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" ht="23.5">
+      <c r="A677" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" ht="23.5">
+      <c r="A680" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" ht="17.5">
+      <c r="A694" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" ht="23.5">
+      <c r="A729" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" ht="23.5">
+      <c r="A741" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" ht="23.5">
+      <c r="A744" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="634" spans="1:1">
-      <c r="A634" s="14" t="s">
+    <row r="750" spans="1:1">
+      <c r="A750" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="639" spans="1:1">
-      <c r="A639" s="14" t="s">
+    <row r="755" spans="1:1">
+      <c r="A755" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:1">
-      <c r="A645" s="14" t="s">
+    <row r="761" spans="1:1">
+      <c r="A761" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="646" spans="1:1">
-      <c r="A646" s="14" t="s">
+    <row r="762" spans="1:1">
+      <c r="A762" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="652" spans="1:1">
-      <c r="A652" s="14" t="s">
+    <row r="768" spans="1:1">
+      <c r="A768" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="660" spans="1:1" ht="23.5">
-      <c r="A660" s="2" t="s">
+    <row r="776" spans="1:1" ht="23.5">
+      <c r="A776" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="661" spans="1:1" ht="23.5">
-      <c r="A661" s="2" t="s">
+    <row r="777" spans="1:1" ht="23.5">
+      <c r="A777" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0BC84-83A7-440A-8C64-DAA20C547A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10875334-B96C-4754-8ACB-42141DC0FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="286">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -3054,25 +3054,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　将棋所の連続対局で学習</t>
-    <rPh sb="1" eb="3">
-      <t>ショウギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レンゾク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイキョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　　「 じゃあ　きふわらべちゃんの評価値は　ぜんぜん良くなってないから</t>
     <rPh sb="24" eb="27">
       <t>ヒョウカチ</t>
@@ -3206,6 +3187,599 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　指し手が変わるように落書きしようぜ？</t>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　ＫＡＷＡＲＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　得票してくれるから</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>トクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 その手を指したわけで」</t>
+    <rPh sb="11" eb="12">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　選挙権者の顔を全部</t>
+    </r>
+    <rPh sb="34" eb="38">
+      <t>センキョケンシャ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 覚えておいて、</t>
+    <rPh sb="31" eb="32">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 票を入れてくれたやつ、</t>
+    <rPh sb="31" eb="32">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 票を入れてくれなかったやつ、</t>
+    <rPh sb="31" eb="32">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 乱数でゼロいちを上書きだぜ」</t>
+    <rPh sb="31" eb="33">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 評価値テーブルから引用した</t>
+    <rPh sb="31" eb="34">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 指し手を全部覚えておいても</t>
+    <rPh sb="31" eb="32">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 負け続けている間</t>
+    <rPh sb="31" eb="32">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 選挙権者の顔を追加で</t>
+    <rPh sb="31" eb="34">
+      <t>センキョケン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 覚え続けて、</t>
+    <rPh sb="31" eb="32">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 勝ったら評価値テーブルを保存</t>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 顔は全部忘れるぜ」</t>
+    <rPh sb="31" eb="32">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 近い強さの評価値テーブルが自己対戦したら、確率的にどっちでも負けるから</t>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイセン</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>カクリツテキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 いつまでも評価値テーブルを　落書きしまくるんじゃない？」</t>
+    <rPh sb="14" eb="17">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 プログラムが　全体的にバグだらけで</t>
+    <rPh sb="16" eb="19">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 レーティングの導入など様々な工夫には　頭が回らないぜ」</t>
+    <rPh sb="16" eb="18">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 一局、千数百ぐらいだぜ。</t>
+    <rPh sb="31" eb="33">
+      <t>イッキョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>スウヒャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 多くは重複なのだろう」</t>
+    <rPh sb="31" eb="32">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　ＲＥＮＺＯＫＵ　ＴＡＩＫＹＯＫＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　将棋所の　　連続 対局　　で落書き</t>
+    <rPh sb="1" eb="3">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイキョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 落書きのためのフレームワークなんて　なんも無いんで、</t>
+    <rPh sb="9" eb="11">
+      <t>ラクガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 きふわらべの　Python　ソースコードを丸ごとコピーして</t>
+    <rPh sb="30" eb="31">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 プレイヤー１、プレイヤー２　という扱いにして、</t>
+    <rPh sb="26" eb="27">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 持ち時間４０分、　手数の上限２０００　で連続対局だぜ」</t>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テスウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>レンゾクタイキョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 将棋所を使って</t>
+    <rPh sb="9" eb="12">
+      <t>ショウギジョ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 手の偏った　ランダムムーブ　みたいなもんで　ほとんど千日手だが、</t>
+    <rPh sb="9" eb="10">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタヨ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>センニチテ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 多めに２０００、１手１秒消費してしまうので　２０００秒は３３分ちょい、</t>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ざっくり４０分だぜ」</t>
+    <rPh sb="15" eb="16">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ４００手ぐらいあれば　まぐれで詰むだろうと増やして、</t>
+    <rPh sb="12" eb="13">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　評価値テーブル ６ 人前</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンマエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　ＲＯＫＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 プレイヤー１、プレイヤー２　に評価値テーブルを６つずつ、</t>
+    <rPh sb="24" eb="27">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 連続対局中は　計１２個の評価値テーブルを持たせてるぜ」</t>
+    <rPh sb="9" eb="11">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>タイキョクチュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 千日手になるもの同士の　評価値テーブルってあるし、</t>
+    <rPh sb="9" eb="11">
+      <t>センニチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ヒョウカチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ばらつかせないとな」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 学習が１２倍　遅くならない？」</t>
+    <rPh sb="9" eb="11">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 遅いが、千日手では　進まないんで……。</t>
+    <rPh sb="9" eb="10">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>センニチテ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ６は　最初　サイコロの目ぐらいの意味だったが、</t>
+    <rPh sb="12" eb="14">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 それより少ないと　千日手が多くて　勝ち負けが付くのが遅いんで</t>
+    <rPh sb="13" eb="14">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>センニチテ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ６つ持たせると　勝ち負けが付くとこまで進ませるのに　いい感じ」</t>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -4223,13 +4797,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>746</xdr:row>
+      <xdr:row>841</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>751</xdr:row>
+      <xdr:row>846</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4273,13 +4847,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>751</xdr:row>
+      <xdr:row>846</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>757</xdr:row>
+      <xdr:row>852</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4323,13 +4897,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>757</xdr:row>
+      <xdr:row>852</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>763</xdr:row>
+      <xdr:row>858</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4373,13 +4947,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>763</xdr:row>
+      <xdr:row>858</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>770</xdr:row>
+      <xdr:row>865</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8647,22 +9221,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>396</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3200559</xdr:colOff>
-      <xdr:row>412</xdr:row>
-      <xdr:rowOff>82707</xdr:rowOff>
+      <xdr:colOff>3251359</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>12857</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="67" name="グループ化 66">
+        <xdr:cNvPr id="186" name="グループ化 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24276A0-0996-8D0E-EC9C-C9148CFED207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B9F323-7068-9E40-B2F1-36E704C06851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8670,18 +9244,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="114300" y="73177400"/>
-          <a:ext cx="3086259" cy="3003707"/>
-          <a:chOff x="114300" y="72688450"/>
-          <a:chExt cx="3086259" cy="3137057"/>
+          <a:off x="165100" y="73240900"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="165100" y="73240900"/>
+          <a:chExt cx="3086259" cy="3048157"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="45" name="図 44">
+          <xdr:cNvPr id="184" name="図 183">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B55996-A112-EA4B-F78C-91A9E6FB8880}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DAE4FC-6FC7-621F-9C05-006BA76F5AFE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8703,7 +9277,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="114300" y="72688450"/>
+            <a:off x="165100" y="73240900"/>
             <a:ext cx="3086259" cy="3048157"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -8724,8 +9298,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2209800" y="73838082"/>
-            <a:ext cx="6350" cy="267943"/>
+            <a:off x="2209800" y="74278163"/>
+            <a:ext cx="6350" cy="256553"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8765,8 +9339,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2832100" y="73825012"/>
-            <a:ext cx="6350" cy="267943"/>
+            <a:off x="2832100" y="74265649"/>
+            <a:ext cx="6350" cy="256553"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8806,8 +9380,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1657350" y="73151886"/>
-            <a:ext cx="285750" cy="307154"/>
+            <a:off x="1657350" y="73621136"/>
+            <a:ext cx="285750" cy="294097"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8847,8 +9421,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="647700" y="73831547"/>
-            <a:ext cx="6350" cy="254873"/>
+            <a:off x="647700" y="74271906"/>
+            <a:ext cx="6350" cy="244039"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8888,8 +9462,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="768350" y="73432900"/>
-            <a:ext cx="1092200" cy="6535"/>
+            <a:off x="768350" y="73890205"/>
+            <a:ext cx="1092200" cy="6257"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -8929,8 +9503,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="717550" y="73511322"/>
-            <a:ext cx="1492250" cy="6535"/>
+            <a:off x="717550" y="73965293"/>
+            <a:ext cx="1492250" cy="6257"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -14041,6 +14615,1197 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>731</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047799</xdr:colOff>
+      <xdr:row>736</xdr:row>
+      <xdr:rowOff>44498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="図 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DDCDEC-39CA-4F4D-8A2B-C290BBFDDE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="134493000"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3632200</xdr:colOff>
+      <xdr:row>731</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6718459</xdr:colOff>
+      <xdr:row>747</xdr:row>
+      <xdr:rowOff>165257</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="187" name="グループ化 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA78F01-2B8D-4134-AD4A-CF5A2ACED47F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3632200" y="134448550"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="165100" y="73240900"/>
+          <a:chExt cx="3086259" cy="3048157"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="188" name="図 187">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D754006F-190B-06BC-5D73-51752A2DE1D8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="165100" y="73240900"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="189" name="直線矢印コネクタ 188">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0069D25B-DB5E-E56A-2D7B-0B244DAD2B04}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2209800" y="74278163"/>
+            <a:ext cx="6350" cy="256553"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="190" name="直線矢印コネクタ 189">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50113971-12BF-81F9-CFD5-402E7BF73AAC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2832100" y="74265649"/>
+            <a:ext cx="6350" cy="256553"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="191" name="直線矢印コネクタ 190">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63235DFE-EE9D-C7A1-B749-E018F9AA7B7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1657350" y="73621136"/>
+            <a:ext cx="285750" cy="294097"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="192" name="直線矢印コネクタ 191">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9DA8B09-A249-6050-CBD1-3FD626F1DA05}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="647700" y="74271906"/>
+            <a:ext cx="6350" cy="244039"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="193" name="直線矢印コネクタ 192">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1E5376-5018-4AD6-D3F5-9073E05B0D34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="768350" y="73890205"/>
+            <a:ext cx="1092200" cy="6257"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="194" name="直線矢印コネクタ 193">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1962D080-DFBD-E304-2AD4-42E60BB37F30}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="717550" y="73965293"/>
+            <a:ext cx="1492250" cy="6257"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>747</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3232309</xdr:colOff>
+      <xdr:row>763</xdr:row>
+      <xdr:rowOff>120807</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="210" name="グループ化 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A67FF3-EE5A-C0BB-3DAD-0ED40D0F9AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="146050" y="137382250"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="273050" y="137096500"/>
+          <a:chExt cx="3086259" cy="3048157"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="196" name="図 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B439EFC3-8694-BF1A-4166-307B98B6EFE1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="273050" y="137096500"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="197" name="直線矢印コネクタ 196">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6C4BF4-C2C6-9979-88DD-365C11B15128}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2946400" y="137543213"/>
+            <a:ext cx="6350" cy="256553"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="198" name="直線矢印コネクタ 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311C7FF7-4171-FB37-EE3B-B9B9D29C0D7A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2940050" y="138121249"/>
+            <a:ext cx="6350" cy="301003"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="199" name="直線矢印コネクタ 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6F5F12-71ED-A5A8-BC9D-38553C9298F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1765300" y="137476736"/>
+            <a:ext cx="285750" cy="294097"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72427568-C67D-C9FE-E3D1-9378A837B0FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="825500" y="137820893"/>
+            <a:ext cx="1492250" cy="6257"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="203" name="直線矢印コネクタ 202">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234E1FC1-1BE5-4B07-88F2-2AE713EAA7CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1073150" y="138150600"/>
+            <a:ext cx="6350" cy="345453"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3365500</xdr:colOff>
+      <xdr:row>748</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4318049</xdr:colOff>
+      <xdr:row>753</xdr:row>
+      <xdr:rowOff>76248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="205" name="図 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A00DA21-3C5D-4048-8699-455D3FD60726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3365500" y="137636250"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>753</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4343449</xdr:colOff>
+      <xdr:row>759</xdr:row>
+      <xdr:rowOff>63558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="図 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FBDFBD-3FD3-4EDD-83F5-56B60F33058D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="138715750"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>946193</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>171499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="図 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4D969B-A85D-47AE-9EFC-4E240E9DAFED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107950" y="140995400"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3416300</xdr:colOff>
+      <xdr:row>760</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4368849</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>76248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="図 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8655C19-2608-4640-80F6-3C126D224F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3416300" y="140036550"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>772</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1022399</xdr:colOff>
+      <xdr:row>777</xdr:row>
+      <xdr:rowOff>57198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="図 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7E4E7C6-8F88-40B2-8B65-FFC784109AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69850" y="142017750"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>782</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028749</xdr:colOff>
+      <xdr:row>787</xdr:row>
+      <xdr:rowOff>95298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="図 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A04F722-C864-4863-9496-6BC24C323E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="143954500"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>788</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977949</xdr:colOff>
+      <xdr:row>795</xdr:row>
+      <xdr:rowOff>50858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="図 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126481ED-E9CA-4841-92FB-660A1D296446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="145135600"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>802</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1047799</xdr:colOff>
+      <xdr:row>807</xdr:row>
+      <xdr:rowOff>69898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="図 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD5E57B-27EA-4409-B396-3707F92DAA60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="147605750"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>807</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028749</xdr:colOff>
+      <xdr:row>814</xdr:row>
+      <xdr:rowOff>31808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="図 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A0BDB21-6F69-4232-A8C5-22308EFFC785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="148615400"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>814</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>965243</xdr:colOff>
+      <xdr:row>819</xdr:row>
+      <xdr:rowOff>165149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="図 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F923BF-4CD8-438F-AD9E-046345DC4CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="149809200"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>820</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066849</xdr:colOff>
+      <xdr:row>825</xdr:row>
+      <xdr:rowOff>120698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="220" name="図 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A731ED-B875-41E5-B531-7060965B1D3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="150856950"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14341,10 +16106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A777"/>
+  <dimension ref="A1:A872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A684" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A709" sqref="A709"/>
+    <sheetView tabSelected="1" topLeftCell="A788" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A829" sqref="A829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -15750,57 +17515,57 @@
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="23.5">
       <c r="A677" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="23.5">
       <c r="A680" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="17.5">
@@ -15810,86 +17575,299 @@
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="23" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="23.5">
       <c r="A729" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1">
-      <c r="A740" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" ht="23.5">
-      <c r="A741" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1">
-      <c r="A743" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" ht="23.5">
-      <c r="A744" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1">
-      <c r="A749" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1">
-      <c r="A750" s="14" t="s">
-        <v>19</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" ht="17.5">
+      <c r="A734" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" ht="17.5">
+      <c r="A751" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" ht="17.5">
+      <c r="A752" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="14" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="14" t="s">
-        <v>20</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" ht="17.5">
+      <c r="A758" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="14" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1">
-      <c r="A762" s="14" t="s">
-        <v>22</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" ht="17.5">
+      <c r="A764" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="14"/>
+    </row>
+    <row r="771" spans="1:1" ht="17.5">
+      <c r="A771" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" ht="23.5">
+      <c r="A781" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" ht="23.5">
+      <c r="A801" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" s="14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" ht="23.5">
+      <c r="A836" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" ht="23.5">
+      <c r="A839" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="776" spans="1:1" ht="23.5">
-      <c r="A776" s="2" t="s">
+    <row r="871" spans="1:1" ht="23.5">
+      <c r="A871" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="777" spans="1:1" ht="23.5">
-      <c r="A777" s="2" t="s">
+    <row r="872" spans="1:1" ht="23.5">
+      <c r="A872" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10875334-B96C-4754-8ACB-42141DC0FE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF3D6AE-0373-4905-9660-986538BB90CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="327">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -3780,6 +3780,521 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　コウの更新</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　ＫＯ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　金がよくやるんだが</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 　　左右にパタパタ手待ち</t>
+    <rPh sb="11" eb="13">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 　　お互いにやって　千日手」</t>
+    <rPh sb="12" eb="13">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>センニチテ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 歩や香には真似できませんからね」</t>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マネ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 そこで、自分が２つ前に指した手は</t>
+    <rPh sb="13" eb="15">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 他に手があるなら　指さない、</t>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 とプログラムしてるぜ。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 これは囲碁のコウと同じ実装だぜ」</t>
+    <rPh sb="12" eb="14">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　「 ファインプレーにもなる手なのか</t>
+    <rPh sb="40" eb="41">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　 明らかにダメな手なのか</t>
+    <rPh sb="29" eb="30">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　 将棋アマ５級のわたしには</t>
+    <rPh sb="29" eb="31">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　 分からないんで</t>
+    <rPh sb="29" eb="30">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　 どうしたろうか」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　三角形でも回せるぜ」</t>
+    </r>
+    <rPh sb="32" eb="35">
+      <t>サンカッケイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　王手されて玉を動かすとき、相手の玉を動かす</t>
+    <rPh sb="1" eb="3">
+      <t>オウテ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　　ＡＩＴＥ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 大まかな　推測モデル　と　落書き　の話しは　終わりだぜ」</t>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スイソク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ラクガ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 王手されても　金でその駒を取り返せるときは　金でアタッカーを取るんだけど</t>
+    <rPh sb="9" eb="11">
+      <t>オウテ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 玉が逃げろ、という場面では　自玉ではなく　相手の玉を動かすのよ。</t>
+    <rPh sb="9" eb="10">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジギョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 なんで？」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 さっぱりワカラン　今のソースコードを修正せずに</t>
+    <rPh sb="18" eb="19">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 新しく書き直そうかな、ぐらいに思っている」</t>
+    <rPh sb="9" eb="10">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　不具合</t>
+    <rPh sb="1" eb="4">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　ＦＵＧＵＡＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　ＨＡＮＩＧＡＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　評価値テーブルの 範囲外 へのアクセス</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 ＫＫ、ＫＰ、ＰＰテーブルが配列で用意されているみたいだが、</t>
+    <rPh sb="22" eb="24">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ポリシー値は　０　として数えているところが大量にある。</t>
+    <rPh sb="13" eb="14">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カゾ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 なんで　範囲外にアクセスするんだぜ？」</t>
+    <rPh sb="13" eb="16">
+      <t>ハンイガイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 配列の範囲外にアクセスして例外投げていて、</t>
+    <rPh sb="9" eb="11">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 アイデアを　ちゃちゃっと実装して</t>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 さっぱりワカラン　わたしは２、３時間ぐらいで</t>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 三連休は数十時間　壊れたプログラムを眺めて　休日も終わりだぜ」</t>
+    <rPh sb="9" eb="12">
+      <t>サンレンキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウジュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 設計図を書いてから実装しろと　よく言われているが、</t>
+    <rPh sb="9" eb="12">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 設計図は書かないのかだぜ？」</t>
+    <rPh sb="9" eb="12">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 電王トーナメントにも出場してた　mEssiah　の開発者の桜丸から</t>
+    <rPh sb="9" eb="11">
+      <t>デンオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクラマル</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 設計図なんか書いたことない。</t>
+    <rPh sb="9" eb="12">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 仕様が用意されていて、なるべく仕様に沿うように作ったことはある」</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 その設計図だか　仕様を書けっつってんのよ」</t>
+    <rPh sb="11" eb="14">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -4797,13 +5312,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>841</xdr:row>
+      <xdr:row>942</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>846</xdr:row>
+      <xdr:row>947</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4847,13 +5362,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>846</xdr:row>
+      <xdr:row>947</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>852</xdr:row>
+      <xdr:row>953</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4897,13 +5412,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>852</xdr:row>
+      <xdr:row>953</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>858</xdr:row>
+      <xdr:row>959</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4947,13 +5462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>858</xdr:row>
+      <xdr:row>959</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>865</xdr:row>
+      <xdr:row>966</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15806,6 +16321,1456 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4749800</xdr:colOff>
+      <xdr:row>833</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6642197</xdr:colOff>
+      <xdr:row>841</xdr:row>
+      <xdr:rowOff>69924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="図 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33AD537-1F2D-7274-D222-D0050427FF7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4749800" y="153346150"/>
+          <a:ext cx="1892397" cy="1441524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4743450</xdr:colOff>
+      <xdr:row>843</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6635847</xdr:colOff>
+      <xdr:row>851</xdr:row>
+      <xdr:rowOff>133424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="図 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D628D982-A9F4-F9CA-7F6C-75E4C1A6018C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="155232100"/>
+          <a:ext cx="1892397" cy="1441524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5689649</xdr:colOff>
+      <xdr:row>841</xdr:row>
+      <xdr:rowOff>69924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5695999</xdr:colOff>
+      <xdr:row>843</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="直線矢印コネクタ 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1607A80-244B-A0F8-F363-4F22399D07D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="222" idx="2"/>
+          <a:endCxn id="224" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5689649" y="154787674"/>
+          <a:ext cx="6350" cy="444426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5378450</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5683250</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="直線矢印コネクタ 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00ACA80A-9793-480B-A3E0-63BC479C6546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5378450" y="154222450"/>
+          <a:ext cx="304800" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5251450</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5499100</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直線矢印コネクタ 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C22647-DD35-4D39-8844-3A1F7E134C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5251450" y="156165550"/>
+          <a:ext cx="247650" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>834</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1035099</xdr:colOff>
+      <xdr:row>838</xdr:row>
+      <xdr:rowOff>146098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="236" name="図 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6961D567-7CAC-496F-BF7A-15DF4975ECE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="153403300"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>839</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>958893</xdr:colOff>
+      <xdr:row>844</xdr:row>
+      <xdr:rowOff>88949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="237" name="図 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C63A603-AA95-4DAC-A73E-E1BB827AC524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="120650" y="154432000"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>844</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1022399</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="238" name="図 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1037F6-59A8-4397-B4CB-867433C0FDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69850" y="155467050"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>865</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2108297</xdr:colOff>
+      <xdr:row>873</xdr:row>
+      <xdr:rowOff>69924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="249" name="図 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875BCFA0-1756-6DBF-1DBD-92B6495429A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="159124650"/>
+          <a:ext cx="1892397" cy="1441524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>855</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2108297</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>25474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="250" name="図 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6BC0FA-F31D-4663-A177-925E12D0C6DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="157257750"/>
+          <a:ext cx="1892397" cy="1441524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2559050</xdr:colOff>
+      <xdr:row>855</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4451447</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>25474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="図 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F5D09C-F324-451E-8946-226A2FFA992E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2559050" y="157257750"/>
+          <a:ext cx="1892397" cy="1441524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2108297</xdr:colOff>
+      <xdr:row>859</xdr:row>
+      <xdr:rowOff>15912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2559050</xdr:colOff>
+      <xdr:row>859</xdr:row>
+      <xdr:rowOff>15912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="直線矢印コネクタ 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E41CB3-9A18-44BB-B115-D501A767599F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="252" idx="1"/>
+          <a:endCxn id="250" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2108297" y="157978512"/>
+          <a:ext cx="450753" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162099</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>25474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162099</xdr:colOff>
+      <xdr:row>865</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="256" name="直線矢印コネクタ 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8049E0C8-DDE2-4777-BDEC-BC03DD7CA653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="2"/>
+          <a:endCxn id="249" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162099" y="158699274"/>
+          <a:ext cx="0" cy="425376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2108297</xdr:colOff>
+      <xdr:row>863</xdr:row>
+      <xdr:rowOff>25474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3505249</xdr:colOff>
+      <xdr:row>869</xdr:row>
+      <xdr:rowOff>104812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="直線矢印コネクタ 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4053196-FB45-47A0-A423-84FF33C81FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="249" idx="3"/>
+          <a:endCxn id="252" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2108297" y="158699274"/>
+          <a:ext cx="1396952" cy="1146138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:row>866</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3943399</xdr:colOff>
+      <xdr:row>872</xdr:row>
+      <xdr:rowOff>127058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="263" name="図 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2FE5B8-2469-47FC-AC29-99AC60792091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="159321500"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3111500</xdr:colOff>
+      <xdr:row>860</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3308350</xdr:colOff>
+      <xdr:row>862</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="直線矢印コネクタ 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5DB091-BDAB-4E2A-BD19-EF331597827E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3111500" y="158311850"/>
+          <a:ext cx="196850" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>860</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>860</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="直線矢印コネクタ 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1CEFEB-0E21-4BBE-9526-EB6E420C5AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="869950" y="158197550"/>
+          <a:ext cx="209550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>870</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>871</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="直線矢印コネクタ 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE4A703-9F8C-4CB5-AE62-B167ADDE383D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="755650" y="160007300"/>
+          <a:ext cx="0" cy="234950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="lg" len="lg"/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3022600</xdr:colOff>
+      <xdr:row>873</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3975149</xdr:colOff>
+      <xdr:row>878</xdr:row>
+      <xdr:rowOff>76248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="278" name="図 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83CFC72-9E10-4041-B55E-56B7336FBA40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022600" y="160534350"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>876</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1054149</xdr:colOff>
+      <xdr:row>881</xdr:row>
+      <xdr:rowOff>158798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="280" name="図 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB26D3A-0899-425E-A123-1CCF985E285A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="161194750"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>889</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>933493</xdr:colOff>
+      <xdr:row>894</xdr:row>
+      <xdr:rowOff>120699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="281" name="図 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5120E9F-7C9F-481A-A720-9F16F7243B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="163639500"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>894</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1054149</xdr:colOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>19098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="282" name="図 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F4F0631-2FBD-46C8-A919-BC7F397FDE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="164630100"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>904</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990649</xdr:colOff>
+      <xdr:row>911</xdr:row>
+      <xdr:rowOff>31808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="283" name="図 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D081FA9-2CCD-4F1B-B6E7-58A7E34AFEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="166522400"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>911</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>996999</xdr:colOff>
+      <xdr:row>916</xdr:row>
+      <xdr:rowOff>107998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="284" name="図 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F56B95-21E3-4FAB-922B-1877C49E8A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44450" y="167684450"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>916</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977949</xdr:colOff>
+      <xdr:row>923</xdr:row>
+      <xdr:rowOff>19108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="285" name="図 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C2E1DE-1757-4388-B129-DA8C59342ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="168643300"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>923</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977949</xdr:colOff>
+      <xdr:row>928</xdr:row>
+      <xdr:rowOff>63548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="286" name="図 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5642C581-BDBA-4F8C-989A-1038E9D26A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="169773600"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>928</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>914443</xdr:colOff>
+      <xdr:row>933</xdr:row>
+      <xdr:rowOff>158799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="287" name="図 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D74FC1C-99F6-4903-9CAA-C07E5D00F6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="170732450"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16106,10 +18071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A872"/>
+  <dimension ref="A1:A973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A788" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A829" sqref="A829"/>
+    <sheetView tabSelected="1" topLeftCell="A888" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A931" sqref="A931"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -17811,63 +19776,268 @@
         <v>285</v>
       </c>
     </row>
-    <row r="835" spans="1:1">
-      <c r="A835" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1" ht="23.5">
-      <c r="A836" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1" ht="23.5">
-      <c r="A839" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1">
-      <c r="A844" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1">
-      <c r="A845" s="14" t="s">
-        <v>19</v>
+    <row r="832" spans="1:1">
+      <c r="A832" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" ht="23.5">
+      <c r="A833" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" ht="17.5">
+      <c r="A837" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" ht="17.5">
+      <c r="A838" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" ht="17.5">
+      <c r="A843" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="14" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" ht="17.5">
+      <c r="A871" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" ht="23.5">
+      <c r="A885" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" ht="23.5">
+      <c r="A888" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" ht="23.5">
+      <c r="A904" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" s="14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920" s="14" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" ht="23.5">
+      <c r="A937" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" ht="23.5">
+      <c r="A940" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="856" spans="1:1">
-      <c r="A856" s="14" t="s">
+    <row r="957" spans="1:1">
+      <c r="A957" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="857" spans="1:1">
-      <c r="A857" s="14" t="s">
+    <row r="958" spans="1:1">
+      <c r="A958" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="863" spans="1:1">
-      <c r="A863" s="14" t="s">
+    <row r="964" spans="1:1">
+      <c r="A964" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="871" spans="1:1" ht="23.5">
-      <c r="A871" s="2" t="s">
+    <row r="972" spans="1:1" ht="23.5">
+      <c r="A972" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="872" spans="1:1" ht="23.5">
-      <c r="A872" s="2" t="s">
+    <row r="973" spans="1:1" ht="23.5">
+      <c r="A973" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF3D6AE-0373-4905-9660-986538BB90CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01DCF4-6818-4A92-A472-DC1229FAA4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="334">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -1394,47 +1394,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>👈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="たぬき油性マジック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　左図の 5i6h_5a4b_ は</t>
-    </r>
-    <rPh sb="34" eb="36">
-      <t>サズ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 自玉と敵玉の関係だから</t>
-    <rPh sb="31" eb="33">
-      <t>ジギョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テキギョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 ＫＫと呼ぶぜ」</t>
     <rPh sb="34" eb="35">
       <t>ヨ</t>
@@ -1442,50 +1401,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">　　　　　　　「 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>👉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="たぬき油性マジック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　右図の 5i6h_5a4b_ は</t>
-    </r>
-    <rPh sb="12" eb="14">
-      <t>ウズ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　 自玉と敵金の関係だから</t>
-    <rPh sb="9" eb="11">
-      <t>ジギョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　 ＫＰと呼ぶぜ」</t>
     <rPh sb="12" eb="13">
       <t>ヨ</t>
@@ -1493,22 +1408,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 自金と敵玉の関係だから</t>
-    <rPh sb="31" eb="32">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>テキギョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 ＰＫと呼ぶぜ」</t>
     <rPh sb="34" eb="35">
       <t>ヨ</t>
@@ -1516,25 +1415,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　 自金と敵金の関係だから</t>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　 ＰＰと呼ぶぜ」</t>
     <rPh sb="12" eb="13">
       <t>ヨ</t>
@@ -1611,44 +1491,6 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　 将棋で　玉は特別扱いだぜ、捨て駒に使ってはいけないという点で」</t>
-    <rPh sb="9" eb="11">
-      <t>ショウギ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ギョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ゴマ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　「 ＫＫ、ＫＰ、ＰＫ、ＰＰ　なんて　実装できてないと思う」</t>
-    <rPh sb="25" eb="27">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -3872,36 +3714,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　 他に手があるなら　指さない、</t>
-    <rPh sb="9" eb="10">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　 とプログラムしてるぜ。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　 これは囲碁のコウと同じ実装だぜ」</t>
-    <rPh sb="12" eb="14">
-      <t>イゴ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　「 ファインプレーにもなる手なのか</t>
     <rPh sb="40" eb="41">
       <t>テ</t>
@@ -4298,6 +4110,342 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 駒じゃなくて矢印を見るのね」</t>
+    <rPh sb="31" eb="32">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 自玉の指し手と</t>
+    <rPh sb="31" eb="33">
+      <t>ジギョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 敵玉の指し手の関係だから</t>
+    <rPh sb="31" eb="33">
+      <t>テキギョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 符号は同じなのに</t>
+    <rPh sb="9" eb="11">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 動かす駒が違うケースか」</t>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">　左図の </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5i6h_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF68AE9"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5a4b_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> は</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>サズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">　右図の </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5i6h_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFF68AE9"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5a4b_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> は</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>ウズ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 自玉の指し手と</t>
+    <rPh sb="9" eb="11">
+      <t>ジギョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 敵金の指し手の関係だから</t>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　 　　　　　　　　　　　　　　　　　　　　　　　　 自金の指し手と</t>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 自金の指し手と</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 将棋で　玉は特別扱いしないと　ゲームにならないぜ。</t>
+    <rPh sb="9" eb="11">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 玉は捨て駒に使ってはいけないという点で」</t>
+    <rPh sb="9" eb="10">
+      <t>ギョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 この図のような　ＫＫ、ＫＰ、ＰＫ、ＰＰ　なんて　実装できてないと思う」</t>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 これは囲碁のコウと同じ実装だぜ。</t>
+    <rPh sb="12" eb="14">
+      <t>イゴ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 指さない、とプログラムしてるぜ。</t>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 指すようにアレンジしてるぜ」</t>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ただし、将棋向けに　他に手がなければ</t>
+    <rPh sb="13" eb="15">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -4306,7 +4454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$￥-411]#,##0;[Red]&quot;-&quot;[$￥-411]#,##0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4501,6 +4649,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF68AE9"/>
+      <name val="たぬき油性マジック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4633,6 +4788,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF68AE9"/>
       <color rgb="FFFFD700"/>
       <color rgb="FFFFD500"/>
       <color rgb="FF724EB2"/>
@@ -4640,7 +4796,6 @@
       <color rgb="FF203764"/>
       <color rgb="FF85BB0D"/>
       <color rgb="FFFC8004"/>
-      <color rgb="FFF68AE9"/>
       <color rgb="FF005ABB"/>
       <color rgb="FFE0E51F"/>
     </mruColors>
@@ -8056,22 +8211,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>3429000</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3225959</xdr:colOff>
-      <xdr:row>243</xdr:row>
-      <xdr:rowOff>82707</xdr:rowOff>
+      <xdr:colOff>4381549</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="図 140">
+        <xdr:cNvPr id="142" name="図 141">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CCB666-B108-35ED-B3A3-954AB8151910}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40B33CC-ED7C-4F9A-B1E6-BC111489D650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8080,7 +8235,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8093,108 +8248,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="139700" y="42411650"/>
-          <a:ext cx="3086259" cy="3048157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3422650</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4375199</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>171498</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="142" name="図 141">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40B33CC-ED7C-4F9A-B1E6-BC111489D650}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3422650" y="42487850"/>
-          <a:ext cx="952549" cy="927148"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3644900</xdr:colOff>
-      <xdr:row>238</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6731159</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>44607</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="図 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A96CF11-6A88-3582-1B76-F6FB5A0E3E2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3644900" y="44596050"/>
-          <a:ext cx="3086259" cy="3048157"/>
+          <a:off x="3429000" y="42322750"/>
+          <a:ext cx="952549" cy="882698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8256,56 +8311,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3245009</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>95407</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="図 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E17751-E8E9-5ABF-A6CD-249BEC44DD16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="158750" y="48247300"/>
-          <a:ext cx="3086259" cy="3048157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>3314700</xdr:colOff>
       <xdr:row>258</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
@@ -8356,56 +8361,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3619500</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6705759</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>133507</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="図 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9914756-2DA0-8076-B588-BBFC2E7CD6B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3619500" y="50285650"/>
-          <a:ext cx="3086259" cy="3048157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>277</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
@@ -8507,13 +8462,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8589,13 +8544,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8671,13 +8626,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8753,13 +8708,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4756150</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8835,13 +8790,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>958899</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>139758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8885,13 +8840,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>336</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>82598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8935,13 +8890,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1860550</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9017,13 +8972,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1854200</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9121,13 +9076,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>139749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9171,13 +9126,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>354</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>358</xdr:row>
       <xdr:rowOff>114348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9244,7 +9199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9343,7 +9298,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3663950" y="70237350"/>
+          <a:off x="3663950" y="70326250"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3702050" y="70504050"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -9363,7 +9318,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9759,7 +9714,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="165100" y="73240900"/>
+          <a:off x="165100" y="73329800"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="165100" y="73240900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -9779,7 +9734,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11563,13 +11518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1149399</xdr:colOff>
-      <xdr:row>536</xdr:row>
+      <xdr:row>535</xdr:row>
       <xdr:rowOff>127048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11613,13 +11568,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>537</xdr:row>
+      <xdr:row>536</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1181149</xdr:colOff>
-      <xdr:row>543</xdr:row>
+      <xdr:row>542</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11663,13 +11618,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>548</xdr:row>
+      <xdr:row>547</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1098599</xdr:colOff>
-      <xdr:row>553</xdr:row>
+      <xdr:row>552</xdr:row>
       <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11763,13 +11718,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1631950</xdr:colOff>
-      <xdr:row>522</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11845,13 +11800,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1606550</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>526</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2432050</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>528</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11927,13 +11882,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2317750</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>526</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11994,13 +11949,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3486150</xdr:colOff>
-      <xdr:row>522</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4114800</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12069,13 +12024,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3479800</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>525</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108450</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12144,13 +12099,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3479800</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>528</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108450</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12219,13 +12174,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4292600</xdr:colOff>
-      <xdr:row>522</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4921250</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12294,13 +12249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4311650</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>528</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4940300</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12369,13 +12324,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5111750</xdr:colOff>
-      <xdr:row>522</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5740400</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>524</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12444,13 +12399,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5124450</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>525</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5753100</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12519,13 +12474,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5137150</xdr:colOff>
-      <xdr:row>529</xdr:row>
+      <xdr:row>528</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5765800</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>530</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12594,13 +12549,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>556</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1130349</xdr:colOff>
-      <xdr:row>562</xdr:row>
+      <xdr:row>561</xdr:row>
       <xdr:rowOff>57208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12644,13 +12599,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>562</xdr:row>
+      <xdr:row>561</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1073193</xdr:colOff>
-      <xdr:row>567</xdr:row>
+      <xdr:row>566</xdr:row>
       <xdr:rowOff>152449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12836,13 +12791,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2717800</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3206750</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>526</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13948,7 +13903,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14130,7 +14085,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2136774" y="116865400"/>
+          <a:off x="2136774" y="116954300"/>
           <a:ext cx="1828801" cy="996950"/>
           <a:chOff x="2136774" y="117030500"/>
           <a:chExt cx="1828801" cy="996950"/>
@@ -14743,7 +14698,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2279650" y="126187200"/>
+          <a:off x="2279650" y="126276100"/>
           <a:ext cx="1828801" cy="996950"/>
           <a:chOff x="2136774" y="117030500"/>
           <a:chExt cx="1828801" cy="996950"/>
@@ -15206,7 +15161,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3632200" y="134448550"/>
+          <a:off x="3632200" y="134537450"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="165100" y="73240900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -15226,7 +15181,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15522,7 +15477,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="146050" y="137382250"/>
+          <a:off x="146050" y="137471150"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="273050" y="137096500"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -15542,7 +15497,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16348,7 +16303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16403,7 +16358,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16552,14 +16507,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5251450</xdr:colOff>
-      <xdr:row>848</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5499100</xdr:colOff>
-      <xdr:row>848</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16574,7 +16529,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5251450" y="156165550"/>
+          <a:off x="5251450" y="156273500"/>
           <a:ext cx="247650" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -16782,7 +16737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16837,7 +16792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16892,7 +16847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17769,6 +17724,714 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3517900</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4356143</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>171499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="290" name="図 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68040690-9A71-4D3F-B5C7-90F4919CDD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517900" y="43307000"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3219609</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>50957</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="298" name="グループ化 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF09BE3-2FF2-5563-76C8-F7391AB786BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="133350" y="42335450"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="133350" y="42335450"/>
+          <a:chExt cx="3086259" cy="3048157"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="297" name="図 296">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EAA1B4-FB9D-2170-A212-42B0339587C2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="133350" y="42335450"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="289" name="直線矢印コネクタ 288">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03487120-69E2-6BC6-2939-F62AC1FB6239}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1574800" y="42716450"/>
+            <a:ext cx="209550" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="F68AE9"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="291" name="直線矢印コネクタ 290">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B472ED-C96A-455F-A027-E314B7D1D552}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1320800" y="44958000"/>
+            <a:ext cx="254000" cy="234950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3676650</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6762909</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>50957</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="303" name="グループ化 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F870803-288A-FBED-682D-69CEE707D4A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3676650" y="44513500"/>
+          <a:ext cx="3086259" cy="3092607"/>
+          <a:chOff x="3619500" y="44684950"/>
+          <a:chExt cx="3086259" cy="3048157"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="300" name="図 299">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF1AC23-F3C3-E150-9702-9D07ED66DB5E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3619500" y="44684950"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="301" name="直線矢印コネクタ 300">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E8720-8135-4036-B2EB-18679A0D28C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5086350" y="45085000"/>
+            <a:ext cx="209550" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="F68AE9"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="302" name="直線矢印コネクタ 301">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7041F4-56B2-4A1D-B7BC-A9110B277609}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4800600" y="47313850"/>
+            <a:ext cx="254000" cy="234950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971599</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>69908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="304" name="図 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB3852C-4789-4EC9-8814-E0A0229CFC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="46545500"/>
+          <a:ext cx="952549" cy="1079558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3232309</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>82707</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="314" name="グループ化 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5461B81-1CFB-44A6-7A70-EA37C23531AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="146050" y="48190150"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="146050" y="48190150"/>
+          <a:chExt cx="3086259" cy="3048157"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="308" name="図 307">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE673CF-58DF-DB45-4813-22530646EE29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="146050" y="48190150"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="305" name="直線矢印コネクタ 304">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB0D267-7733-40D7-A377-427BC998CF56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1327150" y="50825400"/>
+            <a:ext cx="254000" cy="234950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="306" name="直線矢印コネクタ 305">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EC870E-792B-4590-B89F-D7D87A492502}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1593850" y="48583850"/>
+            <a:ext cx="209550" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="F68AE9"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3606800</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6693059</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>70007</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="313" name="グループ化 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59710A38-8605-1D8C-D265-C7D2DA95DE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3606800" y="49999900"/>
+          <a:ext cx="3086259" cy="3048157"/>
+          <a:chOff x="3606800" y="49999900"/>
+          <a:chExt cx="3086259" cy="3048157"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="310" name="図 309">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAB5A0D-3E99-FDFB-9B35-694C624C5054}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3606800" y="49999900"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="311" name="直線矢印コネクタ 310">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1F3FF7-89B0-4D23-9382-2B1D02372CEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5092700" y="50393600"/>
+            <a:ext cx="209550" cy="215900"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="F68AE9"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="312" name="直線矢印コネクタ 311">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DC4D9E-5CA0-43CD-AFCD-F51ADF25261E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4781550" y="52622450"/>
+            <a:ext cx="254000" cy="234950"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18073,8 +18736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A888" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A931" sqref="A931"/>
+    <sheetView tabSelected="1" topLeftCell="A834" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A854" sqref="A854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -18107,7 +18770,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -18216,7 +18879,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -18269,12 +18932,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -18740,7 +19403,7 @@
     </row>
     <row r="182" spans="1:1" ht="23.5">
       <c r="A182" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17.5">
@@ -18785,7 +19448,7 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="207" spans="1:1">
@@ -18846,52 +19509,82 @@
     <row r="226" spans="1:1">
       <c r="A226" s="14"/>
     </row>
-    <row r="230" spans="1:1" ht="17.5">
+    <row r="229" spans="1:1" ht="17.5">
+      <c r="A229" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
       <c r="A230" s="14" t="s">
-        <v>111</v>
+        <v>317</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="14" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="17.5">
+      <c r="A235" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="14"/>
     </row>
-    <row r="248" spans="1:1" ht="17.5">
+    <row r="247" spans="1:1" ht="17.5">
+      <c r="A247" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
       <c r="A248" s="14" t="s">
-        <v>114</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="14" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="17.5">
+      <c r="A253" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="17.5">
       <c r="A262" s="14" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="14" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="14" t="s">
-        <v>118</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="276" spans="1:1">
@@ -18903,22 +19596,24 @@
     <row r="279" spans="1:1">
       <c r="A279" s="14"/>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="14"/>
-    </row>
-    <row r="281" spans="1:1" ht="17.5">
+    <row r="280" spans="1:1" ht="17.5">
+      <c r="A280" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
       <c r="A281" s="14" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="14" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="284" spans="1:1">
@@ -18926,27 +19621,32 @@
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="14" t="s">
-        <v>125</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="14" t="s">
-        <v>126</v>
+        <v>329</v>
       </c>
     </row>
     <row r="302" spans="1:1">
@@ -18960,39 +19660,42 @@
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="14"/>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" ht="23.5">
-      <c r="A313" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="14" t="s">
-        <v>131</v>
-      </c>
+    <row r="311" spans="1:1">
+      <c r="A311" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="23.5">
+      <c r="A312" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="14"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="14"/>
+      <c r="A325" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="A326" s="14"/>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="14"/>
@@ -19001,53 +19704,53 @@
       <c r="A328" s="14"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="A330" s="14"/>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="14"/>
     </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="14"/>
-    </row>
-    <row r="334" spans="1:1" ht="17.5">
-      <c r="A334" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" ht="17.5">
-      <c r="A353" s="14" t="s">
-        <v>136</v>
+    <row r="333" spans="1:1" ht="17.5">
+      <c r="A333" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="17.5">
+      <c r="A352" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="A359" s="14"/>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="14"/>
@@ -19060,587 +19763,587 @@
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="23.5">
       <c r="A365" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="23.5">
       <c r="A368" s="16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17.5">
       <c r="A373" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="17.5">
       <c r="A389" s="14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="17.5">
       <c r="A401" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="17.5">
       <c r="A403" s="14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="23.5">
       <c r="A450" s="16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="14" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="14" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="23.5">
       <c r="A469" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="23.5">
       <c r="A472" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="14" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="23" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="23.5">
       <c r="A487" s="16" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17.5">
       <c r="A508" s="14" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="14" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="14" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1">
-      <c r="A520" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" ht="23.5">
-      <c r="A521" s="16" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="23.5">
+      <c r="A520" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1">
-      <c r="A536" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1">
-      <c r="A542" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="23.5">
+      <c r="A546" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="546" spans="1:1">
-      <c r="A546" s="23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" ht="23.5">
-      <c r="A547" s="16" t="s">
-        <v>206</v>
+    <row r="549" spans="1:1">
+      <c r="A549" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1">
-      <c r="A551" s="14" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1">
-      <c r="A554" s="14" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1">
-      <c r="A557" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1">
-      <c r="A562" s="14" t="s">
-        <v>219</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="23.5">
       <c r="A572" s="16" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="17.5">
       <c r="A588" s="14" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="14" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="14" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="14" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="14" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="23.5">
       <c r="A625" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="23" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="23.5">
       <c r="A628" s="16" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="17.5">
       <c r="A643" s="14" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="14" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="14" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="14" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="14" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="14" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="14" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="23.5">
       <c r="A677" s="13" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="23.5">
       <c r="A680" s="16" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="14" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="17.5">
       <c r="A694" s="14" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="14" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="14" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="14" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="23" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="23.5">
       <c r="A729" s="16" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="734" spans="1:1" ht="17.5">
       <c r="A734" s="14" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="14" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="751" spans="1:1" ht="17.5">
       <c r="A751" s="14" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="752" spans="1:1" ht="17.5">
       <c r="A752" s="14" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="14" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="14" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="14" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="758" spans="1:1" ht="17.5">
       <c r="A758" s="14" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="14" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="14" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="14" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="764" spans="1:1" ht="17.5">
       <c r="A764" s="14" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="14" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="14" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="14" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="14" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="769" spans="1:1">
@@ -19648,337 +20351,348 @@
     </row>
     <row r="771" spans="1:1" ht="17.5">
       <c r="A771" s="14" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="14" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="14" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="23" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="781" spans="1:1" ht="23.5">
       <c r="A781" s="16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="14" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="14" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="14" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="14" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="14" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="14" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="14" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="23" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="801" spans="1:1" ht="23.5">
       <c r="A801" s="16" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="14" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="14" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="14" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="14" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="14" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="14" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="23" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="833" spans="1:1" ht="23.5">
       <c r="A833" s="16" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="837" spans="1:1" ht="17.5">
       <c r="A837" s="14" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="838" spans="1:1" ht="17.5">
       <c r="A838" s="14" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="14" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="843" spans="1:1" ht="17.5">
       <c r="A843" s="14" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="14" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="14" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="849" spans="1:1">
-      <c r="A849" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A849" s="14"/>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="14" t="s">
-        <v>294</v>
-      </c>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="14"/>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="14" t="s">
-        <v>295</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" s="14" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="871" spans="1:1" ht="17.5">
       <c r="A871" s="14" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" s="14" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="14" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="14" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="14" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" s="14" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="14" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="14" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="885" spans="1:1" ht="23.5">
       <c r="A885" s="13" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887" s="23" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="888" spans="1:1" ht="23.5">
       <c r="A888" s="16" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="14" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893" s="14" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="14" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" s="14" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903" s="23" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="904" spans="1:1" ht="23.5">
       <c r="A904" s="16" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" s="14" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="14" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" s="14" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="14" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" s="14" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="14" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="14" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" s="14" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="14" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="14" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" s="14" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="14" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="936" spans="1:1">

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E01DCF4-6818-4A92-A472-DC1229FAA4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE979B-FB92-41D3-9826-8DEFA285B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="344">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -4443,6 +4443,118 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　ユージング・シーショーギ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　Ｕ＾ＺＩＮＧＵ　　 ＳＩ＾ＳＨＯＧＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＳＡＳＩＴＥ　ＳＥＩＳＥＩ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　 指し手　生成　を書かなくて済むから楽だ～</t>
+    <rPh sb="2" eb="3">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 せっかく　cshogi　使ってるんだから　スクリーンショットぐらい</t>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 貼ってみるかだぜ」</t>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 自玉が　Ｋｉｎｇ、　自軍のその他の駒が　Ｐｉｅｃｅ　なのに対し、</t>
+    <rPh sb="9" eb="11">
+      <t>ジギョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジグン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 敵玉が　Ｌｏｒｄ、　敵軍のその他の駒が　Ｑｕａｆｆｅｒ　とか</t>
+    <rPh sb="9" eb="11">
+      <t>テキギョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コマ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 このＰＲ文書で触れていない　勝手な造語など　いろいろあって</t>
+    <rPh sb="13" eb="15">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾウゴ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ソースコードを読む気には　ならないと思う」</t>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -5467,13 +5579,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>942</xdr:row>
+      <xdr:row>994</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>947</xdr:row>
+      <xdr:row>999</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5517,13 +5629,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>947</xdr:row>
+      <xdr:row>999</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>953</xdr:row>
+      <xdr:row>1005</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5567,13 +5679,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>953</xdr:row>
+      <xdr:row>1005</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>959</xdr:row>
+      <xdr:row>1011</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5617,13 +5729,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>959</xdr:row>
+      <xdr:row>1011</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>966</xdr:row>
+      <xdr:row>1018</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18434,6 +18546,276 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>941</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1085899</xdr:colOff>
+      <xdr:row>946</xdr:row>
+      <xdr:rowOff>38148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="315" name="図 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE58A72-55BB-4D62-89F5-28A869C1D0FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="173278800"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>947</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6775794</xdr:colOff>
+      <xdr:row>979</xdr:row>
+      <xdr:rowOff>25693</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="324" name="グループ化 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CD077A-C37A-06AC-5113-0ACD2978911D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="82550" y="174351950"/>
+          <a:ext cx="6693244" cy="5708943"/>
+          <a:chOff x="101600" y="174605950"/>
+          <a:chExt cx="6693244" cy="5708943"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="319" name="図 318">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B477B6A-4E26-DDB9-24C9-03262E216061}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="101600" y="174605950"/>
+            <a:ext cx="6693244" cy="5708943"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="321" name="直線矢印コネクタ 320">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E476120-3A4E-6426-C1D2-88FCC4F089E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="322" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3594100" y="177974625"/>
+            <a:ext cx="457200" cy="327025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="322" name="テキスト ボックス 321">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A8D050-75E4-8DC0-B22A-9E9D7ECB9DDC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4051300" y="177787300"/>
+            <a:ext cx="1485900" cy="374650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>合法手一覧取得</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>979</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1009699</xdr:colOff>
+      <xdr:row>985</xdr:row>
+      <xdr:rowOff>133408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="325" name="図 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C4EF6D-0DCD-4853-B9D5-BE9F689EC5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="180111400"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18734,10 +19116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A973"/>
+  <dimension ref="A1:A1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A834" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A854" sqref="A854"/>
+    <sheetView tabSelected="1" topLeftCell="A943" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A991" sqref="A991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -20697,61 +21079,111 @@
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="14" t="s">
-        <v>15</v>
+        <v>335</v>
       </c>
     </row>
     <row r="937" spans="1:1" ht="23.5">
       <c r="A937" s="13" t="s">
-        <v>14</v>
+        <v>334</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" s="23" t="s">
-        <v>16</v>
+        <v>336</v>
       </c>
     </row>
     <row r="940" spans="1:1" ht="23.5">
       <c r="A940" s="16" t="s">
-        <v>17</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="14" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" ht="23.5">
+      <c r="A989" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" ht="23.5">
+      <c r="A992" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="946" spans="1:1">
-      <c r="A946" s="14" t="s">
+    <row r="998" spans="1:1">
+      <c r="A998" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="951" spans="1:1">
-      <c r="A951" s="14" t="s">
+    <row r="1003" spans="1:1">
+      <c r="A1003" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="957" spans="1:1">
-      <c r="A957" s="14" t="s">
+    <row r="1009" spans="1:1">
+      <c r="A1009" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="958" spans="1:1">
-      <c r="A958" s="14" t="s">
+    <row r="1010" spans="1:1">
+      <c r="A1010" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="964" spans="1:1">
-      <c r="A964" s="14" t="s">
+    <row r="1016" spans="1:1">
+      <c r="A1016" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="972" spans="1:1" ht="23.5">
-      <c r="A972" s="2" t="s">
+    <row r="1024" spans="1:1" ht="23.5">
+      <c r="A1024" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="973" spans="1:1" ht="23.5">
-      <c r="A973" s="2" t="s">
+    <row r="1025" spans="1:1" ht="23.5">
+      <c r="A1025" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE979B-FB92-41D3-9826-8DEFA285B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC132B-6598-4C60-900C-1B0F5B37305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2830" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1510" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="第３３回世界コンピュータ将棋選手権 きふわらべアピール文書" sheetId="1" r:id="rId1"/>
+    <sheet name="第３４回世界コンピュータ将棋選手権 きふわらべアピール文書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'第３３回世界コンピュータ将棋選手権 きふわらべアピール文書'!$A:$A</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'第３４回世界コンピュータ将棋選手権 きふわらべアピール文書'!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="421">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -201,53 +201,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　　「 あれっ？　じゃあ　選手権に出る前に　いつも作ってる</t>
-    <rPh sb="20" eb="23">
-      <t>センシュケン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 将棋盤の表示のようなものも　要らないのかだぜ？」</t>
-    <rPh sb="11" eb="14">
-      <t>ショウギバン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　「 おみくじに　盤なんて　無いわよ」</t>
-    <rPh sb="17" eb="18">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　　「 よーし、わたしが　やるべきことが　はっきりしてきたな。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　　　 シャッフル・アルゴリズム　を作ることだぜ」</t>
-    <rPh sb="25" eb="26">
-      <t>ツク</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2787,10 +2741,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>２０２４年０５月０８日　高橋智史</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　　　　「 だいたい合計　２５．３メガバイトか」</t>
     <rPh sb="15" eb="17">
       <t>ゴウケイ</t>
@@ -4546,15 +4496,1226 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　 ソースコードを読む気には　ならないと思う」</t>
+    <t>　 キッティングのようなこと</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　ＫＩＴＴＩＮＧＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 難しいんじゃないかと思うんだが」</t>
+    <rPh sb="9" eb="10">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 プログラミングより　キッティング（※）の方が</t>
+    <rPh sb="29" eb="30">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　※さあ始めるぞ、というところまで必要な物一式全て用意すること</t>
+    <rPh sb="17" eb="18">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イッシキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 お父んのソースコードを読む気には　ならないと思う」</t>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　Ｐｙｔｈｏｎ　のセットアップも　ｃｓｈｏｇｉ　のインストールも</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ａｎａｃｏｎｄａ　をインストールして</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 土曜日１日使い潰して　失敗して　結局たどり着いたのが</t>
+    <rPh sb="9" eb="12">
+      <t>ドヨウビ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
     <rPh sb="16" eb="17">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッキョク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 将棋所からその　バッチ・ファイル　を呼ぶことだぜ」</t>
+    <rPh sb="9" eb="11">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>ヨ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 ２５年ぐらい前のコマンド操作の感覚ねえ」</t>
+    <rPh sb="11" eb="12">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 Ｐｙｔｈｏｎは公式からインストールせず、</t>
+    <rPh sb="16" eb="18">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 バッチ・ファイルで　環境変数を設定して　ａｎａｃｏｎｄａにパスを通し、</t>
+    <rPh sb="19" eb="23">
+      <t>カンキョウヘンスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　 ｃｓｈｏｇｉと　ＵＳＩの同じようで 違 うところ</t>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　ＴＩＧＡ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　"落書き"　に使う指し手は　ＵＳＩの符号で保存している。</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>ラクガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 cshogi は move（指し手）を整数で返してくれるから、</t>
+    <rPh sb="23" eb="24">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ポータブルなものではないようなので、</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 と最初は思ったんだが</t>
+    <rPh sb="10" eb="12">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 それをバイナリで保存した方がメモリが小さくて済むじゃないか、</t>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 cshogi の move は現局面の board 変数に依存した整数になっているようで、</t>
+    <rPh sb="24" eb="27">
+      <t>ゲンキョクメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 ＵＳＩの符号を　整数に変換すれば　前述の</t>
+    <rPh sb="13" eb="15">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼンジュツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 Ｐなら　０～１４，２５５</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 Ｋなら　０～　　　６５７</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 Ｐはもっと小さな変域で済むのでは？　という考えも気になって</t>
+    <rPh sb="14" eb="15">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンイキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 手が回ってないのよね」</t>
+    <rPh sb="9" eb="10">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 メモリでも外部記憶でも、ＵＳＩの符号と区切りの半角空白という</t>
+    <rPh sb="14" eb="16">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 の変域で済むから　固定長２バイト型整数で充分な気もするけど、</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンイキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>コテイチョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 およそ６バイトの可変長文字列を使ってるぜ」</t>
+    <rPh sb="17" eb="20">
+      <t>カヘンチョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>２０２４年０５月０９日　高橋智史</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　ＮＡＩＹＯＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　将棋の　内容　は無いよう</t>
+    <rPh sb="1" eb="3">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＫＡＫＵＴＯＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　角頭　を受けずに飛車先を破られて終わり</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ヒシャサキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヤブ</t>
+    </rPh>
     <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 第３４回世界コンピュータ将棋選手権　一次予選１回戦　きふわらべ using cshogi - カツ丼将棋</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>センシュケン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>イチジヨセン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイセン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ドン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショウギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 なんも送らんかった……？」</t>
+    <rPh sb="12" eb="13">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　読み筋や　指し手をサーバーへ送れるの　忘れていて</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 将棋所が　勝手に送ってくれるわけじゃなかったんだな」</t>
+    <rPh sb="9" eb="11">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ドコロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> I'm feeling luckey しか言いませんけどね」</t>
+    </r>
+    <rPh sb="33" eb="34">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 cshogi を使うようになって、選手権に出る前に　いつも作ってた</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>センシュケン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 将棋盤の表示のようなものも　要らなくなって　楽だぜ～」</t>
+    <rPh sb="11" eb="14">
+      <t>ショウギバン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 次の一手を引くだけの　おみくじに　盤なんて　無いわよ」</t>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッテ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 シャッフル・アルゴリズム　を作ることだぜ」</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 少しでも良い　くじ　が引けるように、</t>
+    <rPh sb="11" eb="12">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　ＴＯＵＪＩＴＵ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　１次予選　当日　のきふわらべの様子</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　ノートＰＣ１台で出場</t>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　ＮＯ＾ＴＯ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 AMD Ryzen Threadripper</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 7960X 24 Core 買ったのに</t>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 結局　リモート接続用の</t>
+    <rPh sb="9" eb="11">
+      <t>ケッキョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ノートＰＣで出たのか」</t>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　せっかく</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 Windows は Processor Groups</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 そもそも純粋関数型プログラミング言語　HASKELL が Linux 前提な</t>
+    <rPh sb="13" eb="15">
+      <t>ジュンスイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 Linux ディストリビューションの基本操作を覚えることまで　やったが……」</t>
+    <rPh sb="27" eb="29">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　　　　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　左の白いのが買い足したＰＣで、中身は１番右のデカいやつのお下がり。</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　　そのデカいのが Threadripper 7960Ｘ　＋　GEFORCE RTX 4090。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>https://pc.watch.impress.co.jp/docs/column/hothot/1549610.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>PC Watch &gt; Zen 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に刷新された</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HEDT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>向け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ryzen Threadripper 7980X/7970X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」はいかなる性能か？</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 解説ばっかりだったので　Linux　で準備してたのよ」</t>
+    <rPh sb="9" eb="11">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 組み立ては　昔ゲームサークルで出会った人にやってもらっている。</t>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>デア</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 所得３７０万円程度の４３歳のおっさんにしては　よくやってる方だと思う」</t>
+    <rPh sb="9" eb="11">
+      <t>ショトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　そして　ＳＫＩコンビネーター計算の</t>
+    </r>
+    <rPh sb="26" eb="28">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 良い教科書のようなものが日本語訳されて</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キョウカショ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ニホンゴヤク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 なくて洋書を買って　１０ページぐらい</t>
+    <rPh sb="12" eb="14">
+      <t>ヨウショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 グーグル翻訳して　読んだ所で挫折した。</t>
+    <rPh sb="13" eb="15">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ザセツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 もっぱら　その隣に置いてある　漫画本の</t>
+    <rPh sb="16" eb="17">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>マンガボン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 という制限で１プロセスにつき論理６４コアしか使えないので</t>
+    <rPh sb="12" eb="14">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 これでは将来のスキル的に　スレッドリッパーの全力を出せないので、</t>
+    <rPh sb="13" eb="15">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゼンリョク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 送るほど　ハマってたからな」</t>
+    <rPh sb="9" eb="10">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 週刊少年ジャンプ編集部にファンレターを</t>
+    <rPh sb="9" eb="13">
+      <t>シュウカンショウネン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヘンシュウブ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 ３月３０日ぐらいに</t>
+    <rPh sb="10" eb="11">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 諦めを付けて、</t>
+    <rPh sb="9" eb="10">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 関数型プログラミング言語の習得に</t>
+    <rPh sb="9" eb="12">
+      <t>カンスウガタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 電竜戦のワン・ファイル・マッチでも</t>
+    <rPh sb="9" eb="12">
+      <t>デンリュウセン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 切り替えたのよ」</t>
+    <rPh sb="9" eb="10">
       <t>キ</t>
     </rPh>
-    <rPh sb="27" eb="28">
-      <t>オモ</t>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 使用経験のあった　Python の cshogi に</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイケン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 魔々勇々（ままゆうゆう）　を読んでた」</t>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 だから　以下のＰＲ文章の内容は、</t>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ＰＣを１台買い足し、知人に Ubuntu をインストールしてもらって</t>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チジン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 わたしの手先の不器用さでは　静電気でＰＣを破壊してしまうので</t>
+    <rPh sb="13" eb="15">
+      <t>テサキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>セイデンキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 たった１か月の間のできごとだぜ」</t>
+    <rPh sb="14" eb="15">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アイダ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -4566,7 +5727,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$￥-411]#,##0;[Red]&quot;-&quot;[$￥-411]#,##0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4768,6 +5929,33 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Liberation Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="たぬき油性マジック"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4798,7 +5986,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4814,8 +6002,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4888,12 +6079,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Result" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4929,13 +6127,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3390900</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6477159</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>31907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5129,13 +6327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952549</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>127048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5179,13 +6377,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>908093</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5229,13 +6427,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1041449</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5329,13 +6527,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3352800</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4305349</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5379,13 +6577,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009699</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>12748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5429,13 +6627,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>388</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5479,13 +6677,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>114358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5529,13 +6727,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>412</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5578,15 +6776,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>994</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1319</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>999</xdr:row>
-      <xdr:rowOff>38148</xdr:rowOff>
+      <xdr:colOff>1085899</xdr:colOff>
+      <xdr:row>1324</xdr:row>
+      <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5615,7 +6813,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="49301400"/>
+          <a:off x="133350" y="214814150"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5628,15 +6826,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>999</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>1325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>1005</xdr:row>
-      <xdr:rowOff>38149</xdr:rowOff>
+      <xdr:colOff>1022393</xdr:colOff>
+      <xdr:row>1330</xdr:row>
+      <xdr:rowOff>63549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5665,7 +6863,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="165100" y="50342800"/>
+          <a:off x="184150" y="215785700"/>
           <a:ext cx="838243" cy="952549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5679,14 +6877,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1005</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>1330</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1123999</xdr:colOff>
-      <xdr:row>1011</xdr:row>
-      <xdr:rowOff>6398</xdr:rowOff>
+      <xdr:row>1335</xdr:row>
+      <xdr:rowOff>146098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5715,7 +6913,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="51403250"/>
+          <a:off x="171450" y="216782650"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5728,15 +6926,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>1011</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1335</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>1018</xdr:row>
-      <xdr:rowOff>19108</xdr:rowOff>
+      <xdr:colOff>1143049</xdr:colOff>
+      <xdr:row>1342</xdr:row>
+      <xdr:rowOff>44508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5765,7 +6963,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="158750" y="52463700"/>
+          <a:off x="190500" y="217728800"/>
           <a:ext cx="952549" cy="1124008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5779,13 +6977,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4826000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5651500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5864,13 +7062,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4362450</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4826000</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5923,13 +7121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4000500</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4362450</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5989,13 +7187,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4013200</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4337050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6055,13 +7253,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3219609</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>120807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6105,13 +7303,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1682750</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6190,13 +7388,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4337050</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4826000</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6249,13 +7447,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6315,13 +7513,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2000250</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2362200</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6381,13 +7579,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1682750</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2000250</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6440,13 +7638,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1682750</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2019300</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6499,13 +7697,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4279949</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6549,13 +7747,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2025650</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6684,13 +7882,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079549</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>95298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6734,13 +7932,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1016049</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>217</xdr:row>
       <xdr:rowOff>88948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6784,13 +7982,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>210</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5168900</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6869,13 +8067,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3670300</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6756559</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>44607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6919,13 +8117,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4546600</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5372100</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7004,13 +8202,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5372100</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5848350</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7063,13 +8261,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5848350</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6210300</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7129,13 +8327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5854700</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6178550</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>225</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7195,13 +8393,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5372100</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5854700</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7254,13 +8452,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>19099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7304,13 +8502,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5118100</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7389,13 +8587,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990649</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>171498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7439,13 +8637,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>901743</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>82599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7489,13 +8687,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7539,13 +8737,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3156109</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>114457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7589,13 +8787,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1612900</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7674,13 +8872,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1949450</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2273300</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7740,13 +8938,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2292350</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7806,13 +9004,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1612900</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7865,13 +9063,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1612900</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1949450</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7924,13 +9122,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3365500</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>267</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4318049</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7974,13 +9172,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3460750</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4298993</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>158799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8024,13 +9222,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>996999</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8074,13 +9272,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>44508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8124,13 +9322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971593</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>88949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8174,13 +9372,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3721100</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4025916</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>184166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8224,13 +9422,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3740150</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5931013</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>69866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8274,13 +9472,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8324,13 +9522,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4381549</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8374,13 +9572,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>57198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8424,13 +9622,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3314700</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4267249</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>63548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8474,13 +9672,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>382</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952549</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>387</xdr:row>
       <xdr:rowOff>101648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8524,13 +9722,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>394</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009699</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>107998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8574,13 +9772,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8656,13 +9854,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>424</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>426</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8738,13 +9936,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>430</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8820,13 +10018,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4756150</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8902,13 +10100,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>958899</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>438</xdr:row>
       <xdr:rowOff>139758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8952,13 +10150,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>445</xdr:row>
       <xdr:rowOff>82598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9002,13 +10200,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1860550</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>447</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>449</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9084,13 +10282,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1854200</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>453</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9188,13 +10386,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>452</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>352</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>139749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9238,13 +10436,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>458</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>358</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>114348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9288,13 +10486,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>474</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3206909</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>491</xdr:row>
       <xdr:rowOff>70007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9338,13 +10536,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3340100</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>474</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4292649</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>479</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9388,13 +10586,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3663950</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>484</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6750209</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>501</xdr:row>
       <xdr:rowOff>120807</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9410,7 +10608,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3663950" y="70326250"/>
+          <a:off x="3663950" y="89414350"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3702050" y="70504050"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -9704,13 +10902,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>387</xdr:row>
+      <xdr:row>492</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>139748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9754,13 +10952,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4279949</xdr:colOff>
-      <xdr:row>403</xdr:row>
+      <xdr:row>508</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9804,13 +11002,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>501</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3251359</xdr:colOff>
-      <xdr:row>413</xdr:row>
+      <xdr:row>518</xdr:row>
       <xdr:rowOff>12857</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -9826,7 +11024,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="165100" y="73329800"/>
+          <a:off x="165100" y="92417900"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="165100" y="73240900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -10120,13 +11318,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4279949</xdr:colOff>
-      <xdr:row>410</xdr:row>
+      <xdr:row>515</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10170,13 +11368,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990643</xdr:colOff>
-      <xdr:row>421</xdr:row>
+      <xdr:row>526</xdr:row>
       <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10220,13 +11418,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10270,13 +11468,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079549</xdr:colOff>
-      <xdr:row>434</xdr:row>
+      <xdr:row>539</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10320,13 +11518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>434</xdr:row>
+      <xdr:row>539</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990643</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>544</xdr:row>
       <xdr:rowOff>107999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10370,13 +11568,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>545</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>445</xdr:row>
+      <xdr:row>550</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10420,13 +11618,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>451</xdr:row>
+      <xdr:row>556</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079549</xdr:colOff>
-      <xdr:row>456</xdr:row>
+      <xdr:row>561</xdr:row>
       <xdr:rowOff>171498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10470,13 +11668,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:row>563</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022393</xdr:colOff>
-      <xdr:row>464</xdr:row>
+      <xdr:row>569</xdr:row>
       <xdr:rowOff>25449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10520,13 +11718,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>473</xdr:row>
+      <xdr:row>578</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022399</xdr:colOff>
-      <xdr:row>478</xdr:row>
+      <xdr:row>583</xdr:row>
       <xdr:rowOff>82598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10570,13 +11768,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>479</xdr:row>
+      <xdr:row>584</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952543</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:row>589</xdr:row>
       <xdr:rowOff>69899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10620,13 +11818,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1555750</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>594</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10702,13 +11900,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3600450</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>594</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4425950</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10777,13 +11975,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5765800</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>594</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6591300</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10849,13 +12047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5778500</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>598</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6604000</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>600</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10924,13 +12122,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3594100</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>598</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4419600</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>600</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10999,13 +12197,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1568450</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>598</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2393950</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>600</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11081,13 +12279,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>498</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2387600</xdr:colOff>
-      <xdr:row>500</xdr:row>
+      <xdr:row>605</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11163,13 +12361,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1555750</xdr:colOff>
-      <xdr:row>502</xdr:row>
+      <xdr:row>607</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>609</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11245,13 +12443,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1739900</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>494</xdr:row>
+      <xdr:row>599</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11312,13 +12510,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1746250</xdr:colOff>
-      <xdr:row>500</xdr:row>
+      <xdr:row>605</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2235200</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:row>608</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11379,13 +12577,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3771900</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4260850</xdr:colOff>
-      <xdr:row>494</xdr:row>
+      <xdr:row>599</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11446,13 +12644,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6032500</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6521450</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>598</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11513,13 +12711,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1822450</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:row>600</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2311400</xdr:colOff>
-      <xdr:row>498</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11580,13 +12778,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>609</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1066849</xdr:colOff>
-      <xdr:row>509</xdr:row>
+      <xdr:row>614</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11630,13 +12828,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1149399</xdr:colOff>
-      <xdr:row>535</xdr:row>
+      <xdr:row>640</xdr:row>
       <xdr:rowOff>127048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11680,13 +12878,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>536</xdr:row>
+      <xdr:row>641</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1181149</xdr:colOff>
-      <xdr:row>542</xdr:row>
+      <xdr:row>647</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11730,13 +12928,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>547</xdr:row>
+      <xdr:row>652</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1098599</xdr:colOff>
-      <xdr:row>552</xdr:row>
+      <xdr:row>657</xdr:row>
       <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11780,13 +12978,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>616</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>977943</xdr:colOff>
-      <xdr:row>516</xdr:row>
+      <xdr:row>621</xdr:row>
       <xdr:rowOff>69899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11830,13 +13028,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1631950</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:row>626</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>629</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11912,13 +13110,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1606550</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>631</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2432050</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>633</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11994,13 +13192,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>629</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2317750</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>631</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12061,13 +13259,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3486150</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:row>626</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4114800</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>629</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12136,13 +13334,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3479800</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>630</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108450</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>632</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12211,13 +13409,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3479800</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>633</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108450</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12286,13 +13484,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4292600</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:row>626</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4921250</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>629</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12361,13 +13559,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4311650</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>633</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4940300</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12436,13 +13634,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5111750</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:row>626</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5740400</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>629</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12511,13 +13709,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5124450</xdr:colOff>
-      <xdr:row>525</xdr:row>
+      <xdr:row>630</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5753100</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>632</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12586,13 +13784,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5137150</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>633</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5765800</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12661,13 +13859,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>555</xdr:row>
+      <xdr:row>660</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1130349</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>666</xdr:row>
       <xdr:rowOff>57208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12711,13 +13909,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>666</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1073193</xdr:colOff>
-      <xdr:row>566</xdr:row>
+      <xdr:row>671</xdr:row>
       <xdr:rowOff>152449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12761,13 +13959,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2762250</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3251200</xdr:colOff>
-      <xdr:row>494</xdr:row>
+      <xdr:row>599</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12832,13 +14030,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4832350</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>596</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5321300</xdr:colOff>
-      <xdr:row>494</xdr:row>
+      <xdr:row>599</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12903,13 +14101,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2717800</xdr:colOff>
-      <xdr:row>523</xdr:row>
+      <xdr:row>628</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3206750</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>631</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12974,7 +14172,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>574</xdr:row>
+      <xdr:row>679</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1752600" cy="2451100"/>
@@ -13570,13 +14768,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1936750</xdr:colOff>
-      <xdr:row>573</xdr:row>
+      <xdr:row>678</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4057650</xdr:colOff>
-      <xdr:row>575</xdr:row>
+      <xdr:row>680</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13636,13 +14834,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>584</xdr:row>
+      <xdr:row>689</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1130349</xdr:colOff>
-      <xdr:row>589</xdr:row>
+      <xdr:row>694</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13686,7 +14884,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>576</xdr:row>
+      <xdr:row>681</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800219" cy="359073"/>
@@ -13747,7 +14945,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4165600</xdr:colOff>
-      <xdr:row>582</xdr:row>
+      <xdr:row>687</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800219" cy="359073"/>
@@ -13812,7 +15010,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4146550</xdr:colOff>
-      <xdr:row>573</xdr:row>
+      <xdr:row>678</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1383327" cy="359073"/>
@@ -13873,13 +15071,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>589</xdr:row>
+      <xdr:row>694</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092249</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>700</xdr:row>
       <xdr:rowOff>139758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13923,13 +15121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>596</xdr:row>
+      <xdr:row>701</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>601</xdr:row>
+      <xdr:row>706</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13973,13 +15171,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3663950</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6750209</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>63657</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13995,7 +15193,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3663950" y="34194750"/>
+          <a:off x="3663950" y="53282850"/>
           <a:ext cx="3086259" cy="2959257"/>
           <a:chOff x="3663950" y="34194750"/>
           <a:chExt cx="3086259" cy="2959257"/>
@@ -14125,13 +15323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>630</xdr:row>
+      <xdr:row>735</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1111299</xdr:colOff>
-      <xdr:row>635</xdr:row>
+      <xdr:row>740</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14175,13 +15373,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2136774</xdr:colOff>
-      <xdr:row>634</xdr:row>
+      <xdr:row>739</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3965575</xdr:colOff>
-      <xdr:row>640</xdr:row>
+      <xdr:row>745</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -14197,7 +15395,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2136774" y="116954300"/>
+          <a:off x="2136774" y="136042400"/>
           <a:ext cx="1828801" cy="996950"/>
           <a:chOff x="2136774" y="117030500"/>
           <a:chExt cx="1828801" cy="996950"/>
@@ -14438,13 +15636,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>639</xdr:row>
+      <xdr:row>744</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1098599</xdr:colOff>
-      <xdr:row>644</xdr:row>
+      <xdr:row>749</xdr:row>
       <xdr:rowOff>25448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14488,13 +15686,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>644</xdr:row>
+      <xdr:row>749</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092249</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>755</xdr:row>
       <xdr:rowOff>95308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14538,13 +15736,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>755</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1041443</xdr:colOff>
-      <xdr:row>656</xdr:row>
+      <xdr:row>761</xdr:row>
       <xdr:rowOff>25449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14588,13 +15786,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>656</xdr:row>
+      <xdr:row>761</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1162099</xdr:colOff>
-      <xdr:row>661</xdr:row>
+      <xdr:row>766</xdr:row>
       <xdr:rowOff>95298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14638,13 +15836,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>661</xdr:row>
+      <xdr:row>766</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1136699</xdr:colOff>
-      <xdr:row>668</xdr:row>
+      <xdr:row>773</xdr:row>
       <xdr:rowOff>31808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14688,13 +15886,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>668</xdr:row>
+      <xdr:row>773</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1143049</xdr:colOff>
-      <xdr:row>673</xdr:row>
+      <xdr:row>778</xdr:row>
       <xdr:rowOff>101648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14738,13 +15936,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>681</xdr:row>
+      <xdr:row>786</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1085899</xdr:colOff>
-      <xdr:row>686</xdr:row>
+      <xdr:row>791</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14788,13 +15986,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2279650</xdr:colOff>
-      <xdr:row>685</xdr:row>
+      <xdr:row>790</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108451</xdr:colOff>
-      <xdr:row>691</xdr:row>
+      <xdr:row>796</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -14810,7 +16008,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2279650" y="126276100"/>
+          <a:off x="2279650" y="145364200"/>
           <a:ext cx="1828801" cy="996950"/>
           <a:chOff x="2136774" y="117030500"/>
           <a:chExt cx="1828801" cy="996950"/>
@@ -15051,13 +16249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>689</xdr:row>
+      <xdr:row>794</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1117649</xdr:colOff>
-      <xdr:row>694</xdr:row>
+      <xdr:row>799</xdr:row>
       <xdr:rowOff>165148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15101,13 +16299,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>695</xdr:row>
+      <xdr:row>800</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1098599</xdr:colOff>
-      <xdr:row>701</xdr:row>
+      <xdr:row>806</xdr:row>
       <xdr:rowOff>101658</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15151,13 +16349,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>701</xdr:row>
+      <xdr:row>806</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1066843</xdr:colOff>
-      <xdr:row>707</xdr:row>
+      <xdr:row>812</xdr:row>
       <xdr:rowOff>57199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15201,13 +16399,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>731</xdr:row>
+      <xdr:row>836</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>736</xdr:row>
+      <xdr:row>841</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15251,13 +16449,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3632200</xdr:colOff>
-      <xdr:row>731</xdr:row>
+      <xdr:row>836</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6718459</xdr:colOff>
-      <xdr:row>747</xdr:row>
+      <xdr:row>852</xdr:row>
       <xdr:rowOff>165257</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15273,7 +16471,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3632200" y="134537450"/>
+          <a:off x="3632200" y="153625550"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="165100" y="73240900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -15567,13 +16765,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>747</xdr:row>
+      <xdr:row>852</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3232309</xdr:colOff>
-      <xdr:row>763</xdr:row>
+      <xdr:row>868</xdr:row>
       <xdr:rowOff>120807</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15589,7 +16787,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="146050" y="137471150"/>
+          <a:off x="146050" y="156559250"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="273050" y="137096500"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -15842,13 +17040,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3365500</xdr:colOff>
-      <xdr:row>748</xdr:row>
+      <xdr:row>853</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4318049</xdr:colOff>
-      <xdr:row>753</xdr:row>
+      <xdr:row>858</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15892,13 +17090,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3390900</xdr:colOff>
-      <xdr:row>753</xdr:row>
+      <xdr:row>858</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4343449</xdr:colOff>
-      <xdr:row>759</xdr:row>
+      <xdr:row>864</xdr:row>
       <xdr:rowOff>63558</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15942,13 +17140,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>765</xdr:row>
+      <xdr:row>870</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>946193</xdr:colOff>
-      <xdr:row>770</xdr:row>
+      <xdr:row>875</xdr:row>
       <xdr:rowOff>171499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15992,13 +17190,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3416300</xdr:colOff>
-      <xdr:row>760</xdr:row>
+      <xdr:row>865</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4368849</xdr:colOff>
-      <xdr:row>765</xdr:row>
+      <xdr:row>870</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16042,13 +17240,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>772</xdr:row>
+      <xdr:row>877</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022399</xdr:colOff>
-      <xdr:row>777</xdr:row>
+      <xdr:row>882</xdr:row>
       <xdr:rowOff>57198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16092,13 +17290,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>782</xdr:row>
+      <xdr:row>887</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>787</xdr:row>
+      <xdr:row>892</xdr:row>
       <xdr:rowOff>95298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16142,13 +17340,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>788</xdr:row>
+      <xdr:row>893</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>977949</xdr:colOff>
-      <xdr:row>795</xdr:row>
+      <xdr:row>900</xdr:row>
       <xdr:rowOff>50858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16192,13 +17390,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>802</xdr:row>
+      <xdr:row>907</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>807</xdr:row>
+      <xdr:row>912</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16242,13 +17440,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>807</xdr:row>
+      <xdr:row>912</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>814</xdr:row>
+      <xdr:row>919</xdr:row>
       <xdr:rowOff>31808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16292,13 +17490,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>814</xdr:row>
+      <xdr:row>919</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>965243</xdr:colOff>
-      <xdr:row>819</xdr:row>
+      <xdr:row>924</xdr:row>
       <xdr:rowOff>165149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16342,13 +17540,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>820</xdr:row>
+      <xdr:row>925</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1066849</xdr:colOff>
-      <xdr:row>825</xdr:row>
+      <xdr:row>930</xdr:row>
       <xdr:rowOff>120698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16392,13 +17590,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>833</xdr:row>
+      <xdr:row>938</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6642197</xdr:colOff>
-      <xdr:row>841</xdr:row>
+      <xdr:row>946</xdr:row>
       <xdr:rowOff>69924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16447,13 +17645,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>843</xdr:row>
+      <xdr:row>948</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6635847</xdr:colOff>
-      <xdr:row>851</xdr:row>
+      <xdr:row>956</xdr:row>
       <xdr:rowOff>133424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16502,13 +17700,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5689649</xdr:colOff>
-      <xdr:row>841</xdr:row>
+      <xdr:row>946</xdr:row>
       <xdr:rowOff>69924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5695999</xdr:colOff>
-      <xdr:row>843</xdr:row>
+      <xdr:row>948</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16562,13 +17760,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5378450</xdr:colOff>
-      <xdr:row>838</xdr:row>
+      <xdr:row>943</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5683250</xdr:colOff>
-      <xdr:row>838</xdr:row>
+      <xdr:row>943</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16619,13 +17817,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5251450</xdr:colOff>
-      <xdr:row>849</xdr:row>
+      <xdr:row>954</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5499100</xdr:colOff>
-      <xdr:row>849</xdr:row>
+      <xdr:row>954</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -16676,13 +17874,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>834</xdr:row>
+      <xdr:row>939</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>838</xdr:row>
+      <xdr:row>943</xdr:row>
       <xdr:rowOff>146098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16726,13 +17924,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>839</xdr:row>
+      <xdr:row>944</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>958893</xdr:colOff>
-      <xdr:row>844</xdr:row>
+      <xdr:row>949</xdr:row>
       <xdr:rowOff>88949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16776,13 +17974,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>844</xdr:row>
+      <xdr:row>949</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022399</xdr:colOff>
-      <xdr:row>850</xdr:row>
+      <xdr:row>955</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16826,13 +18024,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>865</xdr:row>
+      <xdr:row>970</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>873</xdr:row>
+      <xdr:row>978</xdr:row>
       <xdr:rowOff>69924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16881,13 +18079,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>855</xdr:row>
+      <xdr:row>960</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>863</xdr:row>
+      <xdr:row>968</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16936,13 +18134,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2559050</xdr:colOff>
-      <xdr:row>855</xdr:row>
+      <xdr:row>960</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4451447</xdr:colOff>
-      <xdr:row>863</xdr:row>
+      <xdr:row>968</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16991,13 +18189,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>859</xdr:row>
+      <xdr:row>964</xdr:row>
       <xdr:rowOff>15912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2559050</xdr:colOff>
-      <xdr:row>859</xdr:row>
+      <xdr:row>964</xdr:row>
       <xdr:rowOff>15912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17051,13 +18249,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1162099</xdr:colOff>
-      <xdr:row>863</xdr:row>
+      <xdr:row>968</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1162099</xdr:colOff>
-      <xdr:row>865</xdr:row>
+      <xdr:row>970</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17111,13 +18309,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>863</xdr:row>
+      <xdr:row>968</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3505249</xdr:colOff>
-      <xdr:row>869</xdr:row>
+      <xdr:row>974</xdr:row>
       <xdr:rowOff>104812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17171,13 +18369,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2990850</xdr:colOff>
-      <xdr:row>866</xdr:row>
+      <xdr:row>971</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3943399</xdr:colOff>
-      <xdr:row>872</xdr:row>
+      <xdr:row>977</xdr:row>
       <xdr:rowOff>127058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17221,13 +18419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3111500</xdr:colOff>
-      <xdr:row>860</xdr:row>
+      <xdr:row>965</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3308350</xdr:colOff>
-      <xdr:row>862</xdr:row>
+      <xdr:row>967</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17278,13 +18476,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>869950</xdr:colOff>
-      <xdr:row>860</xdr:row>
+      <xdr:row>965</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>860</xdr:row>
+      <xdr:row>965</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17335,13 +18533,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>870</xdr:row>
+      <xdr:row>975</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>871</xdr:row>
+      <xdr:row>976</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17392,13 +18590,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3022600</xdr:colOff>
-      <xdr:row>873</xdr:row>
+      <xdr:row>978</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3975149</xdr:colOff>
-      <xdr:row>878</xdr:row>
+      <xdr:row>983</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17442,13 +18640,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>876</xdr:row>
+      <xdr:row>981</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054149</xdr:colOff>
-      <xdr:row>881</xdr:row>
+      <xdr:row>986</xdr:row>
       <xdr:rowOff>158798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17492,13 +18690,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>889</xdr:row>
+      <xdr:row>994</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>933493</xdr:colOff>
-      <xdr:row>894</xdr:row>
+      <xdr:row>999</xdr:row>
       <xdr:rowOff>120699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17542,13 +18740,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>894</xdr:row>
+      <xdr:row>999</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054149</xdr:colOff>
-      <xdr:row>900</xdr:row>
+      <xdr:row>1005</xdr:row>
       <xdr:rowOff>19098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17592,13 +18790,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>904</xdr:row>
+      <xdr:row>1009</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990649</xdr:colOff>
-      <xdr:row>911</xdr:row>
+      <xdr:row>1016</xdr:row>
       <xdr:rowOff>31808</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17642,13 +18840,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>911</xdr:row>
+      <xdr:row>1016</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>996999</xdr:colOff>
-      <xdr:row>916</xdr:row>
+      <xdr:row>1021</xdr:row>
       <xdr:rowOff>107998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17692,13 +18890,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>916</xdr:row>
+      <xdr:row>1021</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>977949</xdr:colOff>
-      <xdr:row>923</xdr:row>
+      <xdr:row>1028</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17742,13 +18940,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>923</xdr:row>
+      <xdr:row>1028</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>977949</xdr:colOff>
-      <xdr:row>928</xdr:row>
+      <xdr:row>1033</xdr:row>
       <xdr:rowOff>63548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17792,13 +18990,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>928</xdr:row>
+      <xdr:row>1033</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>933</xdr:row>
+      <xdr:row>1038</xdr:row>
       <xdr:rowOff>158799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17842,13 +19040,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3517900</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4356143</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>171499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17892,13 +19090,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3219609</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>348</xdr:row>
       <xdr:rowOff>50957</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -17914,7 +19112,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133350" y="42335450"/>
+          <a:off x="133350" y="61423550"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="133350" y="42335450"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -18044,13 +19242,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3676650</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6762909</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>50957</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -18066,7 +19264,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3676650" y="44513500"/>
+          <a:off x="3676650" y="63601600"/>
           <a:ext cx="3086259" cy="3092607"/>
           <a:chOff x="3619500" y="44684950"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -18196,13 +19394,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>249</xdr:row>
+      <xdr:row>354</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>360</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18246,13 +19444,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3232309</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>82707</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -18268,7 +19466,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="146050" y="48190150"/>
+          <a:off x="146050" y="67278250"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="146050" y="48190150"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -18398,13 +19596,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3606800</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6693059</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>70007</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -18420,7 +19618,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3606800" y="49999900"/>
+          <a:off x="3606800" y="69088000"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3606800" y="49999900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -18550,13 +19748,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>941</xdr:row>
+      <xdr:row>1046</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1085899</xdr:colOff>
-      <xdr:row>946</xdr:row>
+      <xdr:row>1051</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18599,22 +19797,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>947</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>1051</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6775794</xdr:colOff>
-      <xdr:row>979</xdr:row>
-      <xdr:rowOff>25693</xdr:rowOff>
+      <xdr:colOff>6782144</xdr:colOff>
+      <xdr:row>1083</xdr:row>
+      <xdr:rowOff>171743</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="324" name="グループ化 323">
+        <xdr:cNvPr id="333" name="グループ化 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41CD077A-C37A-06AC-5113-0ACD2978911D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E31668-6F9F-DC51-5B01-1D39BECB17A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18622,18 +19820,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="82550" y="174351950"/>
+          <a:off x="88900" y="193408300"/>
           <a:ext cx="6693244" cy="5708943"/>
-          <a:chOff x="101600" y="174605950"/>
+          <a:chOff x="101600" y="174320200"/>
           <a:chExt cx="6693244" cy="5708943"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="319" name="図 318">
+          <xdr:cNvPr id="332" name="図 331">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B477B6A-4E26-DDB9-24C9-03262E216061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7DE241-BACC-A044-541F-3420899BC71A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18655,7 +19853,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="101600" y="174605950"/>
+            <a:off x="101600" y="174320200"/>
             <a:ext cx="6693244" cy="5708943"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -18678,7 +19876,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="3594100" y="177974625"/>
+            <a:off x="3575050" y="177720625"/>
             <a:ext cx="457200" cy="327025"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -18719,7 +19917,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4051300" y="177787300"/>
+            <a:off x="4032250" y="177533300"/>
             <a:ext cx="1485900" cy="374650"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -18770,13 +19968,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>979</xdr:row>
+      <xdr:row>1084</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009699</xdr:colOff>
-      <xdr:row>985</xdr:row>
+      <xdr:row>1090</xdr:row>
       <xdr:rowOff>133408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18807,6 +20005,1274 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="57150" y="180111400"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>1094</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>984299</xdr:colOff>
+      <xdr:row>1099</xdr:row>
+      <xdr:rowOff>146098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="326" name="図 325">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794FA35D-A862-4B8D-9AC3-049F9850B8CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31750" y="182041800"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1112</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952549</xdr:colOff>
+      <xdr:row>1117</xdr:row>
+      <xdr:rowOff>76248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="329" name="図 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3619F0-E0F9-4D48-91E8-85A43147EDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="185216800"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1121</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>882693</xdr:colOff>
+      <xdr:row>1127</xdr:row>
+      <xdr:rowOff>6399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="330" name="図 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D713AE2-FB18-4AFD-A0AC-8560964ADEAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44450" y="186899550"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>1101</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6636023</xdr:colOff>
+      <xdr:row>1113</xdr:row>
+      <xdr:rowOff>158864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="335" name="図 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FEF74B-C6B0-1683-2D3A-0AF43116DC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="183261000"/>
+          <a:ext cx="5315223" cy="2209914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>1148</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5499100</xdr:colOff>
+      <xdr:row>1170</xdr:row>
+      <xdr:rowOff>40699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="337" name="図 336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD21894-CF36-D2BC-EB51-156AF1BF1FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1193800" y="191795400"/>
+          <a:ext cx="4305300" cy="3857049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1169</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990649</xdr:colOff>
+      <xdr:row>1173</xdr:row>
+      <xdr:rowOff>203248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="338" name="図 337">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51A68B8-0A32-41C1-88EB-B5D035138482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="195465700"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1182</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>965243</xdr:colOff>
+      <xdr:row>1187</xdr:row>
+      <xdr:rowOff>127049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="339" name="図 338">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814E0429-1DBC-4ED5-838F-A7030F672F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="197808850"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1203</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6661480</xdr:colOff>
+      <xdr:row>1226</xdr:row>
+      <xdr:rowOff>165315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="341" name="図 340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9CBA33-2D21-61D3-C113-A4D9DD599D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="201961750"/>
+          <a:ext cx="6413830" cy="4191215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1230</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1009699</xdr:colOff>
+      <xdr:row>1235</xdr:row>
+      <xdr:rowOff>63548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="342" name="図 341">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1EF89C-48AD-42BF-9459-88D41B54682A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="206768700"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1235</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1016049</xdr:colOff>
+      <xdr:row>1241</xdr:row>
+      <xdr:rowOff>120708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="343" name="図 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFB26CD-1649-41AB-8807-3CE8151237F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63500" y="207740250"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>1250</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6693233</xdr:colOff>
+      <xdr:row>1259</xdr:row>
+      <xdr:rowOff>171538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="345" name="図 344">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B00C8B-3DB8-6F6F-EE00-B2BD9DD09FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="222250" y="210400900"/>
+          <a:ext cx="6470983" cy="1714588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>1260</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>920793</xdr:colOff>
+      <xdr:row>1266</xdr:row>
+      <xdr:rowOff>12749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="346" name="図 345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897BFF5D-64CC-46DA-9954-B62ACBCC02EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="212293200"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6781800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="348" name="図 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7043C6-E23D-90B4-0F7D-2E232397343E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="215138000"/>
+          <a:ext cx="6680200" cy="3757613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3162300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4076700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="矢印: 右 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{672DC92F-AFF8-B942-A993-3EF47D9E5F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19576762">
+          <a:off x="3162300" y="13525500"/>
+          <a:ext cx="914400" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952549</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>69908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="350" name="図 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7DC8A6-7C61-4600-BFB4-2810ACE3B857}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14859000"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952549</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>82598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="351" name="図 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8E98D6-58CF-40FB-A471-2A2A5A3245D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16090900"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3848100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6762072</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="353" name="図 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5856BDFE-2BD6-121B-5BF1-7C5A23C4BF5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="14846300"/>
+          <a:ext cx="2913972" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>914443</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="354" name="図 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D9CE7C-B9F0-444A-B7F2-669A25545263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="17329150"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1339850</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6781800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>82947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="356" name="図 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D54562A-D32C-FC68-EAF1-C23894AD13ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1339850" y="19335750"/>
+          <a:ext cx="5441950" cy="3061097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>965249</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>63548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="357" name="図 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB274BA4-C35F-4B89-BC79-4498915A441C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12700" y="22783800"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4495801</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6791942</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="359" name="図 358">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E30959-8E0F-1BE8-7050-7A1BAC07069C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495801" y="23977600"/>
+          <a:ext cx="2296141" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1003349</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>25448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="360" name="図 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396137E4-DB7A-4F3D-8834-70EDBD2283A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="23856950"/>
+          <a:ext cx="952549" cy="927148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1003349</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>12758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="361" name="図 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E0E623-E2F6-4E8B-86C9-82174B279689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="24892000"/>
+          <a:ext cx="952549" cy="1124008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>965243</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>146099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="362" name="図 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161AE521-9567-4591-ABF0-09B9B7451941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="26085800"/>
+          <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1028749</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>19108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="363" name="図 362">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825B3A9C-F2E3-4356-9BF1-84615EC2C1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="27209750"/>
           <a:ext cx="952549" cy="1124008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19116,10 +21582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A1025"/>
+  <dimension ref="A1:A1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A943" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A991" sqref="A991"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -19144,7 +21610,7 @@
     </row>
     <row r="4" spans="1:1" ht="23.5">
       <c r="A4" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -19152,7 +21618,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>210</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -19160,12 +21626,12 @@
     </row>
     <row r="8" spans="1:1" s="5" customFormat="1">
       <c r="A8" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="4" customFormat="1" ht="23.5">
       <c r="A9" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -19173,12 +21639,12 @@
     </row>
     <row r="11" spans="1:1" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="15" customFormat="1" ht="23.5">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -19194,12 +21660,12 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -19217,12 +21683,12 @@
     </row>
     <row r="24" spans="1:1" s="15" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -19243,12 +21709,12 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -19261,22 +21727,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -19314,1884 +21780,2281 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1"/>
+        <v>383</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" s="4" customFormat="1" ht="23.5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="23.5">
       <c r="A54" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" ht="17.5">
-      <c r="A60" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" ht="17.5">
-      <c r="A78" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="17.5">
       <c r="A79" s="14" t="s">
-        <v>49</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>50</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1"/>
+      <c r="A81" s="14" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>51</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="14" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>59</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>54</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>55</v>
+        <v>407</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1"/>
+      <c r="A90" s="14" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="17.5">
-      <c r="A98" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="23.5">
-      <c r="A103" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" ht="17.5">
-      <c r="A111" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" ht="17.5">
-      <c r="A119" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="14" t="s">
-        <v>67</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="17.5">
+      <c r="A121" s="14" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="17.5">
+      <c r="A122" s="14" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>68</v>
+        <v>419</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>69</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="17.5">
       <c r="A130" s="14" t="s">
-        <v>72</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>73</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="1"/>
+      <c r="A132" s="14" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="1"/>
+      <c r="A133" s="14" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="1"/>
+      <c r="A134" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" ht="17.5">
+      <c r="A135" s="14" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
       <c r="A138" s="14" t="s">
-        <v>74</v>
+        <v>409</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1"/>
+      <c r="A139" s="14" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="1"/>
+      <c r="A142" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="14" t="s">
-        <v>75</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="1"/>
+      <c r="A144" s="14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="1"/>
+      <c r="A145" s="14" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="1"/>
+      <c r="A146" s="14" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="14" t="s">
-        <v>76</v>
+      <c r="A147" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="1"/>
+      <c r="A150" s="14" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="1"/>
+      <c r="A151" s="14" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="8"/>
+      <c r="A152" s="14"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="8"/>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="8"/>
+      <c r="A155" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="23.5">
+      <c r="A156" s="13" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="8"/>
-    </row>
-    <row r="158" spans="1:1" ht="17.5">
-      <c r="A158" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="14" t="s">
-        <v>78</v>
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" s="4" customFormat="1" ht="23.5">
+      <c r="A159" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="8"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="8"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="8"/>
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" ht="17.5">
+      <c r="A165" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="14" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="14" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="14" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="14" t="s">
-        <v>83</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="8"/>
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1"/>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="14" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="23.5">
-      <c r="A182" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="17.5">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" ht="17.5">
+      <c r="A183" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1">
       <c r="A187" s="14" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="14" t="s">
-        <v>93</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="14" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="14" t="s">
-        <v>95</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="14" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="14" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="14" t="s">
-        <v>131</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="17.5">
+      <c r="A203" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="14" t="s">
-        <v>100</v>
+      <c r="A207" s="23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="23.5">
-      <c r="A208" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="A208" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="23.5">
-      <c r="A211" s="16" t="s">
-        <v>103</v>
-      </c>
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1"/>
     </row>
     <row r="216" spans="1:1" ht="17.5">
       <c r="A216" s="14" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="17.5">
-      <c r="A222" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" ht="17.5">
       <c r="A224" s="14" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="14" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="14"/>
-    </row>
-    <row r="229" spans="1:1" ht="17.5">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1">
       <c r="A229" s="14" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="14" t="s">
-        <v>317</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="14" t="s">
-        <v>318</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="17.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1">
       <c r="A235" s="14" t="s">
-        <v>316</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" ht="17.5">
+      <c r="A243" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="14"/>
-    </row>
-    <row r="247" spans="1:1" ht="17.5">
-      <c r="A247" s="14" t="s">
-        <v>322</v>
-      </c>
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1"/>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="14" t="s">
-        <v>323</v>
+        <v>71</v>
       </c>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="14" t="s">
-        <v>324</v>
-      </c>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" ht="17.5">
-      <c r="A253" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1"/>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="17.5">
-      <c r="A262" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="8"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="8"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="8"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="8"/>
+    </row>
+    <row r="263" spans="1:1" ht="17.5">
       <c r="A263" s="14" t="s">
-        <v>325</v>
+        <v>73</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="14" t="s">
-        <v>318</v>
+        <v>74</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="14" t="s">
-        <v>113</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="8"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="8"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="8"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="8"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="14"/>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="14"/>
+      <c r="A276" s="8"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="14"/>
-    </row>
-    <row r="280" spans="1:1" ht="17.5">
+      <c r="A279" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
       <c r="A280" s="14" t="s">
-        <v>322</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="14" t="s">
-        <v>326</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="14" t="s">
-        <v>324</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="14"/>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="14" t="s">
-        <v>117</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="23.5">
+      <c r="A287" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="17.5">
+      <c r="A292" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="14" t="s">
-        <v>327</v>
+        <v>89</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="14" t="s">
-        <v>328</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="14" t="s">
-        <v>329</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="14"/>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="14"/>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="14"/>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" ht="23.5">
-      <c r="A312" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="A303" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="23.5">
+      <c r="A313" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="23.5">
+      <c r="A316" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="17.5">
       <c r="A321" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="14"/>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="14"/>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="14"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="17.5">
+      <c r="A327" s="14" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="14" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="14"/>
     </row>
-    <row r="333" spans="1:1" ht="17.5">
-      <c r="A333" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="14" t="s">
-        <v>123</v>
-      </c>
+    <row r="334" spans="1:1" ht="17.5">
+      <c r="A334" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="17.5">
+      <c r="A340" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="14"/>
     </row>
     <row r="352" spans="1:1" ht="17.5">
       <c r="A352" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="17.5">
       <c r="A358" s="14" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="14"/>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="14"/>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="14"/>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="14"/>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" ht="23.5">
-      <c r="A365" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" ht="23.5">
-      <c r="A368" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" ht="17.5">
-      <c r="A373" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" ht="17.5">
-      <c r="A389" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" s="14" t="s">
-        <v>142</v>
-      </c>
+      <c r="A359" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="17.5">
+      <c r="A367" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="14"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="14"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="14"/>
+    </row>
+    <row r="385" spans="1:1" ht="17.5">
+      <c r="A385" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="14"/>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="14" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" ht="17.5">
-      <c r="A401" s="14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" ht="17.5">
-      <c r="A403" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="14" t="s">
-        <v>145</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="14" t="s">
-        <v>146</v>
-      </c>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="14"/>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="14"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="14" t="s">
-        <v>153</v>
+      <c r="A409" s="14"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="14"/>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="23.5">
+      <c r="A417" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="14" t="s">
-        <v>150</v>
-      </c>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="14"/>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="14"/>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="14"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="A433" s="14"/>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="14"/>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="14"/>
+    </row>
+    <row r="438" spans="1:1" ht="17.5">
       <c r="A438" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" s="14" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="14" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" ht="23.5">
-      <c r="A450" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="14" t="s">
-        <v>165</v>
+      <c r="A449" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="17.5">
+      <c r="A457" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" ht="23.5">
-      <c r="A469" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" ht="23.5">
-      <c r="A472" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="14" t="s">
-        <v>171</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="14"/>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="14"/>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="14"/>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="14"/>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="23.5">
+      <c r="A470" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="23.5">
+      <c r="A473" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" ht="17.5">
+      <c r="A478" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" ht="23.5">
-      <c r="A487" s="16" t="s">
-        <v>184</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" ht="17.5">
+      <c r="A494" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" ht="17.5">
+      <c r="A506" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17.5">
       <c r="A508" s="14" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="14" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1">
-      <c r="A511" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1">
-      <c r="A512" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1">
-      <c r="A516" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1">
-      <c r="A519" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" ht="23.5">
-      <c r="A520" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1">
-      <c r="A534" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1">
-      <c r="A535" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1">
-      <c r="A545" s="23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" ht="23.5">
-      <c r="A546" s="16" t="s">
-        <v>198</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="14" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1">
-      <c r="A552" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1">
-      <c r="A556" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1">
-      <c r="A558" s="14" t="s">
-        <v>183</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" ht="23.5">
+      <c r="A555" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" ht="23.5">
-      <c r="A572" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" ht="17.5">
-      <c r="A588" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1">
-      <c r="A589" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1">
-      <c r="A594" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" ht="23.5">
+      <c r="A574" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" ht="23.5">
+      <c r="A577" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="23.5">
+      <c r="A592" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" ht="17.5">
+      <c r="A613" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
-      <c r="A595" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1">
-      <c r="A600" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="14" t="s">
-        <v>213</v>
+      <c r="A624" s="23" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="23.5">
-      <c r="A625" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1">
-      <c r="A627" s="23" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" ht="23.5">
-      <c r="A628" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1">
-      <c r="A633" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" ht="17.5">
-      <c r="A643" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1">
-      <c r="A644" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1">
-      <c r="A649" s="14" t="s">
-        <v>219</v>
+      <c r="A625" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" ht="23.5">
+      <c r="A651" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="14" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="14" t="s">
-        <v>221</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="14" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1">
-      <c r="A667" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1">
-      <c r="A673" s="14" t="s">
-        <v>225</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="14" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="14" t="s">
-        <v>227</v>
+      <c r="A676" s="23" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="23.5">
-      <c r="A677" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1">
-      <c r="A679" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1" ht="23.5">
-      <c r="A680" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1">
-      <c r="A684" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1" ht="17.5">
+      <c r="A677" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" ht="17.5">
+      <c r="A693" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
       <c r="A694" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1">
-      <c r="A695" s="14" t="s">
-        <v>231</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="14" t="s">
-        <v>232</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1">
-      <c r="A728" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" ht="23.5">
-      <c r="A729" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" ht="17.5">
-      <c r="A734" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1">
-      <c r="A735" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" ht="17.5">
-      <c r="A751" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" ht="17.5">
-      <c r="A752" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1">
-      <c r="A753" s="14" t="s">
-        <v>240</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" ht="23.5">
+      <c r="A730" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" ht="23.5">
+      <c r="A733" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" ht="17.5">
+      <c r="A748" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1">
-      <c r="A755" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1" ht="17.5">
-      <c r="A758" s="14" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="14" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1">
-      <c r="A761" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1" ht="17.5">
-      <c r="A764" s="14" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="14" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="767" spans="1:1">
-      <c r="A767" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="768" spans="1:1">
-      <c r="A768" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="769" spans="1:1">
-      <c r="A769" s="14"/>
-    </row>
-    <row r="771" spans="1:1" ht="17.5">
-      <c r="A771" s="14" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1">
-      <c r="A776" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1">
-      <c r="A777" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1">
-      <c r="A780" s="23" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" ht="23.5">
-      <c r="A781" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1">
-      <c r="A785" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1">
-      <c r="A786" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1">
-      <c r="A787" s="14" t="s">
-        <v>260</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" ht="23.5">
+      <c r="A782" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" ht="23.5">
+      <c r="A785" s="16" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="14" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1">
-      <c r="A790" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1">
-      <c r="A794" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1">
-      <c r="A795" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1">
-      <c r="A796" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1">
-      <c r="A797" s="14" t="s">
-        <v>265</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" ht="17.5">
+      <c r="A799" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="800" spans="1:1">
-      <c r="A800" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1" ht="23.5">
-      <c r="A801" s="16" t="s">
-        <v>267</v>
+      <c r="A800" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1">
-      <c r="A806" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1">
-      <c r="A812" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1">
-      <c r="A813" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1">
-      <c r="A818" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1">
-      <c r="A824" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1">
-      <c r="A825" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1">
-      <c r="A826" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1">
-      <c r="A827" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1">
-      <c r="A832" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1" ht="23.5">
-      <c r="A833" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1" ht="17.5">
-      <c r="A837" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1" ht="17.5">
-      <c r="A838" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" ht="23.5">
+      <c r="A834" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" ht="17.5">
       <c r="A839" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1" ht="17.5">
-      <c r="A843" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1">
-      <c r="A847" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1">
-      <c r="A848" s="14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="849" spans="1:1">
-      <c r="A849" s="14"/>
-    </row>
-    <row r="850" spans="1:1">
-      <c r="A850" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" s="14"/>
-    </row>
-    <row r="852" spans="1:1">
-      <c r="A852" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="853" spans="1:1">
-      <c r="A853" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1" ht="17.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" ht="17.5">
+      <c r="A856" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" ht="17.5">
+      <c r="A857" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" ht="17.5">
+      <c r="A863" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" ht="17.5">
+      <c r="A869" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
       <c r="A871" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="875" spans="1:1">
-      <c r="A875" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" s="14"/>
+    </row>
+    <row r="876" spans="1:1" ht="17.5">
       <c r="A876" s="14" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1">
-      <c r="A878" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="879" spans="1:1">
-      <c r="A879" s="14" t="s">
-        <v>289</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" s="14" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="884" spans="1:1">
-      <c r="A884" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="885" spans="1:1" ht="23.5">
-      <c r="A885" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="887" spans="1:1">
-      <c r="A887" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="888" spans="1:1" ht="23.5">
-      <c r="A888" s="16" t="s">
-        <v>291</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" ht="23.5">
+      <c r="A886" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="893" spans="1:1">
-      <c r="A893" s="14" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="898" spans="1:1">
-      <c r="A898" s="14" t="s">
-        <v>297</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" s="14" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="903" spans="1:1">
-      <c r="A903" s="23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="904" spans="1:1" ht="23.5">
-      <c r="A904" s="16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="907" spans="1:1">
-      <c r="A907" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="908" spans="1:1">
-      <c r="A908" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="909" spans="1:1">
-      <c r="A909" s="14" t="s">
-        <v>304</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" ht="23.5">
+      <c r="A906" s="16" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="914" spans="1:1">
-      <c r="A914" s="14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1">
-      <c r="A915" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="916" spans="1:1">
-      <c r="A916" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1">
-      <c r="A920" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1">
-      <c r="A921" s="14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1">
-      <c r="A922" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1">
-      <c r="A926" s="14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1">
-      <c r="A927" s="14" t="s">
-        <v>314</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931" s="14" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1" ht="23.5">
-      <c r="A937" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1" ht="23.5">
-      <c r="A940" s="16" t="s">
-        <v>337</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" ht="23.5">
+      <c r="A938" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" ht="17.5">
+      <c r="A942" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" ht="17.5">
+      <c r="A943" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" s="14" t="s">
-        <v>339</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" ht="17.5">
+      <c r="A948" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954" s="14"/>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956" s="14"/>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957" s="14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" ht="17.5">
+      <c r="A976" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" s="14" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="14" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1">
-      <c r="A985" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1">
-      <c r="A988" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1" ht="23.5">
-      <c r="A989" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1">
-      <c r="A991" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1" ht="23.5">
-      <c r="A992" s="16" t="s">
-        <v>17</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" ht="23.5">
+      <c r="A990" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" ht="23.5">
+      <c r="A993" s="16" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997" s="14" t="s">
-        <v>18</v>
+        <v>289</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998" s="14" t="s">
-        <v>19</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999" s="14" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" ht="23.5">
+      <c r="A1009" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012" s="14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025" s="14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" ht="23.5">
+      <c r="A1042" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" ht="23.5">
+      <c r="A1045" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1">
+      <c r="A1050" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1">
+      <c r="A1087" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1">
+      <c r="A1088" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1">
+      <c r="A1089" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1">
+      <c r="A1090" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1">
+      <c r="A1093" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" ht="23.5">
+      <c r="A1094" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1">
+      <c r="A1097" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1">
+      <c r="A1098" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1">
+      <c r="A1100" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" ht="17.5">
+      <c r="A1116" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1">
+      <c r="A1117" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1">
+      <c r="A1118" s="14"/>
+    </row>
+    <row r="1119" spans="1:1">
+      <c r="A1119" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1">
+      <c r="A1120" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1">
+      <c r="A1121" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1">
+      <c r="A1122" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1">
+      <c r="A1126" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1">
+      <c r="A1146" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" ht="23.5">
+      <c r="A1147" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" ht="17.5">
+      <c r="A1173" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" ht="17.5">
+      <c r="A1174" s="14"/>
+    </row>
+    <row r="1175" spans="1:1" ht="17.5">
+      <c r="A1175" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1">
+      <c r="A1176" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1">
+      <c r="A1177" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1">
+      <c r="A1179" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1">
+      <c r="A1180" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1">
+      <c r="A1181" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1">
+      <c r="A1182" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" ht="17.5">
+      <c r="A1186" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1">
+      <c r="A1187" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1">
+      <c r="A1188" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1">
+      <c r="A1189" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1">
+      <c r="A1191" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1">
+      <c r="A1192" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" ht="23.5">
+      <c r="A1199" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" ht="23.5">
+      <c r="A1202" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" s="14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" ht="17.5">
+      <c r="A1234" s="14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1">
+      <c r="A1235" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" ht="17.5">
+      <c r="A1240" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" ht="17.5">
+      <c r="A1265" s="14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1">
+      <c r="A1315" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" ht="23.5">
+      <c r="A1316" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1">
+      <c r="A1318" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" ht="23.5">
+      <c r="A1319" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1">
+      <c r="A1323" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1">
+      <c r="A1324" s="14" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1">
+      <c r="A1328" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1">
+      <c r="A1333" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1">
+      <c r="A1334" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1">
+      <c r="A1335" s="14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1">
+      <c r="A1341" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" ht="23.5">
+      <c r="A1345" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" ht="23.5">
+      <c r="A1346" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1">
-      <c r="A1010" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1">
-      <c r="A1016" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1" ht="23.5">
-      <c r="A1024" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" ht="23.5">
-      <c r="A1025" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="A100" r:id="rId1" xr:uid="{3BEE2033-0ED2-4FDE-9AB9-5183C3FCB175}"/>
+  </hyperlinks>
   <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59015748031496063" bottom="0.78740157480314954" header="0.39370078740157477" footer="0.39370078740157477"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
+++ b/docs/WCSC34_世界コンピュータ将棋選手権_きふわらべPR文書_AfterGame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\muzudho\document-a\35_第34回世界コンピュータ将棋選手権\Entry\AfterGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01251EFE-6858-4703-93CE-FA9B99A779DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4720D5A2-8CFD-41AC-ACE8-67C0FDFDE57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1510" yWindow="240" windowWidth="24050" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="第３４回世界コンピュータ将棋選手権 きふわらべアピール文書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'第３４回世界コンピュータ将棋選手権 きふわらべアピール文書'!$A$1:$A$1301</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'第３４回世界コンピュータ将棋選手権 きふわらべアピール文書'!$A$1:$A$1300</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="441">
   <si>
     <t>https://tanukifont.com/tanuki-permanent-marker/</t>
   </si>
@@ -421,16 +421,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>フゴウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>　　　　　　　　 という感じで書く」</t>
-    <rPh sb="12" eb="13">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -536,65 +526,6 @@
       </rPr>
       <t>　よね」</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">　　　　　　　「 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>👉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="たぬき油性マジック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　ＵＳＩという規格では</t>
-    </r>
-    <rPh sb="18" eb="20">
-      <t>キカク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>👈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="たぬき油性マジック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　この規格を考えた</t>
-    </r>
-    <rPh sb="36" eb="38">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カンガ</t>
-    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -5355,19 +5286,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>　　　　　　　　 昔、Ｂｏｎａｎｚａの学習部のソースコードも手書きしてたわよ」</t>
-    <rPh sb="9" eb="10">
-      <t>ムカシ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ガクシュウブ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>テガ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>　　　　　　 貧相な体験で飽きずに　ここまで続いてしまったのか分からないが</t>
     <rPh sb="7" eb="9">
       <t>ヒンソウ</t>
@@ -5832,6 +5750,196 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 昔、Ｂｏｎａｎｚａの学習部のソースコードも手書きして覚えてたわよ」</t>
+    <rPh sb="9" eb="10">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ガクシュウブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テガ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ２００７年１月に書かれた草稿</t>
+    <rPh sb="13" eb="14">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 ＵＣＩという規格では</t>
+    <rPh sb="15" eb="17">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 という感じで書く。</t>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 それに倣っているぜ」</t>
+    <rPh sb="12" eb="13">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　　　　 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ＵＳＩというこの規格も</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　「 ２０００年１１月に</t>
+    <rPh sb="13" eb="14">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　 メイヤー - カレンが公開した</t>
+    <rPh sb="20" eb="22">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">　　　　　 　　　　　　　　　　　　　　　　　　　　　　　「 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="たぬき油性マジック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　ＵＳＩの草稿を公開した</t>
+    </r>
+    <rPh sb="38" eb="40">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 きふわらべの長いＰＲ文章が読みたい、と言ってくださったので</t>
+    <rPh sb="17" eb="18">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　「 ＷＣＳＣ３４に初参加してた将棋エンジン　はるか　の小林さんが会場で</t>
+    <rPh sb="18" eb="19">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウギ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コバヤシ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 書いたぜ！</t>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　　　　　　　　　　 よっしゃ終わり！　ドロップボックスに投げ込んで　寝よ！」</t>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ネ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -6242,22 +6350,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3390900</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6477159</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>31907</xdr:rowOff>
+      <xdr:colOff>1193849</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="図 40">
+        <xdr:cNvPr id="217" name="図 216">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DF85D5-294F-53DD-031E-42C086E9F132}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02127057-BB51-48BE-A8DD-F500B486DAC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6267,56 +6375,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3390900" y="11118850"/>
-          <a:ext cx="3086259" cy="3048157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1193849</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="217" name="図 216">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02127057-BB51-48BE-A8DD-F500B486DAC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6366,7 +6424,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6416,7 +6474,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6466,7 +6524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6492,15 +6550,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>908093</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>38149</xdr:rowOff>
+      <xdr:colOff>939843</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>120699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6516,7 +6574,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6529,7 +6587,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="69850" y="12642850"/>
+          <a:off x="101600" y="51409600"/>
           <a:ext cx="838243" cy="952549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6543,13 +6601,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1041449</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6566,7 +6624,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6616,7 +6674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6643,13 +6701,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3352800</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4305349</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6666,7 +6724,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6693,13 +6751,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009699</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>426</xdr:row>
       <xdr:rowOff>12748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6716,7 +6774,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6743,13 +6801,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>492</xdr:row>
+      <xdr:row>491</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>497</xdr:row>
+      <xdr:row>496</xdr:row>
       <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6766,7 +6824,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6793,13 +6851,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>504</xdr:row>
+      <xdr:row>503</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>510</xdr:row>
+      <xdr:row>509</xdr:row>
       <xdr:rowOff>114358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6816,7 +6874,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6843,13 +6901,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>510</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>516</xdr:row>
+      <xdr:row>515</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6866,7 +6924,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6893,13 +6951,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1251</xdr:row>
+      <xdr:row>1250</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1085899</xdr:colOff>
-      <xdr:row>1256</xdr:row>
+      <xdr:row>1255</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6916,7 +6974,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6943,13 +7001,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>1257</xdr:row>
+      <xdr:row>1256</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022393</xdr:colOff>
-      <xdr:row>1262</xdr:row>
+      <xdr:row>1261</xdr:row>
       <xdr:rowOff>63549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6966,7 +7024,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6993,13 +7051,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>1274</xdr:row>
+      <xdr:row>1273</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092249</xdr:colOff>
-      <xdr:row>1279</xdr:row>
+      <xdr:row>1278</xdr:row>
       <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7016,7 +7074,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7043,13 +7101,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1279</xdr:row>
+      <xdr:row>1278</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>1286</xdr:row>
+      <xdr:row>1285</xdr:row>
       <xdr:rowOff>19108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7066,7 +7124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7089,282 +7147,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4826000</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5651500</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44455A47-98FE-6FE6-07EB-4E5CE48D06FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4826000" y="12541250"/>
-          <a:ext cx="825500" cy="393700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
-              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
-            </a:rPr>
-            <a:t>７ｇ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
-              <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
-            </a:rPr>
-            <a:t>７ｆ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4362450</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4826000</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A40EBD-4054-566E-E6C0-529B37F7F4CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="1"/>
-          <a:endCxn id="43" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4362450" y="12782550"/>
-          <a:ext cx="463550" cy="292100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4000500</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4362450</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="楕円 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E58EBC-7695-0369-2182-B4EC263F5225}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="12852400"/>
-          <a:ext cx="361950" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4013200</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4337050</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="楕円 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1A3F38-869D-410E-9D4A-9D904BDC6792}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4013200" y="13208000"/>
-          <a:ext cx="323850" cy="317500"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7392,7 +7174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7503,60 +7285,331 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4337050</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>3632200</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4826000</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>6718459</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>50957</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="375" name="グループ化 374">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA519C9-5E36-471A-ACED-33550474C10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{737A2699-137E-6709-FD8C-A5D93F776E05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="1"/>
-          <a:endCxn id="44" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4337050" y="12782550"/>
-          <a:ext cx="488950" cy="628650"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3632200" y="49377600"/>
+          <a:ext cx="3086259" cy="3003707"/>
+          <a:chOff x="3384550" y="49377600"/>
+          <a:chExt cx="3086259" cy="3048157"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="41" name="図 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DF85D5-294F-53DD-031E-42C086E9F132}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3384550" y="49377600"/>
+            <a:ext cx="3086259" cy="3048157"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="テキスト ボックス 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44455A47-98FE-6FE6-07EB-4E5CE48D06FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4826000" y="50825400"/>
+            <a:ext cx="825500" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          <a:ln w="19050" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>７ｇ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:latin typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+                <a:ea typeface="たぬき油性マジック" panose="02000600000000000000" pitchFamily="2" charset="-128"/>
+              </a:rPr>
+              <a:t>７ｆ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A40EBD-4054-566E-E6C0-529B37F7F4CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="36" idx="1"/>
+            <a:endCxn id="43" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4362450" y="51022250"/>
+            <a:ext cx="463550" cy="292100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="楕円 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E58EBC-7695-0369-2182-B4EC263F5225}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4000500" y="51136550"/>
+            <a:ext cx="361950" cy="355600"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="楕円 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1A3F38-869D-410E-9D4A-9D904BDC6792}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4013200" y="51492150"/>
+            <a:ext cx="323850" cy="317500"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA519C9-5E36-471A-ACED-33550474C10F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="36" idx="1"/>
+            <a:endCxn id="44" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="4337050" y="51022250"/>
+            <a:ext cx="488950" cy="628650"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="lg" len="lg"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7836,7 +7889,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8021,7 +8074,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8048,13 +8101,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1016049</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>88948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8071,7 +8124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8098,13 +8151,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5168900</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8183,13 +8236,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3670300</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6756559</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>44607</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8233,13 +8286,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4546600</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5372100</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8318,13 +8371,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5372100</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5848350</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8377,13 +8430,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5848350</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6210300</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8443,13 +8496,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5854700</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6178550</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8509,13 +8562,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5372100</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5854700</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8568,13 +8621,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1003343</xdr:colOff>
-      <xdr:row>335</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>19099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8591,7 +8644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8618,13 +8671,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5118100</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8703,13 +8756,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>343</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990649</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>346</xdr:row>
       <xdr:rowOff>171498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8726,7 +8779,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8753,13 +8806,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>901743</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>82599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8776,7 +8829,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8803,13 +8856,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>352</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>360</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8826,7 +8879,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8853,13 +8906,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>362</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3156109</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>114457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8903,13 +8956,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1612900</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8988,13 +9041,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1949450</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2273300</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9054,13 +9107,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2292350</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9120,13 +9173,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1612900</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1930400</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9179,13 +9232,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1612900</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>367</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1949450</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9238,13 +9291,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3365500</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4318049</xdr:colOff>
-      <xdr:row>376</xdr:row>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9261,7 +9314,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9288,13 +9341,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3460750</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4298993</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>382</xdr:row>
       <xdr:rowOff>158799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9311,7 +9364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9338,13 +9391,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>996999</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>396</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9361,7 +9414,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9388,13 +9441,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>404</xdr:row>
       <xdr:rowOff>44508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9411,7 +9464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9438,13 +9491,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971593</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>410</xdr:row>
       <xdr:rowOff>88949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9461,7 +9514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9488,13 +9541,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3721100</xdr:colOff>
-      <xdr:row>423</xdr:row>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4025916</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>423</xdr:row>
       <xdr:rowOff>184166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9538,13 +9591,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3740150</xdr:colOff>
-      <xdr:row>428</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5931013</xdr:colOff>
-      <xdr:row>430</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>69866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9588,13 +9641,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>426</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>431</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9611,7 +9664,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9638,13 +9691,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4381549</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>439</xdr:row>
       <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9661,7 +9714,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9688,13 +9741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>453</xdr:row>
+      <xdr:row>452</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>57198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9711,7 +9764,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9738,13 +9791,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3314700</xdr:colOff>
-      <xdr:row>467</xdr:row>
+      <xdr:row>466</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4267249</xdr:colOff>
-      <xdr:row>472</xdr:row>
+      <xdr:row>471</xdr:row>
       <xdr:rowOff>63548</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9761,7 +9814,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9788,13 +9841,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>486</xdr:row>
+      <xdr:row>485</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952549</xdr:colOff>
-      <xdr:row>491</xdr:row>
+      <xdr:row>490</xdr:row>
       <xdr:rowOff>101648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9811,7 +9864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9838,13 +9891,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>498</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009699</xdr:colOff>
-      <xdr:row>503</xdr:row>
+      <xdr:row>502</xdr:row>
       <xdr:rowOff>107998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9861,7 +9914,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9888,13 +9941,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>524</xdr:row>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>525</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9970,13 +10023,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>530</xdr:row>
+      <xdr:row>529</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10052,13 +10105,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>532</xdr:row>
+      <xdr:row>531</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>534</xdr:row>
+      <xdr:row>533</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10134,13 +10187,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1816100</xdr:colOff>
-      <xdr:row>536</xdr:row>
+      <xdr:row>535</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4756150</xdr:colOff>
-      <xdr:row>538</xdr:row>
+      <xdr:row>537</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10216,13 +10269,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>536</xdr:row>
+      <xdr:row>535</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>958899</xdr:colOff>
-      <xdr:row>542</xdr:row>
+      <xdr:row>541</xdr:row>
       <xdr:rowOff>139758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10239,7 +10292,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10266,13 +10319,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>544</xdr:row>
+      <xdr:row>543</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>549</xdr:row>
+      <xdr:row>548</xdr:row>
       <xdr:rowOff>82598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10289,7 +10342,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10316,13 +10369,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1860550</xdr:colOff>
-      <xdr:row>551</xdr:row>
+      <xdr:row>550</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>553</xdr:row>
+      <xdr:row>552</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10398,13 +10451,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1854200</xdr:colOff>
-      <xdr:row>555</xdr:row>
+      <xdr:row>554</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4908550</xdr:colOff>
-      <xdr:row>557</xdr:row>
+      <xdr:row>556</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10502,13 +10555,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>556</xdr:row>
+      <xdr:row>555</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>914443</xdr:colOff>
-      <xdr:row>561</xdr:row>
+      <xdr:row>560</xdr:row>
       <xdr:rowOff>139749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10525,7 +10578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10552,13 +10605,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>562</xdr:row>
+      <xdr:row>561</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>567</xdr:row>
+      <xdr:row>566</xdr:row>
       <xdr:rowOff>114348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10575,7 +10628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10602,13 +10655,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>577</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3206909</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>594</xdr:row>
       <xdr:rowOff>70007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10652,13 +10705,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3340100</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>577</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4292649</xdr:colOff>
-      <xdr:row>583</xdr:row>
+      <xdr:row>582</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10675,7 +10728,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10702,13 +10755,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3663950</xdr:colOff>
-      <xdr:row>588</xdr:row>
+      <xdr:row>587</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6750209</xdr:colOff>
-      <xdr:row>605</xdr:row>
+      <xdr:row>604</xdr:row>
       <xdr:rowOff>120807</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10724,7 +10777,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3663950" y="108388150"/>
+          <a:off x="3663950" y="108254800"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3702050" y="70504050"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -11018,13 +11071,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>596</xdr:row>
+      <xdr:row>595</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>601</xdr:row>
+      <xdr:row>600</xdr:row>
       <xdr:rowOff>139748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11041,7 +11094,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11068,13 +11121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>606</xdr:row>
+      <xdr:row>605</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4279949</xdr:colOff>
-      <xdr:row>612</xdr:row>
+      <xdr:row>611</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11091,7 +11144,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11118,13 +11171,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>605</xdr:row>
+      <xdr:row>604</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3251359</xdr:colOff>
-      <xdr:row>622</xdr:row>
+      <xdr:row>621</xdr:row>
       <xdr:rowOff>12857</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -11140,7 +11193,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="165100" y="111391700"/>
+          <a:off x="165100" y="111258350"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="165100" y="73240900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -11434,13 +11487,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3327400</xdr:colOff>
-      <xdr:row>614</xdr:row>
+      <xdr:row>613</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4279949</xdr:colOff>
-      <xdr:row>619</xdr:row>
+      <xdr:row>618</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11457,7 +11510,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11484,13 +11537,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>625</xdr:row>
+      <xdr:row>624</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990643</xdr:colOff>
-      <xdr:row>630</xdr:row>
+      <xdr:row>629</xdr:row>
       <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11507,7 +11560,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11534,13 +11587,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>631</xdr:row>
+      <xdr:row>630</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>636</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11557,7 +11610,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11584,13 +11637,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>636</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079549</xdr:colOff>
-      <xdr:row>643</xdr:row>
+      <xdr:row>642</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11607,7 +11660,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11634,13 +11687,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>643</xdr:row>
+      <xdr:row>642</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990643</xdr:colOff>
-      <xdr:row>648</xdr:row>
+      <xdr:row>647</xdr:row>
       <xdr:rowOff>107999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11657,7 +11710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11684,13 +11737,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>649</xdr:row>
+      <xdr:row>648</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>654</xdr:row>
+      <xdr:row>653</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11707,7 +11760,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11734,13 +11787,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>660</xdr:row>
+      <xdr:row>659</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079549</xdr:colOff>
-      <xdr:row>665</xdr:row>
+      <xdr:row>664</xdr:row>
       <xdr:rowOff>171498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11757,7 +11810,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11784,13 +11837,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>666</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022393</xdr:colOff>
-      <xdr:row>673</xdr:row>
+      <xdr:row>672</xdr:row>
       <xdr:rowOff>25449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11807,7 +11860,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11834,13 +11887,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>682</xdr:row>
+      <xdr:row>681</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022399</xdr:colOff>
-      <xdr:row>687</xdr:row>
+      <xdr:row>686</xdr:row>
       <xdr:rowOff>82598</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11857,7 +11910,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11884,13 +11937,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>688</xdr:row>
+      <xdr:row>687</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952543</xdr:colOff>
-      <xdr:row>693</xdr:row>
+      <xdr:row>692</xdr:row>
       <xdr:rowOff>69899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11907,7 +11960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11934,13 +11987,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1555750</xdr:colOff>
-      <xdr:row>698</xdr:row>
+      <xdr:row>697</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12016,13 +12069,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3600450</xdr:colOff>
-      <xdr:row>698</xdr:row>
+      <xdr:row>697</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4425950</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12091,13 +12144,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5765800</xdr:colOff>
-      <xdr:row>698</xdr:row>
+      <xdr:row>697</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6591300</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12163,13 +12216,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5778500</xdr:colOff>
-      <xdr:row>702</xdr:row>
+      <xdr:row>701</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6604000</xdr:colOff>
-      <xdr:row>704</xdr:row>
+      <xdr:row>703</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12238,13 +12291,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3594100</xdr:colOff>
-      <xdr:row>702</xdr:row>
+      <xdr:row>701</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4419600</xdr:colOff>
-      <xdr:row>704</xdr:row>
+      <xdr:row>703</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12313,13 +12366,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1568450</xdr:colOff>
-      <xdr:row>702</xdr:row>
+      <xdr:row>701</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2393950</xdr:colOff>
-      <xdr:row>704</xdr:row>
+      <xdr:row>703</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12395,13 +12448,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>707</xdr:row>
+      <xdr:row>706</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2387600</xdr:colOff>
-      <xdr:row>709</xdr:row>
+      <xdr:row>708</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12477,13 +12530,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1555750</xdr:colOff>
-      <xdr:row>711</xdr:row>
+      <xdr:row>710</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
-      <xdr:row>713</xdr:row>
+      <xdr:row>712</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12559,13 +12612,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1739900</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>703</xdr:row>
+      <xdr:row>702</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12626,13 +12679,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1746250</xdr:colOff>
-      <xdr:row>709</xdr:row>
+      <xdr:row>708</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2235200</xdr:colOff>
-      <xdr:row>712</xdr:row>
+      <xdr:row>711</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12693,13 +12746,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3771900</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4260850</xdr:colOff>
-      <xdr:row>703</xdr:row>
+      <xdr:row>702</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12760,13 +12813,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6032500</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6521450</xdr:colOff>
-      <xdr:row>702</xdr:row>
+      <xdr:row>701</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12827,13 +12880,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1822450</xdr:colOff>
-      <xdr:row>704</xdr:row>
+      <xdr:row>703</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2311400</xdr:colOff>
-      <xdr:row>707</xdr:row>
+      <xdr:row>706</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12894,13 +12947,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>713</xdr:row>
+      <xdr:row>712</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1066849</xdr:colOff>
-      <xdr:row>718</xdr:row>
+      <xdr:row>717</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12917,7 +12970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12944,13 +12997,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>739</xdr:row>
+      <xdr:row>738</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1149399</xdr:colOff>
-      <xdr:row>744</xdr:row>
+      <xdr:row>743</xdr:row>
       <xdr:rowOff>127048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12967,7 +13020,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12994,13 +13047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>745</xdr:row>
+      <xdr:row>744</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1181149</xdr:colOff>
-      <xdr:row>751</xdr:row>
+      <xdr:row>750</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13017,7 +13070,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13044,13 +13097,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>756</xdr:row>
+      <xdr:row>755</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1098599</xdr:colOff>
-      <xdr:row>761</xdr:row>
+      <xdr:row>760</xdr:row>
       <xdr:rowOff>50848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13067,7 +13120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13094,13 +13147,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>720</xdr:row>
+      <xdr:row>719</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>977943</xdr:colOff>
-      <xdr:row>725</xdr:row>
+      <xdr:row>724</xdr:row>
       <xdr:rowOff>69899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13117,7 +13170,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13144,13 +13197,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1631950</xdr:colOff>
-      <xdr:row>730</xdr:row>
+      <xdr:row>729</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>733</xdr:row>
+      <xdr:row>732</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13226,13 +13279,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1606550</xdr:colOff>
-      <xdr:row>735</xdr:row>
+      <xdr:row>734</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2432050</xdr:colOff>
-      <xdr:row>737</xdr:row>
+      <xdr:row>736</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13308,13 +13361,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>733</xdr:row>
+      <xdr:row>732</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2317750</xdr:colOff>
-      <xdr:row>735</xdr:row>
+      <xdr:row>734</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13375,13 +13428,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3486150</xdr:colOff>
-      <xdr:row>730</xdr:row>
+      <xdr:row>729</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4114800</xdr:colOff>
-      <xdr:row>733</xdr:row>
+      <xdr:row>732</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13450,13 +13503,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3479800</xdr:colOff>
-      <xdr:row>734</xdr:row>
+      <xdr:row>733</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108450</xdr:colOff>
-      <xdr:row>736</xdr:row>
+      <xdr:row>735</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13525,13 +13578,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3479800</xdr:colOff>
-      <xdr:row>737</xdr:row>
+      <xdr:row>736</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108450</xdr:colOff>
-      <xdr:row>739</xdr:row>
+      <xdr:row>738</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13600,13 +13653,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4292600</xdr:colOff>
-      <xdr:row>730</xdr:row>
+      <xdr:row>729</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4921250</xdr:colOff>
-      <xdr:row>733</xdr:row>
+      <xdr:row>732</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13675,13 +13728,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4311650</xdr:colOff>
-      <xdr:row>737</xdr:row>
+      <xdr:row>736</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4940300</xdr:colOff>
-      <xdr:row>739</xdr:row>
+      <xdr:row>738</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13750,13 +13803,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5111750</xdr:colOff>
-      <xdr:row>730</xdr:row>
+      <xdr:row>729</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5740400</xdr:colOff>
-      <xdr:row>733</xdr:row>
+      <xdr:row>732</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13825,13 +13878,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5124450</xdr:colOff>
-      <xdr:row>734</xdr:row>
+      <xdr:row>733</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5753100</xdr:colOff>
-      <xdr:row>736</xdr:row>
+      <xdr:row>735</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13900,13 +13953,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5137150</xdr:colOff>
-      <xdr:row>737</xdr:row>
+      <xdr:row>736</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5765800</xdr:colOff>
-      <xdr:row>739</xdr:row>
+      <xdr:row>738</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13975,13 +14028,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>764</xdr:row>
+      <xdr:row>763</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1130349</xdr:colOff>
-      <xdr:row>770</xdr:row>
+      <xdr:row>769</xdr:row>
       <xdr:rowOff>57208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13998,7 +14051,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14025,13 +14078,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>770</xdr:row>
+      <xdr:row>769</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1073193</xdr:colOff>
-      <xdr:row>775</xdr:row>
+      <xdr:row>774</xdr:row>
       <xdr:rowOff>152449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14048,7 +14101,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14075,13 +14128,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2762250</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3251200</xdr:colOff>
-      <xdr:row>703</xdr:row>
+      <xdr:row>702</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14146,13 +14199,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4832350</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5321300</xdr:colOff>
-      <xdr:row>703</xdr:row>
+      <xdr:row>702</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14217,13 +14270,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2717800</xdr:colOff>
-      <xdr:row>732</xdr:row>
+      <xdr:row>731</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3206750</xdr:colOff>
-      <xdr:row>735</xdr:row>
+      <xdr:row>734</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14288,13 +14341,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1936750</xdr:colOff>
-      <xdr:row>782</xdr:row>
+      <xdr:row>781</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4057650</xdr:colOff>
-      <xdr:row>795</xdr:row>
+      <xdr:row>794</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -14310,7 +14363,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1936750" y="143808450"/>
+          <a:off x="1936750" y="143675100"/>
           <a:ext cx="2120900" cy="2324100"/>
           <a:chOff x="1936750" y="143910050"/>
           <a:chExt cx="2120900" cy="2501900"/>
@@ -14960,13 +15013,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>792</xdr:row>
+      <xdr:row>791</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>797</xdr:row>
+      <xdr:row>796</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14983,7 +15036,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15010,7 +15063,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>785</xdr:row>
+      <xdr:row>784</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800219" cy="359073"/>
@@ -15071,7 +15124,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4140200</xdr:colOff>
-      <xdr:row>790</xdr:row>
+      <xdr:row>789</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="800219" cy="359073"/>
@@ -15136,7 +15189,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4146550</xdr:colOff>
-      <xdr:row>782</xdr:row>
+      <xdr:row>781</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1383327" cy="359073"/>
@@ -15197,13 +15250,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4495800</xdr:colOff>
-      <xdr:row>797</xdr:row>
+      <xdr:row>796</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5448349</xdr:colOff>
-      <xdr:row>804</xdr:row>
+      <xdr:row>803</xdr:row>
       <xdr:rowOff>38158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15220,7 +15273,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15247,13 +15300,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>801</xdr:row>
+      <xdr:row>800</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1073199</xdr:colOff>
-      <xdr:row>806</xdr:row>
+      <xdr:row>805</xdr:row>
       <xdr:rowOff>88948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15270,7 +15323,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15297,13 +15350,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3663950</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6750209</xdr:colOff>
-      <xdr:row>408</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>63657</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15319,7 +15372,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3663950" y="72345550"/>
+          <a:off x="3663950" y="72212200"/>
           <a:ext cx="3086259" cy="2959257"/>
           <a:chOff x="3663950" y="34194750"/>
           <a:chExt cx="3086259" cy="2959257"/>
@@ -15449,13 +15502,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>815</xdr:row>
+      <xdr:row>814</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092249</xdr:colOff>
-      <xdr:row>820</xdr:row>
+      <xdr:row>819</xdr:row>
       <xdr:rowOff>95298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15472,7 +15525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15499,13 +15552,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2136774</xdr:colOff>
-      <xdr:row>819</xdr:row>
+      <xdr:row>818</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3965575</xdr:colOff>
-      <xdr:row>825</xdr:row>
+      <xdr:row>824</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -15521,7 +15574,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2136774" y="150749000"/>
+          <a:off x="2136774" y="150615650"/>
           <a:ext cx="1828801" cy="996950"/>
           <a:chOff x="2136774" y="117030500"/>
           <a:chExt cx="1828801" cy="996950"/>
@@ -15762,13 +15815,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>823</xdr:row>
+      <xdr:row>822</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1117649</xdr:colOff>
-      <xdr:row>828</xdr:row>
+      <xdr:row>827</xdr:row>
       <xdr:rowOff>57198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15785,7 +15838,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15812,13 +15865,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5670550</xdr:colOff>
-      <xdr:row>831</xdr:row>
+      <xdr:row>830</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6623099</xdr:colOff>
-      <xdr:row>837</xdr:row>
+      <xdr:row>836</xdr:row>
       <xdr:rowOff>82608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15835,7 +15888,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15862,13 +15915,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>834</xdr:row>
+      <xdr:row>833</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>939843</xdr:colOff>
-      <xdr:row>839</xdr:row>
+      <xdr:row>838</xdr:row>
       <xdr:rowOff>120699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15885,7 +15938,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15912,13 +15965,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>840</xdr:row>
+      <xdr:row>839</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1016049</xdr:colOff>
-      <xdr:row>845</xdr:row>
+      <xdr:row>844</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15935,7 +15988,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15962,13 +16015,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5702300</xdr:colOff>
-      <xdr:row>843</xdr:row>
+      <xdr:row>842</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6654849</xdr:colOff>
-      <xdr:row>849</xdr:row>
+      <xdr:row>848</xdr:row>
       <xdr:rowOff>171508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15985,7 +16038,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16012,13 +16065,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>847</xdr:row>
+      <xdr:row>846</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1041449</xdr:colOff>
-      <xdr:row>852</xdr:row>
+      <xdr:row>851</xdr:row>
       <xdr:rowOff>146098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16035,7 +16088,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16062,13 +16115,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>860</xdr:row>
+      <xdr:row>859</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1085899</xdr:colOff>
-      <xdr:row>865</xdr:row>
+      <xdr:row>864</xdr:row>
       <xdr:rowOff>133398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16085,7 +16138,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16112,13 +16165,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2279650</xdr:colOff>
-      <xdr:row>864</xdr:row>
+      <xdr:row>863</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4108451</xdr:colOff>
-      <xdr:row>870</xdr:row>
+      <xdr:row>869</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16134,7 +16187,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2279650" y="159004000"/>
+          <a:off x="2279650" y="158870650"/>
           <a:ext cx="1828801" cy="996950"/>
           <a:chOff x="2136774" y="117030500"/>
           <a:chExt cx="1828801" cy="996950"/>
@@ -16375,13 +16428,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>869</xdr:row>
+      <xdr:row>868</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054149</xdr:colOff>
-      <xdr:row>874</xdr:row>
+      <xdr:row>873</xdr:row>
       <xdr:rowOff>25448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16398,7 +16451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16425,13 +16478,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3822700</xdr:colOff>
-      <xdr:row>873</xdr:row>
+      <xdr:row>872</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4775249</xdr:colOff>
-      <xdr:row>879</xdr:row>
+      <xdr:row>878</xdr:row>
       <xdr:rowOff>146108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16448,7 +16501,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16475,13 +16528,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>875</xdr:row>
+      <xdr:row>874</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>996993</xdr:colOff>
-      <xdr:row>880</xdr:row>
+      <xdr:row>879</xdr:row>
       <xdr:rowOff>120699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16498,7 +16551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16525,13 +16578,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>886</xdr:row>
+      <xdr:row>885</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>891</xdr:row>
+      <xdr:row>890</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -16548,7 +16601,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -16575,13 +16628,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3632200</xdr:colOff>
-      <xdr:row>885</xdr:row>
+      <xdr:row>884</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6718459</xdr:colOff>
-      <xdr:row>902</xdr:row>
+      <xdr:row>901</xdr:row>
       <xdr:rowOff>89057</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16597,7 +16650,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3632200" y="162921950"/>
+          <a:off x="3632200" y="162788600"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="165100" y="73240900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -16891,13 +16944,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>893</xdr:row>
+      <xdr:row>892</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3257709</xdr:colOff>
-      <xdr:row>909</xdr:row>
+      <xdr:row>908</xdr:row>
       <xdr:rowOff>139857</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16913,7 +16966,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="171450" y="164350700"/>
+          <a:off x="171450" y="164217350"/>
           <a:ext cx="3086259" cy="2959257"/>
           <a:chOff x="273050" y="137096500"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -17166,13 +17219,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3365500</xdr:colOff>
-      <xdr:row>903</xdr:row>
+      <xdr:row>902</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4318049</xdr:colOff>
-      <xdr:row>908</xdr:row>
+      <xdr:row>907</xdr:row>
       <xdr:rowOff>120698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17189,7 +17242,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17216,13 +17269,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>912</xdr:row>
+      <xdr:row>911</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1060499</xdr:colOff>
-      <xdr:row>918</xdr:row>
+      <xdr:row>917</xdr:row>
       <xdr:rowOff>95308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17239,7 +17292,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17266,13 +17319,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>921</xdr:row>
+      <xdr:row>920</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>838243</xdr:colOff>
-      <xdr:row>926</xdr:row>
+      <xdr:row>925</xdr:row>
       <xdr:rowOff>69899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17289,7 +17342,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17316,13 +17369,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5054600</xdr:colOff>
-      <xdr:row>917</xdr:row>
+      <xdr:row>916</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6007149</xdr:colOff>
-      <xdr:row>922</xdr:row>
+      <xdr:row>921</xdr:row>
       <xdr:rowOff>44498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17339,7 +17392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17366,13 +17419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5251450</xdr:colOff>
-      <xdr:row>926</xdr:row>
+      <xdr:row>925</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6203999</xdr:colOff>
-      <xdr:row>931</xdr:row>
+      <xdr:row>930</xdr:row>
       <xdr:rowOff>95298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17389,7 +17442,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17416,13 +17469,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>938</xdr:row>
+      <xdr:row>937</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>943</xdr:row>
+      <xdr:row>942</xdr:row>
       <xdr:rowOff>95298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17439,7 +17492,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17466,13 +17519,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>944</xdr:row>
+      <xdr:row>943</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>977949</xdr:colOff>
-      <xdr:row>951</xdr:row>
+      <xdr:row>950</xdr:row>
       <xdr:rowOff>50858</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17489,7 +17542,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17516,13 +17569,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>958</xdr:row>
+      <xdr:row>957</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>963</xdr:row>
+      <xdr:row>962</xdr:row>
       <xdr:rowOff>69898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17539,7 +17592,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17566,13 +17619,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>967</xdr:row>
+      <xdr:row>966</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>973</xdr:row>
+      <xdr:row>972</xdr:row>
       <xdr:rowOff>139758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17589,7 +17642,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17616,13 +17669,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3771900</xdr:colOff>
-      <xdr:row>972</xdr:row>
+      <xdr:row>971</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4610143</xdr:colOff>
-      <xdr:row>978</xdr:row>
+      <xdr:row>977</xdr:row>
       <xdr:rowOff>6399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17639,7 +17692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17666,13 +17719,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>977</xdr:row>
+      <xdr:row>976</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022399</xdr:colOff>
-      <xdr:row>983</xdr:row>
+      <xdr:row>982</xdr:row>
       <xdr:rowOff>6398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17689,7 +17742,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -17716,13 +17769,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4749800</xdr:colOff>
-      <xdr:row>989</xdr:row>
+      <xdr:row>988</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6642197</xdr:colOff>
-      <xdr:row>997</xdr:row>
+      <xdr:row>996</xdr:row>
       <xdr:rowOff>114374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17771,13 +17824,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4743450</xdr:colOff>
-      <xdr:row>999</xdr:row>
+      <xdr:row>998</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6635847</xdr:colOff>
-      <xdr:row>1007</xdr:row>
+      <xdr:row>1006</xdr:row>
       <xdr:rowOff>133424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17826,13 +17879,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5689649</xdr:colOff>
-      <xdr:row>997</xdr:row>
+      <xdr:row>996</xdr:row>
       <xdr:rowOff>69924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5695999</xdr:colOff>
-      <xdr:row>999</xdr:row>
+      <xdr:row>998</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17886,13 +17939,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5378450</xdr:colOff>
-      <xdr:row>994</xdr:row>
+      <xdr:row>993</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5683250</xdr:colOff>
-      <xdr:row>994</xdr:row>
+      <xdr:row>993</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17943,13 +17996,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5251450</xdr:colOff>
-      <xdr:row>1005</xdr:row>
+      <xdr:row>1004</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5499100</xdr:colOff>
-      <xdr:row>1005</xdr:row>
+      <xdr:row>1004</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18000,13 +18053,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>990</xdr:row>
+      <xdr:row>989</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1035099</xdr:colOff>
-      <xdr:row>995</xdr:row>
+      <xdr:row>994</xdr:row>
       <xdr:rowOff>12748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18023,7 +18076,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18050,13 +18103,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>995</xdr:row>
+      <xdr:row>994</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>958893</xdr:colOff>
-      <xdr:row>1000</xdr:row>
+      <xdr:row>999</xdr:row>
       <xdr:rowOff>133399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18073,7 +18126,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18100,13 +18153,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>1000</xdr:row>
+      <xdr:row>999</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1022399</xdr:colOff>
-      <xdr:row>1006</xdr:row>
+      <xdr:row>1005</xdr:row>
       <xdr:rowOff>31798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18123,7 +18176,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18150,13 +18203,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>1022</xdr:row>
+      <xdr:row>1021</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>1030</xdr:row>
+      <xdr:row>1029</xdr:row>
       <xdr:rowOff>69924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18205,13 +18258,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>1012</xdr:row>
+      <xdr:row>1011</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>1020</xdr:row>
+      <xdr:row>1019</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18260,13 +18313,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2559050</xdr:colOff>
-      <xdr:row>1012</xdr:row>
+      <xdr:row>1011</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4451447</xdr:colOff>
-      <xdr:row>1020</xdr:row>
+      <xdr:row>1019</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18315,13 +18368,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>1016</xdr:row>
+      <xdr:row>1015</xdr:row>
       <xdr:rowOff>15912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2559050</xdr:colOff>
-      <xdr:row>1016</xdr:row>
+      <xdr:row>1015</xdr:row>
       <xdr:rowOff>15912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18375,13 +18428,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1162099</xdr:colOff>
-      <xdr:row>1020</xdr:row>
+      <xdr:row>1019</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1162099</xdr:colOff>
-      <xdr:row>1022</xdr:row>
+      <xdr:row>1021</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18435,13 +18488,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2108297</xdr:colOff>
-      <xdr:row>1020</xdr:row>
+      <xdr:row>1019</xdr:row>
       <xdr:rowOff>25474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3505249</xdr:colOff>
-      <xdr:row>1026</xdr:row>
+      <xdr:row>1025</xdr:row>
       <xdr:rowOff>104812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18495,13 +18548,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2990850</xdr:colOff>
-      <xdr:row>1023</xdr:row>
+      <xdr:row>1022</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3943399</xdr:colOff>
-      <xdr:row>1029</xdr:row>
+      <xdr:row>1028</xdr:row>
       <xdr:rowOff>127058</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18518,7 +18571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18545,13 +18598,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3111500</xdr:colOff>
-      <xdr:row>1017</xdr:row>
+      <xdr:row>1016</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3308350</xdr:colOff>
-      <xdr:row>1019</xdr:row>
+      <xdr:row>1018</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18602,13 +18655,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>869950</xdr:colOff>
-      <xdr:row>1017</xdr:row>
+      <xdr:row>1016</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>1017</xdr:row>
+      <xdr:row>1016</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18659,13 +18712,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>1027</xdr:row>
+      <xdr:row>1026</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>1028</xdr:row>
+      <xdr:row>1027</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -18716,13 +18769,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3022600</xdr:colOff>
-      <xdr:row>1030</xdr:row>
+      <xdr:row>1029</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3975149</xdr:colOff>
-      <xdr:row>1035</xdr:row>
+      <xdr:row>1034</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18739,7 +18792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18766,13 +18819,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>1033</xdr:row>
+      <xdr:row>1032</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054149</xdr:colOff>
-      <xdr:row>1038</xdr:row>
+      <xdr:row>1037</xdr:row>
       <xdr:rowOff>158798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18789,7 +18842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18816,13 +18869,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1204</xdr:row>
+      <xdr:row>1203</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104949</xdr:colOff>
-      <xdr:row>1210</xdr:row>
+      <xdr:row>1209</xdr:row>
       <xdr:rowOff>69908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18839,7 +18892,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18866,13 +18919,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>1211</xdr:row>
+      <xdr:row>1210</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092249</xdr:colOff>
-      <xdr:row>1216</xdr:row>
+      <xdr:row>1215</xdr:row>
       <xdr:rowOff>101648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18889,7 +18942,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18939,7 +18992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -18966,14 +19019,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952549</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>50848</xdr:rowOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>146098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18989,7 +19042,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -19002,7 +19055,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="44367450"/>
+          <a:off x="0" y="44284900"/>
           <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19017,13 +19070,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>246</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>876343</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>38149</xdr:rowOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>95299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19039,7 +19092,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -19052,7 +19105,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="45751750"/>
+          <a:off x="38100" y="45631100"/>
           <a:ext cx="838243" cy="952549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19066,13 +19119,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3517900</xdr:colOff>
-      <xdr:row>440</xdr:row>
+      <xdr:row>439</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4356143</xdr:colOff>
-      <xdr:row>446</xdr:row>
+      <xdr:row>445</xdr:row>
       <xdr:rowOff>38149</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19089,7 +19142,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -19116,13 +19169,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>435</xdr:row>
+      <xdr:row>434</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3219609</xdr:colOff>
-      <xdr:row>452</xdr:row>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>50957</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19138,7 +19191,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133350" y="80486250"/>
+          <a:off x="133350" y="80352900"/>
           <a:ext cx="3086259" cy="3003707"/>
           <a:chOff x="133350" y="42335450"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -19268,13 +19321,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3676650</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>446</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6762909</xdr:colOff>
-      <xdr:row>464</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>50957</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19290,7 +19343,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3676650" y="82619850"/>
+          <a:off x="3676650" y="82486500"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3619500" y="44684950"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -19420,13 +19473,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971599</xdr:colOff>
-      <xdr:row>464</xdr:row>
+      <xdr:row>463</xdr:row>
       <xdr:rowOff>114358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19443,7 +19496,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -19470,13 +19523,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>467</xdr:row>
+      <xdr:row>466</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3232309</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:row>483</xdr:row>
       <xdr:rowOff>82707</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19492,7 +19545,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="146050" y="86252050"/>
+          <a:off x="146050" y="86118700"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="146050" y="48190150"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -19622,13 +19675,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3606800</xdr:colOff>
-      <xdr:row>477</xdr:row>
+      <xdr:row>476</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6693059</xdr:colOff>
-      <xdr:row>494</xdr:row>
+      <xdr:row>493</xdr:row>
       <xdr:rowOff>70007</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19644,7 +19697,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3606800" y="88061800"/>
+          <a:off x="3606800" y="87928450"/>
           <a:ext cx="3086259" cy="3048157"/>
           <a:chOff x="3606800" y="49999900"/>
           <a:chExt cx="3086259" cy="3048157"/>
@@ -19774,13 +19827,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1046</xdr:row>
+      <xdr:row>1045</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1085899</xdr:colOff>
-      <xdr:row>1051</xdr:row>
+      <xdr:row>1050</xdr:row>
       <xdr:rowOff>38148</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -19797,7 +19850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -19824,13 +19877,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1051</xdr:row>
+      <xdr:row>1050</xdr:row>
       <xdr:rowOff>107948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6788494</xdr:colOff>
-      <xdr:row>1084</xdr:row>
+      <xdr:row>1083</xdr:row>
       <xdr:rowOff>70141</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -19846,7 +19899,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="95250" y="193217798"/>
+          <a:off x="95250" y="193084448"/>
           <a:ext cx="6693244" cy="5829593"/>
           <a:chOff x="88900" y="202653898"/>
           <a:chExt cx="6693244" cy="5708943"/>
@@ -19994,13 +20047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1085</xdr:row>
+      <xdr:row>1084</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028749</xdr:colOff>
-      <xdr:row>1091</xdr:row>
+      <xdr:row>1090</xdr:row>
       <xdr:rowOff>57208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20017,7 +20070,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20044,13 +20097,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>1094</xdr:row>
+      <xdr:row>1093</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>984299</xdr:colOff>
-      <xdr:row>1099</xdr:row>
+      <xdr:row>1098</xdr:row>
       <xdr:rowOff>146098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20067,7 +20120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20094,13 +20147,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1113</xdr:row>
+      <xdr:row>1112</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952549</xdr:colOff>
-      <xdr:row>1118</xdr:row>
+      <xdr:row>1117</xdr:row>
       <xdr:rowOff>76248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20117,7 +20170,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20144,13 +20197,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>1122</xdr:row>
+      <xdr:row>1121</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>895393</xdr:colOff>
-      <xdr:row>1127</xdr:row>
+      <xdr:row>1126</xdr:row>
       <xdr:rowOff>82599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20167,7 +20220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20194,13 +20247,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>1102</xdr:row>
+      <xdr:row>1101</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6636023</xdr:colOff>
-      <xdr:row>1114</xdr:row>
+      <xdr:row>1113</xdr:row>
       <xdr:rowOff>158864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20244,13 +20297,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>1147</xdr:row>
+      <xdr:row>1146</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5505450</xdr:colOff>
-      <xdr:row>1169</xdr:row>
+      <xdr:row>1168</xdr:row>
       <xdr:rowOff>78799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20294,13 +20347,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1172</xdr:row>
+      <xdr:row>1171</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047799</xdr:colOff>
-      <xdr:row>1177</xdr:row>
+      <xdr:row>1176</xdr:row>
       <xdr:rowOff>25448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20317,7 +20370,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20344,13 +20397,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>1182</xdr:row>
+      <xdr:row>1181</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>965243</xdr:colOff>
-      <xdr:row>1187</xdr:row>
+      <xdr:row>1186</xdr:row>
       <xdr:rowOff>88949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20367,7 +20420,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20467,7 +20520,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20517,7 +20570,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20544,13 +20597,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1225</xdr:row>
+      <xdr:row>1224</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>6661483</xdr:colOff>
-      <xdr:row>1234</xdr:row>
+      <xdr:row>1233</xdr:row>
       <xdr:rowOff>165188</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20594,13 +20647,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1235</xdr:row>
+      <xdr:row>1234</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>933493</xdr:colOff>
-      <xdr:row>1240</xdr:row>
+      <xdr:row>1239</xdr:row>
       <xdr:rowOff>76249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -20617,7 +20670,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20785,7 +20838,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20835,7 +20888,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20935,7 +20988,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21035,7 +21088,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21135,7 +21188,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21185,7 +21238,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21235,7 +21288,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21285,7 +21338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21335,7 +21388,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21411,15 +21464,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5708650</xdr:colOff>
-      <xdr:row>241</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>5842000</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6661199</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>133408</xdr:rowOff>
+      <xdr:colOff>6794549</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>108008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21435,7 +21488,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21448,7 +21501,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5708650" y="44831000"/>
+          <a:off x="5842000" y="44583350"/>
           <a:ext cx="952549" cy="1124008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21485,7 +21538,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21512,13 +21565,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>1240</xdr:row>
+      <xdr:row>1239</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>996999</xdr:colOff>
-      <xdr:row>1247</xdr:row>
+      <xdr:row>1246</xdr:row>
       <xdr:rowOff>58</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21535,7 +21588,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21562,13 +21615,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1262</xdr:row>
+      <xdr:row>1261</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1085899</xdr:colOff>
-      <xdr:row>1267</xdr:row>
+      <xdr:row>1266</xdr:row>
       <xdr:rowOff>158798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21585,7 +21638,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21612,13 +21665,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>1268</xdr:row>
+      <xdr:row>1267</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009693</xdr:colOff>
-      <xdr:row>1273</xdr:row>
+      <xdr:row>1272</xdr:row>
       <xdr:rowOff>107999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -21635,7 +21688,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21650,6 +21703,56 @@
         <a:xfrm>
           <a:off x="171450" y="241960400"/>
           <a:ext cx="838243" cy="952549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>1285</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1098599</xdr:colOff>
+      <xdr:row>1291</xdr:row>
+      <xdr:rowOff>31798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="376" name="図 375">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C91593-8A91-4F43-8073-C6741E0D8981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="146050" y="235788200"/>
+          <a:ext cx="952549" cy="927148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21958,10 +22061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A1301"/>
+  <dimension ref="A1:A1300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1261" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1294" sqref="A1294"/>
+    <sheetView tabSelected="1" topLeftCell="A1242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1293" sqref="A1293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -21994,7 +22097,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -22103,7 +22206,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -22156,197 +22259,197 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="23.5">
       <c r="A51" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="23" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="23.5">
       <c r="A54" s="16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.5">
       <c r="A79" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.5">
       <c r="A121" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17.5">
       <c r="A122" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="14" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.5">
       <c r="A130" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="152" spans="1:1">
@@ -22354,57 +22457,57 @@
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="23.5">
       <c r="A156" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="23.5">
       <c r="A159" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="17.5">
       <c r="A191" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="204" spans="1:1">
@@ -22412,22 +22515,22 @@
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="23.5">
       <c r="A208" s="13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="23" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="23.5">
       <c r="A211" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="213" spans="1:1" s="4" customFormat="1">
@@ -22435,77 +22538,77 @@
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="14" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" ht="17.5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="17.5">
+      <c r="A241" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
       <c r="A242" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="14" t="s">
-        <v>391</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="14" t="s">
-        <v>398</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="14" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="23.5">
       <c r="A260" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="261" spans="1:1">
@@ -22530,62 +22633,63 @@
     <row r="266" spans="1:1">
       <c r="A266" s="1"/>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="1"/>
+    <row r="267" spans="1:1" ht="17.5">
+      <c r="A267" s="14" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" spans="1:1" ht="17.5">
+      <c r="A268" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
       <c r="A269" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="14" t="s">
-        <v>37</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="1"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="1"/>
+      <c r="A274" s="14" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="A276" s="14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="17.5">
       <c r="A277" s="14" t="s">
-        <v>41</v>
+        <v>433</v>
       </c>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="1"/>
+      <c r="A278" s="14" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="1"/>
-    </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="1"/>
+      <c r="A281" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1"/>
@@ -22604,17 +22708,17 @@
     </row>
     <row r="287" spans="1:1" ht="17.5">
       <c r="A287" s="14" t="s">
-        <v>43</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="290" spans="1:1">
@@ -22622,12 +22726,12 @@
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="293" spans="1:1">
@@ -22635,27 +22739,27 @@
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="299" spans="1:1">
@@ -22663,33 +22767,36 @@
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="17.5">
       <c r="A307" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" ht="23.5">
-      <c r="A312" s="16" t="s">
-        <v>57</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="23.5">
+      <c r="A311" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1"/>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="1"/>
@@ -22709,13 +22816,13 @@
     <row r="318" spans="1:1">
       <c r="A318" s="1"/>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" spans="1:1" ht="17.5">
-      <c r="A320" s="14" t="s">
-        <v>59</v>
-      </c>
+    <row r="319" spans="1:1" ht="17.5">
+      <c r="A319" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="1"/>
@@ -22735,18 +22842,18 @@
     <row r="326" spans="1:1">
       <c r="A326" s="1"/>
     </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" spans="1:1" ht="17.5">
+    <row r="327" spans="1:1" ht="17.5">
+      <c r="A327" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
       <c r="A328" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1"/>
@@ -22755,45 +22862,45 @@
       <c r="A331" s="1"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="1"/>
+      <c r="A332" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="1"/>
+      <c r="A338" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="1"/>
@@ -22810,13 +22917,13 @@
     <row r="345" spans="1:1">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" spans="1:1" ht="17.5">
-      <c r="A347" s="14" t="s">
-        <v>69</v>
-      </c>
+    <row r="346" spans="1:1" ht="17.5">
+      <c r="A346" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1"/>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1"/>
@@ -22828,12 +22935,12 @@
       <c r="A350" s="1"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="1"/>
+      <c r="A351" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="1"/>
@@ -22848,12 +22955,12 @@
       <c r="A356" s="1"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="1"/>
+      <c r="A357" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="1"/>
@@ -22865,7 +22972,7 @@
       <c r="A361" s="1"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="1"/>
+      <c r="A362" s="8"/>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="8"/>
@@ -22876,31 +22983,31 @@
     <row r="365" spans="1:1">
       <c r="A365" s="8"/>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="8"/>
-    </row>
-    <row r="367" spans="1:1" ht="17.5">
+    <row r="366" spans="1:1" ht="17.5">
+      <c r="A366" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
       <c r="A367" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="14" t="s">
-        <v>74</v>
-      </c>
+      <c r="A369" s="8"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="8"/>
+      <c r="A370" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="A371" s="8"/>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="8"/>
@@ -22909,313 +23016,313 @@
       <c r="A373" s="8"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="8"/>
+      <c r="A374" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="14" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="8"/>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" s="8"/>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="23.5">
+      <c r="A390" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="17.5">
+      <c r="A395" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" s="23" t="s">
+    <row r="396" spans="1:1">
+      <c r="A396" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="14" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" ht="23.5">
-      <c r="A391" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" ht="17.5">
-      <c r="A396" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="23.5">
+      <c r="A416" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="14" t="s">
+    <row r="418" spans="1:1">
+      <c r="A418" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" s="14" t="s">
+    <row r="419" spans="1:1" ht="23.5">
+      <c r="A419" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="23.5">
-      <c r="A417" s="13" t="s">
+    <row r="424" spans="1:1" ht="17.5">
+      <c r="A424" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="23" t="s">
+    <row r="425" spans="1:1">
+      <c r="A425" s="14" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" ht="23.5">
-      <c r="A420" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" ht="17.5">
-      <c r="A425" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="17.5">
+      <c r="A430" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="14" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" ht="17.5">
-      <c r="A431" s="14" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" s="14"/>
-    </row>
-    <row r="438" spans="1:1" ht="17.5">
+      <c r="A434" s="14"/>
+    </row>
+    <row r="437" spans="1:1" ht="17.5">
+      <c r="A437" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
       <c r="A438" s="14" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="14"/>
-    </row>
-    <row r="456" spans="1:1" ht="17.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="14"/>
+    </row>
+    <row r="455" spans="1:1" ht="17.5">
+      <c r="A455" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
       <c r="A456" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" ht="17.5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="17.5">
+      <c r="A470" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
       <c r="A471" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="14" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" s="14" t="s">
-        <v>108</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="14"/>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="14"/>
     </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="14"/>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="14"/>
-    </row>
-    <row r="489" spans="1:1" ht="17.5">
+    <row r="487" spans="1:1">
+      <c r="A487" s="14"/>
+    </row>
+    <row r="488" spans="1:1" ht="17.5">
+      <c r="A488" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
       <c r="A489" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="14" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="14"/>
+      <c r="A492" s="14"/>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="14" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="14" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1">
-      <c r="A509" s="14" t="s">
-        <v>288</v>
-      </c>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="14"/>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="14"/>
@@ -23223,44 +23330,44 @@
     <row r="512" spans="1:1">
       <c r="A512" s="14"/>
     </row>
-    <row r="513" spans="1:1">
-      <c r="A513" s="14"/>
-    </row>
-    <row r="515" spans="1:1">
-      <c r="A515" s="14" t="s">
+    <row r="514" spans="1:1">
+      <c r="A514" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="14"/>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="23.5">
+      <c r="A520" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="518" spans="1:1">
-      <c r="A518" s="14"/>
-    </row>
-    <row r="520" spans="1:1">
-      <c r="A520" s="23" t="s">
+    <row r="529" spans="1:1">
+      <c r="A529" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="521" spans="1:1" ht="23.5">
-      <c r="A521" s="16" t="s">
+    <row r="532" spans="1:1">
+      <c r="A532" s="14"/>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
-      <c r="A526" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1">
-      <c r="A530" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1">
-      <c r="A533" s="14"/>
-    </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="A534" s="14"/>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="14"/>
@@ -23269,53 +23376,53 @@
       <c r="A536" s="14"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="14"/>
+      <c r="A537" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="A538" s="14"/>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="14"/>
     </row>
-    <row r="540" spans="1:1">
-      <c r="A540" s="14"/>
-    </row>
-    <row r="542" spans="1:1" ht="17.5">
-      <c r="A542" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1">
-      <c r="A548" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" s="14" t="s">
+    <row r="541" spans="1:1" ht="17.5">
+      <c r="A541" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="557" spans="1:1">
-      <c r="A557" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" ht="17.5">
-      <c r="A561" s="14" t="s">
-        <v>402</v>
+    <row r="547" spans="1:1">
+      <c r="A547" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" ht="17.5">
+      <c r="A560" s="14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="14" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="A567" s="14"/>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="14"/>
@@ -23326,242 +23433,244 @@
     <row r="570" spans="1:1">
       <c r="A570" s="14"/>
     </row>
-    <row r="571" spans="1:1">
-      <c r="A571" s="14"/>
-    </row>
-    <row r="573" spans="1:1">
-      <c r="A573" s="14" t="s">
+    <row r="572" spans="1:1">
+      <c r="A572" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" ht="23.5">
+      <c r="A573" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="574" spans="1:1" ht="23.5">
-      <c r="A574" s="13" t="s">
+    <row r="576" spans="1:1" ht="23.5">
+      <c r="A576" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" ht="17.5">
+      <c r="A581" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="576" spans="1:1">
-      <c r="A576" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" ht="23.5">
-      <c r="A577" s="16" t="s">
+    <row r="582" spans="1:1">
+      <c r="A582" s="14" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" ht="17.5">
-      <c r="A582" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" ht="17.5">
+      <c r="A597" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="14" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1">
-      <c r="A585" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1" ht="17.5">
-      <c r="A598" s="14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="14" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="14" t="s">
-        <v>403</v>
+        <v>142</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="14" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="17.5">
+      <c r="A609" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" ht="17.5">
+      <c r="A611" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="604" spans="1:1">
-      <c r="A604" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="610" spans="1:1" ht="17.5">
-      <c r="A610" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1" ht="17.5">
+    <row r="612" spans="1:1">
       <c r="A612" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1">
-      <c r="A614" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="14" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
-      <c r="A618" s="14" t="s">
-        <v>143</v>
+    <row r="628" spans="1:1">
+      <c r="A628" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1">
-      <c r="A630" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="14" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1">
-      <c r="A635" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1">
-      <c r="A642" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1">
-      <c r="A648" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" ht="23.5">
+      <c r="A658" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="654" spans="1:1">
-      <c r="A654" s="14" t="s">
+    <row r="662" spans="1:1">
+      <c r="A662" s="14" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1">
-      <c r="A658" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" ht="23.5">
-      <c r="A659" s="16" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="665" spans="1:1">
-      <c r="A665" s="14" t="s">
+    <row r="676" spans="1:1">
+      <c r="A676" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" ht="23.5">
+      <c r="A677" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="667" spans="1:1">
-      <c r="A667" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1">
-      <c r="A671" s="14" t="s">
+    <row r="679" spans="1:1">
+      <c r="A679" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="677" spans="1:1">
-      <c r="A677" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" ht="23.5">
-      <c r="A678" s="13" t="s">
+    <row r="680" spans="1:1" ht="23.5">
+      <c r="A680" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="680" spans="1:1">
-      <c r="A680" s="23" t="s">
+    <row r="684" spans="1:1">
+      <c r="A684" s="14" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1" ht="23.5">
-      <c r="A681" s="16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" ht="23.5">
+      <c r="A695" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" ht="17.5">
+      <c r="A716" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="14" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1">
-      <c r="A686" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1">
-      <c r="A690" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1">
-      <c r="A695" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" ht="23.5">
-      <c r="A696" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" ht="17.5">
-      <c r="A717" s="14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="720" spans="1:1">
@@ -23571,405 +23680,405 @@
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1">
-      <c r="A722" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1">
-      <c r="A725" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1">
-      <c r="A728" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" ht="23.5">
-      <c r="A729" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" ht="23.5">
+      <c r="A728" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1">
-      <c r="A744" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="750" spans="1:1">
-      <c r="A750" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1">
-      <c r="A754" s="23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" ht="23.5">
-      <c r="A755" s="16" t="s">
-        <v>191</v>
+    <row r="754" spans="1:1" ht="23.5">
+      <c r="A754" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1">
-      <c r="A759" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1">
-      <c r="A762" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1">
-      <c r="A765" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="767" spans="1:1">
-      <c r="A767" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="770" spans="1:1">
-      <c r="A770" s="14" t="s">
-        <v>200</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1">
-      <c r="A775" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" ht="23.5">
+      <c r="A780" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" ht="17.5">
+      <c r="A795" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="780" spans="1:1">
-      <c r="A780" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" ht="23.5">
-      <c r="A781" s="16" t="s">
+    <row r="796" spans="1:1">
+      <c r="A796" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="796" spans="1:1" ht="17.5">
-      <c r="A796" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1">
-      <c r="A797" s="14" t="s">
-        <v>196</v>
+    <row r="799" spans="1:1">
+      <c r="A799" s="14" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1">
-      <c r="A802" s="14" t="s">
-        <v>431</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="14" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1">
-      <c r="A806" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" ht="23.5">
+      <c r="A810" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="810" spans="1:1">
-      <c r="A810" s="14" t="s">
+    <row r="812" spans="1:1">
+      <c r="A812" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" ht="23.5">
+      <c r="A813" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="811" spans="1:1" ht="23.5">
-      <c r="A811" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1">
-      <c r="A813" s="23" t="s">
+    <row r="827" spans="1:1" ht="17.5">
+      <c r="A827" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="814" spans="1:1" ht="23.5">
-      <c r="A814" s="16" t="s">
+    <row r="828" spans="1:1">
+      <c r="A828" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="818" spans="1:1">
-      <c r="A818" s="14" t="s">
+    <row r="834" spans="1:1">
+      <c r="A834" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="14" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1" ht="17.5">
-      <c r="A828" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1">
-      <c r="A829" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1">
-      <c r="A835" s="14" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1">
-      <c r="A840" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" ht="23.5">
+      <c r="A855" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="844" spans="1:1">
-      <c r="A844" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1">
-      <c r="A848" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" s="14" t="s">
+    <row r="857" spans="1:1">
+      <c r="A857" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="855" spans="1:1">
-      <c r="A855" s="14" t="s">
+    <row r="858" spans="1:1" ht="23.5">
+      <c r="A858" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="856" spans="1:1" ht="23.5">
-      <c r="A856" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="858" spans="1:1">
-      <c r="A858" s="23" t="s">
+    <row r="872" spans="1:1" ht="17.5">
+      <c r="A872" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="859" spans="1:1" ht="23.5">
-      <c r="A859" s="16" t="s">
+    <row r="876" spans="1:1">
+      <c r="A876" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="863" spans="1:1">
-      <c r="A863" s="14" t="s">
+    <row r="882" spans="1:1">
+      <c r="A882" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" ht="23.5">
+      <c r="A883" s="16" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="873" spans="1:1" ht="17.5">
-      <c r="A873" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1">
-      <c r="A874" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="877" spans="1:1">
-      <c r="A877" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="881" spans="1:1">
-      <c r="A881" s="14" t="s">
+    <row r="888" spans="1:1" ht="17.5">
+      <c r="A888" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="883" spans="1:1">
-      <c r="A883" s="23" t="s">
+    <row r="889" spans="1:1">
+      <c r="A889" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" ht="17.5">
+      <c r="A905" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="884" spans="1:1" ht="23.5">
-      <c r="A884" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="889" spans="1:1" ht="17.5">
-      <c r="A889" s="14" t="s">
+    <row r="906" spans="1:1">
+      <c r="A906" s="14" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="890" spans="1:1">
-      <c r="A890" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="906" spans="1:1" ht="17.5">
-      <c r="A906" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="910" spans="1:1">
-      <c r="A910" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="913" spans="1:1">
-      <c r="A913" s="14" t="s">
-        <v>418</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="917" spans="1:1">
-      <c r="A917" s="14" t="s">
-        <v>420</v>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" s="14" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="922" spans="1:1">
-      <c r="A922" s="14" t="s">
-        <v>418</v>
-      </c>
+      <c r="A922" s="14"/>
     </row>
     <row r="923" spans="1:1">
-      <c r="A923" s="14"/>
+      <c r="A923" s="14" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1">
-      <c r="A925" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927" s="14" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1" ht="23.5">
-      <c r="A937" s="16" t="s">
-        <v>232</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" ht="23.5">
+      <c r="A936" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940" s="14" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944" s="14" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" s="14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949" s="14" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="950" spans="1:1">
@@ -23979,314 +24088,314 @@
     </row>
     <row r="951" spans="1:1">
       <c r="A951" s="14" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" ht="23.5">
+      <c r="A956" s="16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="953" spans="1:1">
-      <c r="A953" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1">
-      <c r="A956" s="23" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1" ht="23.5">
-      <c r="A957" s="16" t="s">
-        <v>242</v>
+    <row r="960" spans="1:1">
+      <c r="A960" s="14" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961" s="14" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1">
-      <c r="A963" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970" s="14" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1">
-      <c r="A972" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1">
-      <c r="A976" s="14" t="s">
-        <v>425</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980" s="14" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="14" t="s">
-        <v>407</v>
+        <v>244</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987" s="23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="984" spans="1:1">
-      <c r="A984" s="14" t="s">
+    <row r="988" spans="1:1" ht="23.5">
+      <c r="A988" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" ht="17.5">
+      <c r="A992" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="988" spans="1:1">
-      <c r="A988" s="23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1" ht="23.5">
-      <c r="A989" s="16" t="s">
+    <row r="993" spans="1:1">
+      <c r="A993" s="14" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1" ht="17.5">
-      <c r="A993" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002" s="14" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1">
-      <c r="A995" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1">
-      <c r="A999" s="14" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="1003" spans="1:1">
       <c r="A1003" s="14" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1004" spans="1:1">
-      <c r="A1004" s="14" t="s">
-        <v>290</v>
-      </c>
+      <c r="A1004" s="14"/>
     </row>
     <row r="1005" spans="1:1">
-      <c r="A1005" s="14"/>
+      <c r="A1005" s="14" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="1006" spans="1:1">
-      <c r="A1006" s="14" t="s">
+      <c r="A1006" s="14"/>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007" s="14" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="1007" spans="1:1">
-      <c r="A1007" s="14"/>
     </row>
     <row r="1008" spans="1:1">
       <c r="A1008" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1009" spans="1:1">
-      <c r="A1009" s="14" t="s">
-        <v>291</v>
-      </c>
+      <c r="A1009" s="14"/>
     </row>
     <row r="1010" spans="1:1">
       <c r="A1010" s="14"/>
     </row>
-    <row r="1011" spans="1:1">
-      <c r="A1011" s="14"/>
-    </row>
-    <row r="1028" spans="1:1" ht="17.5">
-      <c r="A1028" s="14" t="s">
-        <v>262</v>
+    <row r="1027" spans="1:1" ht="17.5">
+      <c r="A1027" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="1036" spans="1:1">
-      <c r="A1036" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
     <row r="1039" spans="1:1">
-      <c r="A1039" s="14" t="s">
-        <v>263</v>
-      </c>
+      <c r="A1039" s="14"/>
     </row>
     <row r="1040" spans="1:1">
-      <c r="A1040" s="14"/>
-    </row>
-    <row r="1041" spans="1:1">
-      <c r="A1041" s="14" t="s">
+      <c r="A1040" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" ht="23.5">
+      <c r="A1041" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" ht="23.5">
+      <c r="A1044" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048" s="14" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1" ht="23.5">
-      <c r="A1042" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1">
-      <c r="A1044" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" ht="23.5">
-      <c r="A1045" s="16" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049" s="14" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1">
-      <c r="A1050" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1">
+      <c r="A1087" s="14" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1">
-      <c r="A1091" s="14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1">
-      <c r="A1093" s="23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1" ht="23.5">
-      <c r="A1094" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1">
+      <c r="A1092" s="23" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" ht="23.5">
+      <c r="A1093" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1">
+      <c r="A1096" s="14" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" ht="17.5">
+      <c r="A1116" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="1098" spans="1:1">
-      <c r="A1098" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1">
-      <c r="A1100" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" ht="17.5">
+    <row r="1117" spans="1:1">
       <c r="A1117" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
-      <c r="A1118" s="14" t="s">
+      <c r="A1118" s="14"/>
+    </row>
+    <row r="1119" spans="1:1">
+      <c r="A1119" s="14" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="1119" spans="1:1">
-      <c r="A1119" s="14"/>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121" s="14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122" s="14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1">
+      <c r="A1125" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1">
+      <c r="A1145" s="23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" ht="23.5">
+      <c r="A1146" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" ht="17.5">
+      <c r="A1172" s="14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="1123" spans="1:1">
-      <c r="A1123" s="14" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1">
-      <c r="A1126" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:1">
-      <c r="A1146" s="23" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1" ht="23.5">
-      <c r="A1147" s="16" t="s">
+    <row r="1173" spans="1:1">
+      <c r="A1173" s="14"/>
+    </row>
+    <row r="1174" spans="1:1">
+      <c r="A1174" s="14" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="1173" spans="1:1" ht="17.5">
-      <c r="A1173" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1">
-      <c r="A1174" s="14"/>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175" s="14" t="s">
@@ -24295,82 +24404,82 @@
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1">
-      <c r="A1177" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1">
+      <c r="A1178" s="14" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179" s="14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180" s="14" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1">
-      <c r="A1182" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1">
+      <c r="A1185" s="14" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188" s="14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1">
-      <c r="A1189" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1">
+      <c r="A1190" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:1">
-      <c r="A1192" s="14" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:1">
-      <c r="A1199" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:1" ht="23.5">
-      <c r="A1200" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:1">
-      <c r="A1202" s="23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:1" ht="23.5">
-      <c r="A1203" s="16" t="s">
-        <v>265</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1">
+      <c r="A1198" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" ht="23.5">
+      <c r="A1199" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1">
+      <c r="A1201" s="23" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" ht="23.5">
+      <c r="A1202" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1">
+      <c r="A1206" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
@@ -24380,131 +24489,146 @@
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:1">
-      <c r="A1210" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1">
+      <c r="A1213" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:1">
-      <c r="A1216" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:1">
-      <c r="A1220" s="14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1">
+      <c r="A1219" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="1221" spans="1:1" ht="23.5">
-      <c r="A1221" s="13" t="s">
+    <row r="1220" spans="1:1" ht="23.5">
+      <c r="A1220" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1223" spans="1:1">
-      <c r="A1223" s="23" t="s">
+    <row r="1222" spans="1:1">
+      <c r="A1222" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="1224" spans="1:1" ht="23.5">
-      <c r="A1224" s="16" t="s">
+    <row r="1223" spans="1:1" ht="23.5">
+      <c r="A1223" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1239" spans="1:1" ht="17.5">
-      <c r="A1239" s="14" t="s">
-        <v>408</v>
+    <row r="1238" spans="1:1" ht="17.5">
+      <c r="A1238" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1">
+      <c r="A1243" s="14" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:1">
-      <c r="A1246" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1">
+      <c r="A1254" s="14" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:1">
-      <c r="A1256" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:1">
-      <c r="A1260" s="14" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1">
+      <c r="A1259" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" s="14" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1">
-      <c r="A1267" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:1">
-      <c r="A1272" s="14" t="s">
-        <v>415</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" s="14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" s="14" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277" s="14" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278" s="14" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:1">
-      <c r="A1279" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:1">
-      <c r="A1285" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1">
+      <c r="A1284" s="14" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1">
+      <c r="A1289" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1">
+      <c r="A1290" s="14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1">
+      <c r="A1291" s="14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1">
+      <c r="A1292" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" ht="23.5">
+      <c r="A1299" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="1300" spans="1:1" ht="23.5">
       <c r="A1300" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:1" ht="23.5">
-      <c r="A1301" s="2" t="s">
         <v>19</v>
       </c>
     </row>
